--- a/Projekt1-Wtykło-Dąbrowski-2.xlsx
+++ b/Projekt1-Wtykło-Dąbrowski-2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="145">
   <si>
     <t>System</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>ss</t>
+  </si>
+  <si>
+    <t>sdfas</t>
   </si>
 </sst>
 </file>
@@ -1380,12 +1383,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1418,6 +1415,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1982,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF702"/>
+  <dimension ref="A1:AH702"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O347" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="AF384" sqref="AF384"/>
+      <selection activeCell="AH388" sqref="AH388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2015,10 +2018,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="103" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="35" t="s">
@@ -2027,16 +2030,16 @@
       <c r="D1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="103" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="97"/>
+      <c r="I1" s="108"/>
       <c r="P1" s="63" t="s">
         <v>86</v>
       </c>
@@ -2069,15 +2072,15 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="108"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="104"/>
       <c r="C2" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="106"/>
+      <c r="E2" s="104"/>
       <c r="G2" s="58" t="s">
         <v>1</v>
       </c>
@@ -2271,10 +2274,10 @@
       <c r="G5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="97">
+      <c r="H5" s="108">
         <v>200</v>
       </c>
-      <c r="I5" s="97"/>
+      <c r="I5" s="108"/>
       <c r="P5" s="63">
         <v>0.13</v>
       </c>
@@ -2331,10 +2334,10 @@
       <c r="G6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="97">
+      <c r="H6" s="108">
         <v>20</v>
       </c>
-      <c r="I6" s="97"/>
+      <c r="I6" s="108"/>
       <c r="P6" s="63">
         <v>0.14000000000000001</v>
       </c>
@@ -2393,10 +2396,10 @@
       <c r="G7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="97">
+      <c r="H7" s="108">
         <v>1</v>
       </c>
-      <c r="I7" s="97"/>
+      <c r="I7" s="108"/>
       <c r="P7" s="63">
         <v>0.15</v>
       </c>
@@ -2455,10 +2458,10 @@
       <c r="G8" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="97">
+      <c r="H8" s="108">
         <v>1</v>
       </c>
-      <c r="I8" s="97"/>
+      <c r="I8" s="108"/>
       <c r="P8" s="63">
         <v>0.16</v>
       </c>
@@ -2517,10 +2520,10 @@
       <c r="G9" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H9" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="97"/>
+      <c r="I9" s="108"/>
       <c r="P9" s="63">
         <v>0.17</v>
       </c>
@@ -4060,8 +4063,8 @@
     <row r="35" spans="1:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="82"/>
       <c r="B35" s="83"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
       <c r="E35" s="81"/>
       <c r="F35" s="81"/>
       <c r="G35" s="3"/>
@@ -4107,13 +4110,13 @@
       </c>
     </row>
     <row r="36" spans="1:25" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="102"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="100"/>
       <c r="F36" s="81"/>
       <c r="G36" s="2"/>
       <c r="I36" s="5"/>
@@ -4503,13 +4506,13 @@
       </c>
     </row>
     <row r="44" spans="1:25" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="100" t="s">
+      <c r="A44" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="102"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="100"/>
       <c r="F44" s="81"/>
       <c r="J44" s="1"/>
       <c r="P44" s="63">
@@ -5113,13 +5116,13 @@
       </c>
     </row>
     <row r="56" spans="1:25" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="100" t="s">
+      <c r="A56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="103"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="104"/>
+      <c r="B56" s="101"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="102"/>
       <c r="F56" s="81"/>
       <c r="P56" s="63">
         <v>0.64</v>
@@ -5261,8 +5264,8 @@
     <row r="59" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="81"/>
       <c r="B59" s="80"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="99"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="97"/>
       <c r="E59" s="81"/>
       <c r="F59" s="90" t="s">
         <v>129</v>
@@ -18686,7 +18689,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="385" spans="16:25" x14ac:dyDescent="0.2">
+    <row r="385" spans="16:34" x14ac:dyDescent="0.2">
       <c r="P385" s="63">
         <v>3.9299999999999802</v>
       </c>
@@ -18727,7 +18730,7 @@
         <v>25.928000000000218</v>
       </c>
     </row>
-    <row r="386" spans="16:25" x14ac:dyDescent="0.2">
+    <row r="386" spans="16:34" x14ac:dyDescent="0.2">
       <c r="P386" s="63">
         <v>3.93999999999998</v>
       </c>
@@ -18768,7 +18771,7 @@
         <v>25.938000000000219</v>
       </c>
     </row>
-    <row r="387" spans="16:25" x14ac:dyDescent="0.2">
+    <row r="387" spans="16:34" x14ac:dyDescent="0.2">
       <c r="P387" s="63">
         <v>3.9499999999999802</v>
       </c>
@@ -18809,7 +18812,7 @@
         <v>25.948000000000221</v>
       </c>
     </row>
-    <row r="388" spans="16:25" x14ac:dyDescent="0.2">
+    <row r="388" spans="16:34" x14ac:dyDescent="0.2">
       <c r="P388" s="63">
         <v>3.95999999999998</v>
       </c>
@@ -18849,8 +18852,11 @@
         <f t="shared" si="54"/>
         <v>25.958000000000222</v>
       </c>
-    </row>
-    <row r="389" spans="16:25" x14ac:dyDescent="0.2">
+      <c r="AH388" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="389" spans="16:34" x14ac:dyDescent="0.2">
       <c r="P389" s="63">
         <v>3.9699999999999802</v>
       </c>
@@ -18891,7 +18897,7 @@
         <v>25.968000000000224</v>
       </c>
     </row>
-    <row r="390" spans="16:25" x14ac:dyDescent="0.2">
+    <row r="390" spans="16:34" x14ac:dyDescent="0.2">
       <c r="P390" s="63">
         <v>3.97999999999998</v>
       </c>
@@ -18932,7 +18938,7 @@
         <v>25.978000000000225</v>
       </c>
     </row>
-    <row r="391" spans="16:25" x14ac:dyDescent="0.2">
+    <row r="391" spans="16:34" x14ac:dyDescent="0.2">
       <c r="P391" s="63">
         <v>3.9899999999999798</v>
       </c>
@@ -18973,7 +18979,7 @@
         <v>25.988000000000227</v>
       </c>
     </row>
-    <row r="392" spans="16:25" x14ac:dyDescent="0.2">
+    <row r="392" spans="16:34" x14ac:dyDescent="0.2">
       <c r="P392" s="63">
         <v>3.99999999999998</v>
       </c>
@@ -19014,7 +19020,7 @@
         <v>25.998000000000228</v>
       </c>
     </row>
-    <row r="393" spans="16:25" x14ac:dyDescent="0.2">
+    <row r="393" spans="16:34" x14ac:dyDescent="0.2">
       <c r="P393" s="63">
         <v>4.0099999999999802</v>
       </c>
@@ -19055,7 +19061,7 @@
         <v>26.00800000000023</v>
       </c>
     </row>
-    <row r="394" spans="16:25" x14ac:dyDescent="0.2">
+    <row r="394" spans="16:34" x14ac:dyDescent="0.2">
       <c r="P394" s="63">
         <v>4.01999999999998</v>
       </c>
@@ -19096,7 +19102,7 @@
         <v>26.018000000000232</v>
       </c>
     </row>
-    <row r="395" spans="16:25" x14ac:dyDescent="0.2">
+    <row r="395" spans="16:34" x14ac:dyDescent="0.2">
       <c r="P395" s="63">
         <v>4.0299999999999701</v>
       </c>
@@ -19137,7 +19143,7 @@
         <v>26.028000000000233</v>
       </c>
     </row>
-    <row r="396" spans="16:25" x14ac:dyDescent="0.2">
+    <row r="396" spans="16:34" x14ac:dyDescent="0.2">
       <c r="P396" s="63">
         <v>4.0399999999999698</v>
       </c>
@@ -19178,7 +19184,7 @@
         <v>26.038000000000235</v>
       </c>
     </row>
-    <row r="397" spans="16:25" x14ac:dyDescent="0.2">
+    <row r="397" spans="16:34" x14ac:dyDescent="0.2">
       <c r="P397" s="63">
         <v>4.0499999999999696</v>
       </c>
@@ -19219,7 +19225,7 @@
         <v>26.048000000000236</v>
       </c>
     </row>
-    <row r="398" spans="16:25" x14ac:dyDescent="0.2">
+    <row r="398" spans="16:34" x14ac:dyDescent="0.2">
       <c r="P398" s="63">
         <v>4.0599999999999703</v>
       </c>
@@ -19260,7 +19266,7 @@
         <v>26.058000000000238</v>
       </c>
     </row>
-    <row r="399" spans="16:25" x14ac:dyDescent="0.2">
+    <row r="399" spans="16:34" x14ac:dyDescent="0.2">
       <c r="P399" s="63">
         <v>4.0699999999999701</v>
       </c>
@@ -19301,7 +19307,7 @@
         <v>26.068000000000239</v>
       </c>
     </row>
-    <row r="400" spans="16:25" x14ac:dyDescent="0.2">
+    <row r="400" spans="16:34" x14ac:dyDescent="0.2">
       <c r="P400" s="63">
         <v>4.0799999999999699</v>
       </c>
@@ -27570,6 +27576,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="A56:E56"/>
@@ -27578,12 +27590,6 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Projekt1-Wtykło-Dąbrowski-2.xlsx
+++ b/Projekt1-Wtykło-Dąbrowski-2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="155">
   <si>
     <t>System</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>S</t>
-  </si>
-  <si>
-    <t>K</t>
   </si>
   <si>
     <t>I = D+G</t>
@@ -464,6 +461,39 @@
   <si>
     <t>sdfas</t>
   </si>
+  <si>
+    <t>Poziom szumów</t>
+  </si>
+  <si>
+    <t>Szerokość pasma</t>
+  </si>
+  <si>
+    <t>dBHz</t>
+  </si>
+  <si>
+    <t>Minimalna wartość Ec/No (Energia na chip/gęstość mocy w paśmie)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>K = X+ Y + W - 174</t>
+  </si>
+  <si>
+    <t>Czułości odbiornika w zależności od usługi MCS:</t>
+  </si>
+  <si>
+    <t>MCS-2</t>
+  </si>
+  <si>
+    <t>MCS-7</t>
+  </si>
+  <si>
+    <t>Czułość odbiornika (Static 1900)*</t>
+  </si>
+  <si>
+    <t>Czułość odbiornika (TU50iFH 1900)*</t>
+  </si>
 </sst>
 </file>
 
@@ -669,7 +699,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1150,6 +1180,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1157,7 +1211,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1352,7 +1406,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1421,6 +1474,24 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1987,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O347" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="AH388" sqref="AH388"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2018,10 +2089,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="102" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="35" t="s">
@@ -2030,57 +2101,57 @@
       <c r="D1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="102" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="108"/>
+      <c r="I1" s="107"/>
       <c r="P1" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q1" s="63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R1" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="S1" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="T1" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="T1" s="63" t="s">
-        <v>110</v>
-      </c>
       <c r="U1" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="V1" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="V1" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="W1" s="96" t="s">
+      <c r="W1" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="96" t="s">
+      <c r="Y1" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="2" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="104"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="104"/>
+      <c r="E2" s="103"/>
       <c r="G2" s="58" t="s">
         <v>1</v>
       </c>
@@ -2119,11 +2190,11 @@
       </c>
       <c r="W2">
         <f>S2+Y2+$D$48+$D$49</f>
-        <v>55.085580187383741</v>
+        <v>51.563755006270114</v>
       </c>
       <c r="X2">
         <f>$T2+$Y2+$D$48+$D$49</f>
-        <v>54.616225458656004</v>
+        <v>51.094400277542377</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -2181,11 +2252,11 @@
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W66" si="4">S3+Y3+$D$48+$D$49</f>
-        <v>56.135633890548249</v>
+        <v>52.613808709434622</v>
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X66" si="5">$T3+$Y3+$D$48+$D$49</f>
-        <v>55.666279161820512</v>
+        <v>52.144453980706885</v>
       </c>
       <c r="Y3">
         <v>0.22220000000000001</v>
@@ -2208,7 +2279,7 @@
         <v>59</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="60">
         <v>1711</v>
@@ -2245,17 +2316,17 @@
       </c>
       <c r="W4">
         <f t="shared" si="4"/>
-        <v>57.113605108336245</v>
+        <v>53.591779927222618</v>
       </c>
       <c r="X4">
         <f t="shared" si="5"/>
-        <v>56.644250379608508</v>
+        <v>53.122425198494881</v>
       </c>
       <c r="Y4">
         <v>0.44440000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>31</v>
       </c>
@@ -2274,10 +2345,10 @@
       <c r="G5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="108">
+      <c r="H5" s="107">
         <v>200</v>
       </c>
-      <c r="I5" s="108"/>
+      <c r="I5" s="107"/>
       <c r="P5" s="63">
         <v>0.13</v>
       </c>
@@ -2307,37 +2378,39 @@
       </c>
       <c r="W5">
         <f t="shared" si="4"/>
-        <v>58.031047233520482</v>
+        <v>54.509222052406855</v>
       </c>
       <c r="X5">
         <f t="shared" si="5"/>
-        <v>57.561692504792745</v>
+        <v>54.039867323679118</v>
       </c>
       <c r="Y5">
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="36">
+        <v>12</v>
+      </c>
+      <c r="D6" s="31">
+        <v>8</v>
+      </c>
+      <c r="E6" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="49"/>
       <c r="G6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="108">
+      <c r="H6" s="107">
         <v>20</v>
       </c>
-      <c r="I6" s="108"/>
+      <c r="I6" s="107"/>
       <c r="P6" s="63">
         <v>0.14000000000000001</v>
       </c>
@@ -2367,39 +2440,39 @@
       </c>
       <c r="W6">
         <f t="shared" si="4"/>
-        <v>58.896940900948508</v>
+        <v>55.375115719834881</v>
       </c>
       <c r="X6">
         <f t="shared" si="5"/>
-        <v>58.427586172220771</v>
+        <v>54.905760991107144</v>
       </c>
       <c r="Y6">
         <v>0.88880000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="19">
-        <v>30</v>
-      </c>
-      <c r="D7" s="20">
-        <v>0</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>60</v>
+      <c r="A7" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="36">
+        <v>54</v>
+      </c>
+      <c r="D7" s="31">
+        <v>54</v>
+      </c>
+      <c r="E7" s="109" t="s">
+        <v>49</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="108">
+      <c r="H7" s="107">
         <v>1</v>
       </c>
-      <c r="I7" s="108"/>
+      <c r="I7" s="107"/>
       <c r="P7" s="63">
         <v>0.15</v>
       </c>
@@ -2429,39 +2502,39 @@
       </c>
       <c r="W7">
         <f t="shared" si="4"/>
-        <v>59.718405368497372</v>
+        <v>56.196580187383745</v>
       </c>
       <c r="X7">
         <f t="shared" si="5"/>
-        <v>59.249050639769635</v>
+        <v>55.727225458656008</v>
       </c>
       <c r="Y7">
         <v>1.111</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="23">
-        <v>5.75</v>
-      </c>
-      <c r="D8" s="24">
-        <v>0</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>61</v>
+      <c r="A8" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="36">
+        <v>8</v>
+      </c>
+      <c r="D8" s="31">
+        <v>8</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="108">
+      <c r="H8" s="107">
         <v>1</v>
       </c>
-      <c r="I8" s="108"/>
+      <c r="I8" s="107"/>
       <c r="P8" s="63">
         <v>0.16</v>
       </c>
@@ -2491,39 +2564,39 @@
       </c>
       <c r="W8">
         <f t="shared" si="4"/>
-        <v>60.501179840502246</v>
+        <v>56.979354659388619</v>
       </c>
       <c r="X8">
         <f t="shared" si="5"/>
-        <v>60.031825111774509</v>
+        <v>56.509999930660882</v>
       </c>
       <c r="Y8">
         <v>1.3331999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="27" t="s">
+    <row r="9" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="28">
-        <v>1.75</v>
-      </c>
-      <c r="D9" s="29">
-        <v>0</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>62</v>
+      <c r="C9" s="23">
+        <v>3</v>
+      </c>
+      <c r="D9" s="24">
+        <v>3</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="108" t="s">
+      <c r="H9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="108"/>
+      <c r="I9" s="107"/>
       <c r="P9" s="63">
         <v>0.17</v>
       </c>
@@ -2553,28 +2626,32 @@
       </c>
       <c r="W9">
         <f t="shared" si="4"/>
-        <v>61.249958614949236</v>
+        <v>57.728133433835609</v>
       </c>
       <c r="X9">
         <f t="shared" si="5"/>
-        <v>60.780603886221499</v>
+        <v>57.258778705107872</v>
       </c>
       <c r="Y9">
         <v>1.5553999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="49"/>
+      <c r="A10" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="23">
+        <v>-100</v>
+      </c>
+      <c r="D10" s="24">
+        <v>-104</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>149</v>
+      </c>
       <c r="G10" s="58" t="s">
         <v>8</v>
       </c>
@@ -2613,35 +2690,33 @@
       </c>
       <c r="W10">
         <f t="shared" si="4"/>
-        <v>61.968630289449877</v>
+        <v>58.44680510833625</v>
       </c>
       <c r="X10">
         <f t="shared" si="5"/>
-        <v>61.49927556072214</v>
+        <v>57.977450379608513</v>
       </c>
       <c r="Y10">
         <v>1.7776000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="20">
-        <v>0</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>63</v>
-      </c>
+    <row r="11" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="49"/>
       <c r="F11" s="10"/>
       <c r="G11" s="59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="61">
         <f>300/H4</f>
@@ -2680,31 +2755,31 @@
       </c>
       <c r="W11">
         <f t="shared" si="4"/>
-        <v>62.660452206440311</v>
+        <v>59.138627025326684</v>
       </c>
       <c r="X11">
         <f t="shared" si="5"/>
-        <v>62.191097477712589</v>
+        <v>58.669272296598962</v>
       </c>
       <c r="Y11">
         <v>1.9998</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="23">
-        <v>14.7</v>
-      </c>
-      <c r="D12" s="24">
+      <c r="A12" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="19">
+        <v>30</v>
+      </c>
+      <c r="D12" s="20">
         <v>0</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>64</v>
+      <c r="E12" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
@@ -2744,11 +2819,11 @@
       </c>
       <c r="W12">
         <f t="shared" si="4"/>
-        <v>63.32818010066336</v>
+        <v>59.806354919549733</v>
       </c>
       <c r="X12">
         <f t="shared" si="5"/>
-        <v>62.858825371935623</v>
+        <v>59.337000190821996</v>
       </c>
       <c r="Y12">
         <v>2.222</v>
@@ -2756,19 +2831,19 @@
     </row>
     <row r="13" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="23">
-        <v>0.441</v>
+        <v>5.75</v>
       </c>
       <c r="D13" s="24">
         <v>0</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>65</v>
+      <c r="E13" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="12"/>
@@ -2808,47 +2883,47 @@
       </c>
       <c r="W13">
         <f t="shared" si="4"/>
-        <v>63.974166082062126</v>
+        <v>60.452340900948499</v>
       </c>
       <c r="X13">
         <f t="shared" si="5"/>
-        <v>63.504811353334389</v>
+        <v>59.982986172220762</v>
       </c>
       <c r="Y13">
         <v>2.4441999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="22" t="s">
+    <row r="14" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D14" s="24">
+      <c r="C14" s="28">
+        <v>1.75</v>
+      </c>
+      <c r="D14" s="29">
         <v>0</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>66</v>
+      <c r="E14" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I14" s="62">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J14" s="55">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K14" s="56">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P14" s="63">
         <v>0.22</v>
@@ -2879,38 +2954,34 @@
       </c>
       <c r="W14">
         <f t="shared" si="4"/>
-        <v>64.600433803827869</v>
+        <v>61.078608622714242</v>
       </c>
       <c r="X14">
         <f t="shared" si="5"/>
-        <v>64.131079075100132</v>
+        <v>60.609253893986505</v>
       </c>
       <c r="Y14">
         <v>2.6663999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="23">
-        <v>2.39</v>
-      </c>
-      <c r="D15" s="24">
-        <v>0</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>71</v>
-      </c>
+    <row r="15" spans="1:25" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="49"/>
       <c r="F15" s="14"/>
       <c r="G15" s="57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I15" s="62">
         <v>1.5</v>
@@ -2950,38 +3021,38 @@
       </c>
       <c r="W15">
         <f t="shared" si="4"/>
-        <v>65.208736907735599</v>
+        <v>61.686911726621972</v>
       </c>
       <c r="X15">
         <f t="shared" si="5"/>
-        <v>64.739382179007862</v>
+        <v>61.217556997894235</v>
       </c>
       <c r="Y15">
         <v>2.8885999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="23">
-        <v>10</v>
-      </c>
-      <c r="D16" s="24">
-        <v>2</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>67</v>
+      <c r="A16" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I16" s="62">
         <v>5</v>
@@ -3021,11 +3092,11 @@
       </c>
       <c r="W16">
         <f t="shared" si="4"/>
-        <v>65.800605021615866</v>
+        <v>62.278779840502239</v>
       </c>
       <c r="X16">
         <f t="shared" si="5"/>
-        <v>65.331250292888129</v>
+        <v>61.809425111774502</v>
       </c>
       <c r="Y16">
         <v>3.1107999999999998</v>
@@ -3033,26 +3104,26 @@
     </row>
     <row r="17" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="23">
-        <v>-104</v>
+        <v>14.7</v>
       </c>
       <c r="D17" s="24">
-        <v>-104</v>
+        <v>0</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H17" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I17" s="62"/>
       <c r="J17" s="55"/>
@@ -3086,11 +3157,11 @@
       </c>
       <c r="W17">
         <f t="shared" si="4"/>
-        <v>66.377380360824489</v>
+        <v>62.855555179710862</v>
       </c>
       <c r="X17">
         <f t="shared" si="5"/>
-        <v>65.908025632096766</v>
+        <v>62.386200450983139</v>
       </c>
       <c r="Y17">
         <v>3.3330000000000002</v>
@@ -3098,26 +3169,26 @@
     </row>
     <row r="18" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="23">
-        <v>2</v>
+        <v>0.441</v>
       </c>
       <c r="D18" s="24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H18" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I18" s="62"/>
       <c r="J18" s="55"/>
@@ -3151,38 +3222,38 @@
       </c>
       <c r="W18">
         <f t="shared" si="4"/>
-        <v>66.940247146800104</v>
+        <v>63.418421965686477</v>
       </c>
       <c r="X18">
         <f t="shared" si="5"/>
-        <v>66.470892418072367</v>
+        <v>62.94906723695874</v>
       </c>
       <c r="Y18">
         <v>3.5552000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="27" t="s">
+    <row r="19" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="28">
-        <v>5</v>
-      </c>
-      <c r="D19" s="29">
-        <v>5</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>24</v>
+      <c r="C19" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I19" s="62"/>
       <c r="J19" s="55"/>
@@ -3216,38 +3287,38 @@
       </c>
       <c r="W19">
         <f t="shared" si="4"/>
-        <v>67.490255470563497</v>
+        <v>63.96843028944987</v>
       </c>
       <c r="X19">
         <f t="shared" si="5"/>
-        <v>67.02090074183576</v>
+        <v>63.499075560722133</v>
       </c>
       <c r="Y19">
         <v>3.7774000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="47">
-        <v>50.61</v>
-      </c>
-      <c r="D20" s="48">
-        <v>32</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>72</v>
+      <c r="C20" s="23">
+        <v>2.39</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I20" s="62"/>
       <c r="J20" s="55"/>
@@ -3281,38 +3352,38 @@
       </c>
       <c r="W20">
         <f t="shared" si="4"/>
-        <v>68.02834081422813</v>
+        <v>64.506515633114503</v>
       </c>
       <c r="X20">
         <f t="shared" si="5"/>
-        <v>67.558986085500393</v>
+        <v>64.037160904386766</v>
       </c>
       <c r="Y20">
         <v>3.9996</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="19">
-        <v>-99</v>
-      </c>
-      <c r="D21" s="20">
-        <v>-99</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>73</v>
+      <c r="A21" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="23">
+        <v>10</v>
+      </c>
+      <c r="D21" s="24">
+        <v>2</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H21" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" s="62"/>
       <c r="J21" s="55"/>
@@ -3346,38 +3417,38 @@
       </c>
       <c r="W21">
         <f t="shared" si="4"/>
-        <v>68.555340145362862</v>
+        <v>65.033514964249235</v>
       </c>
       <c r="X21">
         <f t="shared" si="5"/>
-        <v>68.08598541663514</v>
+        <v>64.564160235521513</v>
       </c>
       <c r="Y21">
         <v>4.2218</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="28">
-        <v>145.22</v>
-      </c>
-      <c r="D22" s="29">
-        <v>121</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>74</v>
+      <c r="A22" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="23">
+        <v>2</v>
+      </c>
+      <c r="D22" s="24">
+        <v>10</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I22" s="62"/>
       <c r="J22" s="55"/>
@@ -3411,38 +3482,38 @@
       </c>
       <c r="W22">
         <f t="shared" si="4"/>
-        <v>69.072005281776995</v>
+        <v>65.550180100663368</v>
       </c>
       <c r="X22">
         <f t="shared" si="5"/>
-        <v>68.602650553049259</v>
+        <v>65.080825371935632</v>
       </c>
       <c r="Y22">
         <v>4.444</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="37" t="s">
+    <row r="23" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="23">
-        <v>3</v>
-      </c>
-      <c r="D23" s="24">
-        <v>3</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>69</v>
+      <c r="C23" s="28">
+        <v>5</v>
+      </c>
+      <c r="D23" s="29">
+        <v>5</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I23" s="62"/>
       <c r="J23" s="55"/>
@@ -3476,38 +3547,38 @@
       </c>
       <c r="W23">
         <f t="shared" si="4"/>
-        <v>69.579014064069199</v>
+        <v>66.057188882955572</v>
       </c>
       <c r="X23">
         <f t="shared" si="5"/>
-        <v>69.109659335341462</v>
+        <v>65.587834154227835</v>
       </c>
       <c r="Y23">
         <v>4.6661999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="36">
-        <v>-108.61</v>
-      </c>
-      <c r="D24" s="31">
-        <v>-103</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>78</v>
+    <row r="24" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="47">
+        <v>50.61</v>
+      </c>
+      <c r="D24" s="48">
+        <v>32</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>71</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H24" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I24" s="62">
         <v>1800</v>
@@ -3547,30 +3618,32 @@
       </c>
       <c r="W24">
         <f t="shared" si="4"/>
-        <v>70.07697975378187</v>
+        <v>66.555154572668243</v>
       </c>
       <c r="X24">
         <f t="shared" si="5"/>
-        <v>69.607625025054134</v>
+        <v>66.085799843940507</v>
       </c>
       <c r="Y24">
         <v>4.8883999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="36">
-        <v>28.39</v>
-      </c>
-      <c r="D25" s="31">
-        <v>34</v>
-      </c>
-      <c r="E25" s="25"/>
+      <c r="A25" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="19">
+        <v>-95</v>
+      </c>
+      <c r="D25" s="20">
+        <v>-99</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>72</v>
+      </c>
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
       <c r="P25" s="63">
@@ -3602,31 +3675,31 @@
       </c>
       <c r="W25">
         <f t="shared" si="4"/>
-        <v>70.566458984941505</v>
+        <v>67.044633803827878</v>
       </c>
       <c r="X25">
         <f t="shared" si="5"/>
-        <v>70.097104256213768</v>
+        <v>66.575279075100141</v>
       </c>
       <c r="Y25">
         <v>5.1105999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="36">
-        <v>-103.61</v>
-      </c>
-      <c r="D26" s="31">
-        <v>-98</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>41</v>
+      <c r="A26" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="28">
+        <v>135.22</v>
+      </c>
+      <c r="D26" s="29">
+        <v>141</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="G26" s="2"/>
       <c r="P26" s="63">
@@ -3658,11 +3731,11 @@
       </c>
       <c r="W26">
         <f t="shared" si="4"/>
-        <v>71.047958528228847</v>
+        <v>67.52613334711522</v>
       </c>
       <c r="X26">
         <f t="shared" si="5"/>
-        <v>70.578603799501124</v>
+        <v>67.056778618387497</v>
       </c>
       <c r="Y26">
         <v>5.3327999999999998</v>
@@ -3670,19 +3743,19 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="36">
+        <v>-104.61</v>
+      </c>
+      <c r="D27" s="31">
+        <v>-103</v>
+      </c>
+      <c r="E27" s="26" t="s">
         <v>77</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="36">
-        <v>33.39</v>
-      </c>
-      <c r="D27" s="31">
-        <v>39</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="G27" s="3"/>
       <c r="P27" s="63">
@@ -3714,32 +3787,30 @@
       </c>
       <c r="W27">
         <f t="shared" si="4"/>
-        <v>71.521941074389247</v>
+        <v>68.00011589327562</v>
       </c>
       <c r="X27">
         <f t="shared" si="5"/>
-        <v>71.052586345661524</v>
+        <v>67.530761164547897</v>
       </c>
       <c r="Y27">
         <v>5.5549999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="68" t="s">
-        <v>84</v>
+      <c r="A28" s="39" t="s">
+        <v>74</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C28" s="36">
-        <v>150.22</v>
+        <v>28.39</v>
       </c>
       <c r="D28" s="31">
-        <v>127</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>82</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E28" s="25"/>
       <c r="G28" s="2"/>
       <c r="P28" s="63">
         <v>0.36</v>
@@ -3770,31 +3841,31 @@
       </c>
       <c r="W28">
         <f t="shared" si="4"/>
-        <v>71.988830202729488</v>
+        <v>68.467005021615861</v>
       </c>
       <c r="X28">
         <f t="shared" si="5"/>
-        <v>71.519475474001752</v>
+        <v>67.997650292888125</v>
       </c>
       <c r="Y28">
         <v>5.7771999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="40">
-        <v>145.22</v>
-      </c>
-      <c r="D29" s="41">
-        <v>121</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>83</v>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="36">
+        <v>-99.61</v>
+      </c>
+      <c r="D29" s="31">
+        <v>-98</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="G29" s="3"/>
       <c r="P29" s="63">
@@ -3826,22 +3897,37 @@
       </c>
       <c r="W29">
         <f t="shared" si="4"/>
-        <v>72.449014668723635</v>
+        <v>68.927189487610008</v>
       </c>
       <c r="X29">
         <f t="shared" si="5"/>
-        <v>71.979659939995898</v>
+        <v>68.457834758882271</v>
       </c>
       <c r="Y29">
         <v>5.9993999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="36">
+        <v>33.39</v>
+      </c>
+      <c r="D30" s="31">
+        <v>39</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="G30" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s">
         <v>80</v>
-      </c>
-      <c r="H30" t="s">
-        <v>81</v>
       </c>
       <c r="P30" s="71">
         <v>0.38</v>
@@ -3872,17 +3958,32 @@
       </c>
       <c r="W30">
         <f t="shared" si="4"/>
-        <v>72.902852119719938</v>
+        <v>69.381026938606311</v>
       </c>
       <c r="X30">
         <f t="shared" si="5"/>
-        <v>72.433497390992216</v>
+        <v>68.911672209878589</v>
       </c>
       <c r="Y30">
         <v>6.2215999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="36">
+        <v>146.25</v>
+      </c>
+      <c r="D31" s="31">
+        <v>126</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="P31" s="63">
         <v>0.39</v>
@@ -3913,17 +4014,32 @@
       </c>
       <c r="W31">
         <f t="shared" si="4"/>
-        <v>73.350672327913728</v>
+        <v>69.828847146800101</v>
       </c>
       <c r="X31">
         <f t="shared" si="5"/>
-        <v>72.881317599185991</v>
+        <v>69.359492418072364</v>
       </c>
       <c r="Y31">
         <v>6.4438000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="40">
+        <v>141.25</v>
+      </c>
+      <c r="D32" s="41">
+        <v>121</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>82</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -3956,17 +4072,17 @@
       </c>
       <c r="W32">
         <f t="shared" si="4"/>
-        <v>73.792780013942988</v>
+        <v>70.270954832829361</v>
       </c>
       <c r="X32">
         <f t="shared" si="5"/>
-        <v>73.323425285215251</v>
+        <v>69.801600104101624</v>
       </c>
       <c r="Y32">
         <v>6.6660000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="G33" s="2"/>
       <c r="I33" s="5"/>
       <c r="J33" s="6"/>
@@ -3999,27 +4115,21 @@
       </c>
       <c r="W33">
         <f t="shared" si="4"/>
-        <v>74.229457321778455</v>
+        <v>70.707632140664828</v>
       </c>
       <c r="X33">
         <f t="shared" si="5"/>
-        <v>73.760102593050718</v>
+        <v>70.238277411937091</v>
       </c>
       <c r="Y33">
         <v>6.8882000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
+    <row r="34" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F34" s="81"/>
-      <c r="G34" s="2"/>
-      <c r="I34" s="5"/>
+      <c r="G34" s="110" t="s">
+        <v>150</v>
+      </c>
       <c r="J34" s="7"/>
       <c r="P34" s="63">
         <v>0.42</v>
@@ -4050,25 +4160,27 @@
       </c>
       <c r="W34">
         <f t="shared" si="4"/>
-        <v>74.660965995341755</v>
+        <v>71.139140814228128</v>
       </c>
       <c r="X34">
         <f t="shared" si="5"/>
-        <v>74.191611266614018</v>
+        <v>70.669786085500391</v>
       </c>
       <c r="Y34">
         <v>7.1104000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="82"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="81"/>
+    <row r="35" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F35" s="81"/>
-      <c r="G35" s="3"/>
-      <c r="I35" s="5"/>
+      <c r="G35" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="I35" s="112" t="s">
+        <v>152</v>
+      </c>
       <c r="J35" s="7"/>
       <c r="P35" s="63">
         <v>0.43</v>
@@ -4099,27 +4211,27 @@
       </c>
       <c r="W35">
         <f t="shared" si="4"/>
-        <v>75.087549298975475</v>
+        <v>71.565724117861848</v>
       </c>
       <c r="X35">
         <f t="shared" si="5"/>
-        <v>74.618194570247738</v>
+        <v>71.096369389134111</v>
       </c>
       <c r="Y35">
         <v>7.3326000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="100"/>
+    <row r="36" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F36" s="81"/>
-      <c r="G36" s="2"/>
-      <c r="I36" s="5"/>
+      <c r="G36" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="H36" s="114">
+        <v>-110.9</v>
+      </c>
+      <c r="I36" s="114">
+        <v>-100.7</v>
+      </c>
       <c r="J36" s="7"/>
       <c r="P36" s="63">
         <v>0.44</v>
@@ -4150,29 +4262,34 @@
       </c>
       <c r="W36">
         <f t="shared" si="4"/>
-        <v>75.509433717107498</v>
+        <v>71.987608535993871</v>
       </c>
       <c r="X36">
         <f t="shared" si="5"/>
-        <v>75.040078988379761</v>
+        <v>71.518253807266134</v>
       </c>
       <c r="Y36">
         <v>7.5548000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="20" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="81" t="s">
-        <v>105</v>
+    <row r="37" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="80" t="s">
+        <v>14</v>
       </c>
       <c r="B37" s="81"/>
-      <c r="C37" s="81" t="s">
-        <v>87</v>
-      </c>
+      <c r="C37" s="81"/>
       <c r="D37" s="81"/>
       <c r="E37" s="81"/>
       <c r="F37" s="81"/>
-      <c r="G37" s="4"/>
-      <c r="I37" s="5"/>
+      <c r="G37" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="H37" s="114">
+        <v>-105.4</v>
+      </c>
+      <c r="I37" s="114">
+        <v>-94.4</v>
+      </c>
       <c r="J37" s="7"/>
       <c r="P37" s="63">
         <v>0.45</v>
@@ -4203,29 +4320,32 @@
       </c>
       <c r="W37">
         <f t="shared" si="4"/>
-        <v>75.926830462890621</v>
+        <v>72.405005281776994</v>
       </c>
       <c r="X37">
         <f t="shared" si="5"/>
-        <v>75.457475734162884</v>
+        <v>71.935650553049257</v>
       </c>
       <c r="Y37">
         <v>7.7770000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="82" t="s">
-        <v>111</v>
-      </c>
+    <row r="38" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="82"/>
       <c r="B38" s="83"/>
-      <c r="C38" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="82"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
       <c r="E38" s="81"/>
       <c r="F38" s="81"/>
-      <c r="G38" s="3"/>
-      <c r="I38" s="8"/>
+      <c r="G38" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="114" t="s">
+        <v>151</v>
+      </c>
+      <c r="I38" s="114" t="s">
+        <v>152</v>
+      </c>
       <c r="J38" s="7"/>
       <c r="P38" s="63">
         <v>0.46</v>
@@ -4256,25 +4376,34 @@
       </c>
       <c r="W38">
         <f t="shared" si="4"/>
-        <v>76.339936821015229</v>
+        <v>72.818111639901602</v>
       </c>
       <c r="X38">
         <f t="shared" si="5"/>
-        <v>75.870582092287492</v>
+        <v>72.348756911173865</v>
       </c>
       <c r="Y38">
         <v>7.9992000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="81"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
+    <row r="39" spans="1:25" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="99"/>
       <c r="F39" s="81"/>
-      <c r="G39" s="2"/>
-      <c r="I39" s="5"/>
+      <c r="G39" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="H39" s="114">
+        <v>-106.9</v>
+      </c>
+      <c r="I39" s="114">
+        <v>-96.7</v>
+      </c>
       <c r="J39" s="7"/>
       <c r="P39" s="63">
         <v>0.47</v>
@@ -4305,25 +4434,36 @@
       </c>
       <c r="W39">
         <f t="shared" si="4"/>
-        <v>76.748937346098089</v>
+        <v>73.227112164984462</v>
       </c>
       <c r="X39">
         <f t="shared" si="5"/>
-        <v>76.279582617370366</v>
+        <v>72.757757436256739</v>
       </c>
       <c r="Y39">
         <v>8.2213999999999992</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="82"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
+    <row r="40" spans="1:25" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="81"/>
       <c r="E40" s="81"/>
       <c r="F40" s="81"/>
-      <c r="G40" s="4"/>
-      <c r="I40" s="5"/>
+      <c r="G40" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="H40" s="114">
+        <v>-101.4</v>
+      </c>
+      <c r="I40" s="114">
+        <v>-90.4</v>
+      </c>
       <c r="J40" s="7"/>
       <c r="P40" s="63">
         <v>0.48</v>
@@ -4354,20 +4494,24 @@
       </c>
       <c r="W40">
         <f t="shared" si="4"/>
-        <v>77.154004934895497</v>
+        <v>73.63217975378187</v>
       </c>
       <c r="X40">
         <f t="shared" si="5"/>
-        <v>76.68465020616776</v>
+        <v>73.162825025054133</v>
       </c>
       <c r="Y40">
         <v>8.4436</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="82"/>
+    <row r="41" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="83"/>
+      <c r="C41" s="82" t="s">
+        <v>111</v>
+      </c>
       <c r="D41" s="82"/>
       <c r="E41" s="81"/>
       <c r="F41" s="81"/>
@@ -4401,17 +4545,17 @@
       </c>
       <c r="W41">
         <f t="shared" si="4"/>
-        <v>77.555301787954022</v>
+        <v>74.033476606840395</v>
       </c>
       <c r="X41">
         <f t="shared" si="5"/>
-        <v>77.085947059226285</v>
+        <v>73.564121878112658</v>
       </c>
       <c r="Y41">
         <v>8.6658000000000008</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="81"/>
       <c r="B42" s="81"/>
       <c r="C42" s="81"/>
@@ -4448,11 +4592,11 @@
       </c>
       <c r="W42">
         <f t="shared" si="4"/>
-        <v>77.952980274104121</v>
+        <v>74.431155092990494</v>
       </c>
       <c r="X42">
         <f t="shared" si="5"/>
-        <v>77.483625545376384</v>
+        <v>73.961800364262757</v>
       </c>
       <c r="Y42">
         <v>8.8879999999999999</v>
@@ -4495,24 +4639,24 @@
       </c>
       <c r="W43">
         <f t="shared" si="4"/>
-        <v>78.347183709342474</v>
+        <v>74.825358528228847</v>
       </c>
       <c r="X43">
         <f t="shared" si="5"/>
-        <v>77.877828980614737</v>
+        <v>74.35600379950111</v>
       </c>
       <c r="Y43">
         <v>9.1102000000000007</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="98" t="s">
+      <c r="A44" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="100"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="99"/>
       <c r="F44" s="81"/>
       <c r="J44" s="1"/>
       <c r="P44" s="63">
@@ -4544,11 +4688,11 @@
       </c>
       <c r="W44">
         <f t="shared" si="4"/>
-        <v>78.738047060079737</v>
+        <v>75.21622187896611</v>
       </c>
       <c r="X44">
         <f t="shared" si="5"/>
-        <v>78.268692331351986</v>
+        <v>74.746867150238359</v>
       </c>
       <c r="Y44">
         <v>9.3323999999999998</v>
@@ -4557,10 +4701,10 @@
     <row r="45" spans="1:25" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="73"/>
-      <c r="C45" s="93" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="94"/>
+      <c r="C45" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="93"/>
       <c r="F45" s="81"/>
       <c r="J45" s="1"/>
       <c r="P45" s="63">
@@ -4592,11 +4736,11 @@
       </c>
       <c r="W45">
         <f t="shared" si="4"/>
-        <v>79.125697579399514</v>
+        <v>75.603872398285887</v>
       </c>
       <c r="X45">
         <f t="shared" si="5"/>
-        <v>78.656342850671791</v>
+        <v>75.134517669558164</v>
       </c>
       <c r="Y45">
         <v>9.5546000000000006</v>
@@ -4606,7 +4750,7 @@
       <c r="A46" s="14"/>
       <c r="B46" s="73"/>
       <c r="C46" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" s="14">
         <f>32.4+20*LOG($I$16)+20*LOG($I$24)</f>
@@ -4643,11 +4787,11 @@
       </c>
       <c r="W46">
         <f t="shared" si="4"/>
-        <v>79.510255383843116</v>
+        <v>75.988430202729489</v>
       </c>
       <c r="X46">
         <f t="shared" si="5"/>
-        <v>79.040900655115379</v>
+        <v>75.519075474001752</v>
       </c>
       <c r="Y46">
         <v>9.7767999999999997</v>
@@ -4657,9 +4801,9 @@
       <c r="A47" s="81"/>
       <c r="B47" s="81"/>
       <c r="C47" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="95">
+        <v>132</v>
+      </c>
+      <c r="D47" s="94">
         <v>32</v>
       </c>
       <c r="F47" s="81"/>
@@ -4692,11 +4836,11 @@
       </c>
       <c r="W47">
         <f t="shared" si="4"/>
-        <v>79.891833977268618</v>
+        <v>76.370008796154991</v>
       </c>
       <c r="X47">
         <f t="shared" si="5"/>
-        <v>79.422479248540881</v>
+        <v>75.900654067427254</v>
       </c>
       <c r="Y47">
         <v>9.9990000000000006</v>
@@ -4706,14 +4850,14 @@
       <c r="A48" s="14"/>
       <c r="B48" s="73"/>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D48">
         <f>20*LOG10($I$14/200)</f>
-        <v>-16.478174818886377</v>
+        <v>-20</v>
       </c>
       <c r="E48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F48" s="81"/>
       <c r="P48" s="63">
@@ -4745,11 +4889,11 @@
       </c>
       <c r="W48">
         <f t="shared" si="4"/>
-        <v>80.27054072750775</v>
+        <v>76.748715546394124</v>
       </c>
       <c r="X48">
         <f t="shared" si="5"/>
-        <v>79.801185998780014</v>
+        <v>76.279360817666387</v>
       </c>
       <c r="Y48">
         <v>10.2212</v>
@@ -4757,16 +4901,16 @@
     </row>
     <row r="49" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="93" t="s">
-        <v>136</v>
+      <c r="B49" s="85"/>
+      <c r="C49" s="92" t="s">
+        <v>135</v>
       </c>
       <c r="D49">
         <f>20*LOG10($I$15/3)</f>
         <v>-6.0205999132796242</v>
       </c>
       <c r="E49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F49" s="81"/>
       <c r="P49" s="69">
@@ -4798,11 +4942,11 @@
       </c>
       <c r="W49">
         <f t="shared" si="4"/>
-        <v>80.646477300833567</v>
+        <v>77.12465211971994</v>
       </c>
       <c r="X49">
         <f t="shared" si="5"/>
-        <v>80.17712257210583</v>
+        <v>76.655297390992203</v>
       </c>
       <c r="Y49">
         <v>10.4434</v>
@@ -4810,11 +4954,11 @@
     </row>
     <row r="50" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="93" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50" s="94">
+      <c r="B50" s="85"/>
+      <c r="C50" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="93">
         <v>12</v>
       </c>
       <c r="F50" s="81"/>
@@ -4847,11 +4991,11 @@
       </c>
       <c r="W50">
         <f t="shared" si="4"/>
-        <v>81.019740058642483</v>
+        <v>77.497914877528856</v>
       </c>
       <c r="X50">
         <f t="shared" si="5"/>
-        <v>80.550385329914747</v>
+        <v>77.02856014880112</v>
       </c>
       <c r="Y50">
         <v>10.6656</v>
@@ -4859,13 +5003,13 @@
     </row>
     <row r="51" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="D51" s="94">
+      <c r="B51" s="85"/>
+      <c r="C51" s="92" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="93">
         <f>$D$46+$D$47+$D$48+$D$49-$D$50</f>
-        <v>108.98607545662048</v>
+        <v>105.46425027550686</v>
       </c>
       <c r="F51" s="81"/>
       <c r="P51" s="63">
@@ -4897,11 +5041,11 @@
       </c>
       <c r="W51">
         <f t="shared" si="4"/>
-        <v>81.390420420226633</v>
+        <v>77.868595239113006</v>
       </c>
       <c r="X51">
         <f t="shared" si="5"/>
-        <v>80.921065691498896</v>
+        <v>77.399240510385269</v>
       </c>
       <c r="Y51">
         <v>10.8878</v>
@@ -4909,7 +5053,7 @@
     </row>
     <row r="52" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" s="75" t="s">
         <v>52</v>
@@ -4917,7 +5061,7 @@
       <c r="C52" s="76">
         <v>150.22</v>
       </c>
-      <c r="D52" s="89"/>
+      <c r="D52" s="88"/>
       <c r="E52" s="76">
         <v>127</v>
       </c>
@@ -4954,11 +5098,11 @@
       </c>
       <c r="W52">
         <f t="shared" si="4"/>
-        <v>81.758605195056617</v>
+        <v>78.23678001394299</v>
       </c>
       <c r="X52">
         <f t="shared" si="5"/>
-        <v>81.28925046632888</v>
+        <v>77.767425285215253</v>
       </c>
       <c r="Y52">
         <v>11.11</v>
@@ -4966,7 +5110,7 @@
     </row>
     <row r="53" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B53" s="78" t="s">
         <v>52</v>
@@ -4974,7 +5118,7 @@
       <c r="C53" s="79">
         <v>145.22</v>
       </c>
-      <c r="D53" s="91"/>
+      <c r="D53" s="90"/>
       <c r="E53" s="79">
         <v>121</v>
       </c>
@@ -5010,11 +5154,11 @@
       </c>
       <c r="W53">
         <f t="shared" si="4"/>
-        <v>82.124376887599084</v>
+        <v>78.602551706485457</v>
       </c>
       <c r="X53">
         <f t="shared" si="5"/>
-        <v>81.655022158871347</v>
+        <v>78.13319697775772</v>
       </c>
       <c r="Y53">
         <v>11.3322</v>
@@ -5022,9 +5166,9 @@
     </row>
     <row r="54" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="94"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="93"/>
       <c r="F54" s="81"/>
       <c r="I54" s="8"/>
       <c r="J54" s="7"/>
@@ -5057,11 +5201,11 @@
       </c>
       <c r="W54">
         <f t="shared" si="4"/>
-        <v>82.487813977348821</v>
+        <v>78.965988796235195</v>
       </c>
       <c r="X54">
         <f t="shared" si="5"/>
-        <v>82.018459248621085</v>
+        <v>78.496634067507458</v>
       </c>
       <c r="Y54">
         <v>11.554399999999999</v>
@@ -5105,24 +5249,24 @@
       </c>
       <c r="W55">
         <f t="shared" si="4"/>
-        <v>82.848991176455385</v>
+        <v>79.327165995341758</v>
       </c>
       <c r="X55">
         <f t="shared" si="5"/>
-        <v>82.379636447727648</v>
+        <v>78.857811266614021</v>
       </c>
       <c r="Y55">
         <v>11.7766</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="98" t="s">
+      <c r="A56" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="102"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="101"/>
       <c r="F56" s="81"/>
       <c r="P56" s="63">
         <v>0.64</v>
@@ -5153,11 +5297,11 @@
       </c>
       <c r="W56">
         <f t="shared" si="4"/>
-        <v>83.207979667061494</v>
+        <v>79.686154485947867</v>
       </c>
       <c r="X56">
         <f t="shared" si="5"/>
-        <v>82.738624938333757</v>
+        <v>79.21679975722013</v>
       </c>
       <c r="Y56">
         <v>11.998799999999999</v>
@@ -5165,11 +5309,11 @@
     </row>
     <row r="57" spans="1:25" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" s="73"/>
       <c r="C57" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D57" s="83"/>
       <c r="E57" s="81"/>
@@ -5203,23 +5347,23 @@
       </c>
       <c r="W57">
         <f t="shared" si="4"/>
-        <v>83.564847320240858</v>
+        <v>80.043022139127231</v>
       </c>
       <c r="X57">
         <f t="shared" si="5"/>
-        <v>83.095492591513121</v>
+        <v>79.573667410399494</v>
       </c>
       <c r="Y57">
         <v>12.221</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="82"/>
       <c r="B58" s="83"/>
-      <c r="C58" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" s="85"/>
+      <c r="C58" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="84"/>
       <c r="E58" s="81"/>
       <c r="F58" s="81"/>
       <c r="P58" s="63">
@@ -5251,25 +5395,22 @@
       </c>
       <c r="W58">
         <f t="shared" si="4"/>
-        <v>83.91965889822113</v>
+        <v>80.397833717107503</v>
       </c>
       <c r="X58">
         <f t="shared" si="5"/>
-        <v>83.450304169493393</v>
+        <v>79.928478988379766</v>
       </c>
       <c r="Y58">
         <v>12.443199999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="81"/>
       <c r="B59" s="80"/>
-      <c r="C59" s="97"/>
-      <c r="D59" s="97"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
       <c r="E59" s="81"/>
-      <c r="F59" s="90" t="s">
-        <v>129</v>
-      </c>
       <c r="P59" s="63">
         <v>0.67</v>
       </c>
@@ -5299,30 +5440,27 @@
       </c>
       <c r="W59">
         <f t="shared" si="4"/>
-        <v>84.272476241400284</v>
+        <v>80.750651060286657</v>
       </c>
       <c r="X59">
         <f t="shared" si="5"/>
-        <v>83.803121512672547</v>
+        <v>80.28129633155892</v>
       </c>
       <c r="Y59">
         <v>12.6654</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="87"/>
-      <c r="B60" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" s="85">
+    <row r="60" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="86"/>
+      <c r="B60" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="84">
         <f>46.3+33.9*LOG10(C3)-13.82*LOG10(30)-C61+(44.9-6.55*LOG10(I14))*LOG10(P2)</f>
-        <v>101.02095546968685</v>
-      </c>
-      <c r="D60" s="85"/>
+        <v>99.867557722872149</v>
+      </c>
+      <c r="D60" s="84"/>
       <c r="E60" s="81"/>
-      <c r="F60" s="92" t="s">
-        <v>130</v>
-      </c>
       <c r="P60" s="63">
         <v>0.68</v>
       </c>
@@ -5352,26 +5490,26 @@
       </c>
       <c r="W60">
         <f t="shared" si="4"/>
-        <v>84.623358441508472</v>
+        <v>81.101533260394845</v>
       </c>
       <c r="X60">
         <f t="shared" si="5"/>
-        <v>84.154003712780749</v>
+        <v>80.632178531667122</v>
       </c>
       <c r="Y60">
         <v>12.887600000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="81"/>
-      <c r="B61" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="88">
+      <c r="B61" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="87">
         <f>(1.1*LOG10(1806)-0.7)*1.5-(1.56*LOG10(1806)-0.8)</f>
         <v>4.310459713797421E-2</v>
       </c>
-      <c r="D61" s="88"/>
+      <c r="D61" s="87"/>
       <c r="E61" s="81"/>
       <c r="F61" s="81"/>
       <c r="P61" s="63">
@@ -5403,11 +5541,11 @@
       </c>
       <c r="W61">
         <f t="shared" si="4"/>
-        <v>84.972362002128847</v>
+        <v>81.45053682101522</v>
       </c>
       <c r="X61">
         <f t="shared" si="5"/>
-        <v>84.503007273401124</v>
+        <v>80.981182092287497</v>
       </c>
       <c r="Y61">
         <v>13.1098</v>
@@ -5415,14 +5553,14 @@
     </row>
     <row r="62" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="81"/>
-      <c r="B62" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="88">
+      <c r="B62" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="87">
         <f>(1.1*LOG10(1711)-0.7)*1.5-(1.56*LOG10(1711)-0.8)</f>
         <v>4.0992500858699543E-2</v>
       </c>
-      <c r="D62" s="88"/>
+      <c r="D62" s="87"/>
       <c r="E62" s="81"/>
       <c r="F62" s="81"/>
       <c r="P62" s="63">
@@ -5454,11 +5592,11 @@
       </c>
       <c r="W62">
         <f t="shared" si="4"/>
-        <v>85.319540987668887</v>
+        <v>81.79771580655526</v>
       </c>
       <c r="X62">
         <f t="shared" si="5"/>
-        <v>84.850186258941136</v>
+        <v>81.328361077827509</v>
       </c>
       <c r="Y62">
         <v>13.332000000000001</v>
@@ -5499,17 +5637,17 @@
       </c>
       <c r="W63">
         <f t="shared" si="4"/>
-        <v>85.664947161765241</v>
+        <v>82.143121980651614</v>
       </c>
       <c r="X63">
         <f t="shared" si="5"/>
-        <v>85.195592433037504</v>
+        <v>81.673767251923877</v>
       </c>
       <c r="Y63">
         <v>13.5542</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="81"/>
       <c r="B64" s="81"/>
       <c r="C64" s="81"/>
@@ -5544,11 +5682,11 @@
       </c>
       <c r="W64">
         <f t="shared" si="4"/>
-        <v>86.008630116009101</v>
+        <v>82.486804934895474</v>
       </c>
       <c r="X64">
         <f t="shared" si="5"/>
-        <v>85.539275387281378</v>
+        <v>82.017450206167752</v>
       </c>
       <c r="Y64">
         <v>13.776400000000001</v>
@@ -5556,7 +5694,7 @@
     </row>
     <row r="65" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B65" s="75" t="s">
         <v>52</v>
@@ -5564,11 +5702,14 @@
       <c r="C65" s="76">
         <v>150.22</v>
       </c>
-      <c r="D65" s="89" t="s">
-        <v>127</v>
+      <c r="D65" s="88" t="s">
+        <v>126</v>
       </c>
       <c r="E65" s="76">
         <v>127</v>
+      </c>
+      <c r="F65" s="89" t="s">
+        <v>128</v>
       </c>
       <c r="P65" s="63">
         <v>0.73</v>
@@ -5599,11 +5740,11 @@
       </c>
       <c r="W65">
         <f t="shared" si="4"/>
-        <v>86.350637389792851</v>
+        <v>82.828812208679224</v>
       </c>
       <c r="X65">
         <f t="shared" si="5"/>
-        <v>85.881282661065129</v>
+        <v>82.359457479951502</v>
       </c>
       <c r="Y65">
         <v>13.9986</v>
@@ -5611,7 +5752,7 @@
     </row>
     <row r="66" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66" s="78" t="s">
         <v>52</v>
@@ -5619,11 +5760,14 @@
       <c r="C66" s="79">
         <v>145.22</v>
       </c>
-      <c r="D66" s="91" t="s">
-        <v>128</v>
+      <c r="D66" s="90" t="s">
+        <v>127</v>
       </c>
       <c r="E66" s="79">
         <v>121</v>
+      </c>
+      <c r="F66" s="91" t="s">
+        <v>129</v>
       </c>
       <c r="P66" s="63">
         <v>0.74</v>
@@ -5654,17 +5798,17 @@
       </c>
       <c r="W66">
         <f t="shared" si="4"/>
-        <v>86.691014582003262</v>
+        <v>83.169189400889636</v>
       </c>
       <c r="X66">
         <f t="shared" si="5"/>
-        <v>86.221659853275526</v>
+        <v>82.699834672161899</v>
       </c>
       <c r="Y66">
         <v>14.220800000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="81"/>
       <c r="B67" s="81"/>
       <c r="C67" s="81"/>
@@ -5699,11 +5843,11 @@
       </c>
       <c r="W67">
         <f t="shared" ref="W67:W130" si="12">S67+Y67+$D$48+$D$49</f>
-        <v>87.02980545521774</v>
+        <v>83.507980274104114</v>
       </c>
       <c r="X67">
         <f t="shared" ref="X67:X130" si="13">$T67+$Y67+$D$48+$D$49</f>
-        <v>86.560450726490004</v>
+        <v>83.038625545376377</v>
       </c>
       <c r="Y67">
         <v>14.443</v>
@@ -5744,11 +5888,11 @@
       </c>
       <c r="W68">
         <f t="shared" si="12"/>
-        <v>87.367052032999567</v>
+        <v>83.84522685188594</v>
       </c>
       <c r="X68">
         <f t="shared" si="13"/>
-        <v>86.89769730427183</v>
+        <v>83.375872123158203</v>
       </c>
       <c r="Y68">
         <v>14.6652</v>
@@ -5784,11 +5928,11 @@
       </c>
       <c r="W69">
         <f t="shared" si="12"/>
-        <v>87.702794690833386</v>
+        <v>84.180969509719759</v>
       </c>
       <c r="X69">
         <f t="shared" si="13"/>
-        <v>87.233439962105649</v>
+        <v>83.711614780992022</v>
       </c>
       <c r="Y69">
         <v>14.8874</v>
@@ -5824,11 +5968,11 @@
       </c>
       <c r="W70">
         <f t="shared" si="12"/>
-        <v>88.037072241193357</v>
+        <v>84.51524706007973</v>
       </c>
       <c r="X70">
         <f t="shared" si="13"/>
-        <v>87.56771751246562</v>
+        <v>84.045892331351993</v>
       </c>
       <c r="Y70">
         <v>15.1096</v>
@@ -5864,11 +6008,11 @@
       </c>
       <c r="W71">
         <f t="shared" si="12"/>
-        <v>88.369922013192578</v>
+        <v>84.848096832078951</v>
       </c>
       <c r="X71">
         <f t="shared" si="13"/>
-        <v>87.900567284464842</v>
+        <v>84.378742103351215</v>
       </c>
       <c r="Y71">
         <v>15.331799999999999</v>
@@ -5904,11 +6048,11 @@
       </c>
       <c r="W72">
         <f t="shared" si="12"/>
-        <v>88.701379927222618</v>
+        <v>85.179554746108991</v>
       </c>
       <c r="X72">
         <f t="shared" si="13"/>
-        <v>88.232025198494881</v>
+        <v>84.710200017381254</v>
       </c>
       <c r="Y72">
         <v>15.554</v>
@@ -5944,11 +6088,11 @@
       </c>
       <c r="W73">
         <f t="shared" si="12"/>
-        <v>89.031480564956738</v>
+        <v>85.509655383843111</v>
       </c>
       <c r="X73">
         <f t="shared" si="13"/>
-        <v>88.562125836229015</v>
+        <v>85.040300655115388</v>
       </c>
       <c r="Y73">
         <v>15.776199999999999</v>
@@ -5984,11 +6128,11 @@
       </c>
       <c r="W74">
         <f t="shared" si="12"/>
-        <v>89.360257235058086</v>
+        <v>85.838432053944459</v>
       </c>
       <c r="X74">
         <f t="shared" si="13"/>
-        <v>88.890902506330349</v>
+        <v>85.369077325216722</v>
       </c>
       <c r="Y74">
         <v>15.9984</v>
@@ -6024,11 +6168,11 @@
       </c>
       <c r="W75">
         <f t="shared" si="12"/>
-        <v>89.687742034905227</v>
+        <v>86.1659168537916</v>
       </c>
       <c r="X75">
         <f t="shared" si="13"/>
-        <v>89.21838730617749</v>
+        <v>85.696562125063863</v>
       </c>
       <c r="Y75">
         <v>16.220600000000001</v>
@@ -6064,11 +6208,11 @@
       </c>
       <c r="W76">
         <f t="shared" si="12"/>
-        <v>90.013965908621373</v>
+        <v>86.492140727507746</v>
       </c>
       <c r="X76">
         <f t="shared" si="13"/>
-        <v>89.54461117989365</v>
+        <v>86.022785998780023</v>
       </c>
       <c r="Y76">
         <v>16.442799999999998</v>
@@ -6104,11 +6248,11 @@
       </c>
       <c r="W77">
         <f t="shared" si="12"/>
-        <v>90.338958701669611</v>
+        <v>86.817133520555984</v>
       </c>
       <c r="X77">
         <f t="shared" si="13"/>
-        <v>89.86960397294186</v>
+        <v>86.347778791828233</v>
       </c>
       <c r="Y77">
         <v>16.664999999999999</v>
@@ -6144,11 +6288,11 @@
       </c>
       <c r="W78">
         <f t="shared" si="12"/>
-        <v>90.662749212255108</v>
+        <v>87.140924031141481</v>
       </c>
       <c r="X78">
         <f t="shared" si="13"/>
-        <v>90.193394483527356</v>
+        <v>86.671569302413729</v>
       </c>
       <c r="Y78">
         <v>16.8872</v>
@@ -6184,11 +6328,11 @@
       </c>
       <c r="W79">
         <f t="shared" si="12"/>
-        <v>90.985365239756106</v>
+        <v>87.463540058642479</v>
       </c>
       <c r="X79">
         <f t="shared" si="13"/>
-        <v>90.516010511028384</v>
+        <v>86.994185329914757</v>
       </c>
       <c r="Y79">
         <v>17.109400000000001</v>
@@ -6224,11 +6368,11 @@
       </c>
       <c r="W80">
         <f t="shared" si="12"/>
-        <v>91.306833630387132</v>
+        <v>87.785008449273505</v>
       </c>
       <c r="X80">
         <f t="shared" si="13"/>
-        <v>90.837478901659381</v>
+        <v>87.315653720545754</v>
       </c>
       <c r="Y80">
         <v>17.331600000000002</v>
@@ -6264,11 +6408,11 @@
       </c>
       <c r="W81">
         <f t="shared" si="12"/>
-        <v>91.627180320281994</v>
+        <v>88.105355139168367</v>
       </c>
       <c r="X81">
         <f t="shared" si="13"/>
-        <v>91.157825591554257</v>
+        <v>87.63600041044063</v>
       </c>
       <c r="Y81">
         <v>17.553799999999999</v>
@@ -6304,11 +6448,11 @@
       </c>
       <c r="W82">
         <f t="shared" si="12"/>
-        <v>91.946430376170241</v>
+        <v>88.424605195056614</v>
       </c>
       <c r="X82">
         <f t="shared" si="13"/>
-        <v>91.477075647442504</v>
+        <v>87.955250466328877</v>
       </c>
       <c r="Y82">
         <v>17.776</v>
@@ -6344,11 +6488,11 @@
       </c>
       <c r="W83">
         <f t="shared" si="12"/>
-        <v>92.264608033805615</v>
+        <v>88.742782852691988</v>
       </c>
       <c r="X83">
         <f t="shared" si="13"/>
-        <v>91.795253305077878</v>
+        <v>88.273428123964251</v>
       </c>
       <c r="Y83">
         <v>17.998200000000001</v>
@@ -6384,11 +6528,11 @@
       </c>
       <c r="W84">
         <f t="shared" si="12"/>
-        <v>92.58173673429485</v>
+        <v>89.059911553181223</v>
       </c>
       <c r="X84">
         <f t="shared" si="13"/>
-        <v>92.112382005567113</v>
+        <v>88.590556824453486</v>
       </c>
       <c r="Y84">
         <v>18.220400000000001</v>
@@ -6424,11 +6568,11 @@
       </c>
       <c r="W85">
         <f t="shared" si="12"/>
-        <v>92.897839158462446</v>
+        <v>89.376013977348819</v>
       </c>
       <c r="X85">
         <f t="shared" si="13"/>
-        <v>92.428484429734709</v>
+        <v>88.906659248621082</v>
       </c>
       <c r="Y85">
         <v>18.442599999999999</v>
@@ -6464,11 +6608,11 @@
       </c>
       <c r="W86">
         <f t="shared" si="12"/>
-        <v>93.212937259377711</v>
+        <v>89.691112078264084</v>
       </c>
       <c r="X86">
         <f t="shared" si="13"/>
-        <v>92.743582530649988</v>
+        <v>89.221757349536361</v>
       </c>
       <c r="Y86">
         <v>18.6648</v>
@@ -6504,11 +6648,11 @@
       </c>
       <c r="W87">
         <f t="shared" si="12"/>
-        <v>93.527052293160693</v>
+        <v>90.005227112047066</v>
       </c>
       <c r="X87">
         <f t="shared" si="13"/>
-        <v>93.057697564432971</v>
+        <v>89.535872383319344</v>
       </c>
       <c r="Y87">
         <v>18.887</v>
@@ -6544,11 +6688,11 @@
       </c>
       <c r="W88">
         <f t="shared" si="12"/>
-        <v>93.840204848175119</v>
+        <v>90.318379667061492</v>
       </c>
       <c r="X88">
         <f t="shared" si="13"/>
-        <v>93.370850119447383</v>
+        <v>89.849024938333756</v>
       </c>
       <c r="Y88">
         <v>19.109200000000001</v>
@@ -6584,11 +6728,11 @@
       </c>
       <c r="W89">
         <f t="shared" si="12"/>
-        <v>94.152414872708647</v>
+        <v>90.63058969159502</v>
       </c>
       <c r="X89">
         <f t="shared" si="13"/>
-        <v>93.68306014398091</v>
+        <v>90.161234962867283</v>
       </c>
       <c r="Y89">
         <v>19.331399999999999</v>
@@ -6624,11 +6768,11 @@
       </c>
       <c r="W90">
         <f t="shared" si="12"/>
-        <v>94.463701701233646</v>
+        <v>90.941876520120019</v>
       </c>
       <c r="X90">
         <f t="shared" si="13"/>
-        <v>93.994346972505909</v>
+        <v>90.472521791392282</v>
       </c>
       <c r="Y90">
         <v>19.553599999999999</v>
@@ -6664,11 +6808,11 @@
       </c>
       <c r="W91">
         <f t="shared" si="12"/>
-        <v>94.774084079334742</v>
+        <v>91.252258898221115</v>
       </c>
       <c r="X91">
         <f t="shared" si="13"/>
-        <v>94.304729350607005</v>
+        <v>90.782904169493378</v>
       </c>
       <c r="Y91">
         <v>19.7758</v>
@@ -6704,11 +6848,11 @@
       </c>
       <c r="W92">
         <f t="shared" si="12"/>
-        <v>95.083580187383745</v>
+        <v>91.561755006270118</v>
       </c>
       <c r="X92">
         <f t="shared" si="13"/>
-        <v>94.614225458656009</v>
+        <v>91.092400277542382</v>
       </c>
       <c r="Y92">
         <v>19.998000000000001</v>
@@ -6744,11 +6888,11 @@
       </c>
       <c r="W93">
         <f t="shared" si="12"/>
-        <v>95.200007663036601</v>
+        <v>91.678182481922974</v>
       </c>
       <c r="X93">
         <f t="shared" si="13"/>
-        <v>94.730652934308864</v>
+        <v>91.208827753195237</v>
       </c>
       <c r="Y93">
         <f>Y92+0.03</f>
@@ -6785,11 +6929,11 @@
       </c>
       <c r="W94">
         <f t="shared" si="12"/>
-        <v>95.3155836226221</v>
+        <v>91.793758441508473</v>
       </c>
       <c r="X94">
         <f t="shared" si="13"/>
-        <v>94.846228893894363</v>
+        <v>91.324403712780736</v>
       </c>
       <c r="Y94">
         <f t="shared" ref="Y94:Y157" si="16">Y93+0.03</f>
@@ -6826,11 +6970,11 @@
       </c>
       <c r="W95">
         <f t="shared" si="12"/>
-        <v>95.430324681487193</v>
+        <v>91.908499500373566</v>
       </c>
       <c r="X95">
         <f t="shared" si="13"/>
-        <v>94.96096995275947</v>
+        <v>91.439144771645843</v>
       </c>
       <c r="Y95">
         <f t="shared" si="16"/>
@@ -6867,11 +7011,11 @@
       </c>
       <c r="W96">
         <f t="shared" si="12"/>
-        <v>95.544246973359364</v>
+        <v>92.022421792245737</v>
       </c>
       <c r="X96">
         <f t="shared" si="13"/>
-        <v>95.074892244631627</v>
+        <v>91.553067063518</v>
       </c>
       <c r="Y96">
         <f t="shared" si="16"/>
@@ -6908,11 +7052,11 @@
       </c>
       <c r="W97">
         <f t="shared" si="12"/>
-        <v>95.657366168782517</v>
+        <v>92.13554098766889</v>
       </c>
       <c r="X97">
         <f t="shared" si="13"/>
-        <v>95.18801144005478</v>
+        <v>91.666186258941153</v>
       </c>
       <c r="Y97">
         <f t="shared" si="16"/>
@@ -6949,11 +7093,11 @@
       </c>
       <c r="W98">
         <f t="shared" si="12"/>
-        <v>95.769697492679157</v>
+        <v>92.24787231156553</v>
       </c>
       <c r="X98">
         <f t="shared" si="13"/>
-        <v>95.300342763951434</v>
+        <v>91.778517582837807</v>
       </c>
       <c r="Y98">
         <f t="shared" si="16"/>
@@ -6990,11 +7134,11 @@
       </c>
       <c r="W99">
         <f t="shared" si="12"/>
-        <v>95.881255741087955</v>
+        <v>92.359430559974328</v>
       </c>
       <c r="X99">
         <f t="shared" si="13"/>
-        <v>95.411901012360218</v>
+        <v>91.890075831246591</v>
       </c>
       <c r="Y99">
         <f t="shared" si="16"/>
@@ -7031,11 +7175,11 @@
       </c>
       <c r="W100">
         <f t="shared" si="12"/>
-        <v>95.992055297122747</v>
+        <v>92.47023011600912</v>
       </c>
       <c r="X100">
         <f t="shared" si="13"/>
-        <v>95.522700568395024</v>
+        <v>92.000875387281397</v>
       </c>
       <c r="Y100">
         <f t="shared" si="16"/>
@@ -7072,11 +7216,11 @@
       </c>
       <c r="W101">
         <f t="shared" si="12"/>
-        <v>96.102110146196239</v>
+        <v>92.580284965082612</v>
       </c>
       <c r="X101">
         <f t="shared" si="13"/>
-        <v>95.632755417468502</v>
+        <v>92.110930236354875</v>
       </c>
       <c r="Y101">
         <f t="shared" si="16"/>
@@ -7113,11 +7257,11 @@
       </c>
       <c r="W102">
         <f t="shared" si="12"/>
-        <v>96.211433890548264</v>
+        <v>92.689608709434637</v>
       </c>
       <c r="X102">
         <f t="shared" si="13"/>
-        <v>95.742079161820527</v>
+        <v>92.2202539807069</v>
       </c>
       <c r="Y102">
         <f t="shared" si="16"/>
@@ -7154,11 +7298,11 @@
       </c>
       <c r="W103">
         <f t="shared" si="12"/>
-        <v>96.32003976311691</v>
+        <v>92.798214582003283</v>
       </c>
       <c r="X103">
         <f t="shared" si="13"/>
-        <v>95.850685034389173</v>
+        <v>92.328859853275546</v>
       </c>
       <c r="Y103">
         <f t="shared" si="16"/>
@@ -7195,11 +7339,11 @@
       </c>
       <c r="W104">
         <f t="shared" si="12"/>
-        <v>96.427940640787398</v>
+        <v>92.906115459673771</v>
       </c>
       <c r="X104">
         <f t="shared" si="13"/>
-        <v>95.958585912059661</v>
+        <v>92.436760730946034</v>
       </c>
       <c r="Y104">
         <f t="shared" si="16"/>
@@ -7236,11 +7380,11 @@
       </c>
       <c r="W105">
         <f t="shared" si="12"/>
-        <v>96.535149057052152</v>
+        <v>93.013323875938525</v>
       </c>
       <c r="X105">
         <f t="shared" si="13"/>
-        <v>96.065794328324429</v>
+        <v>92.543969147210802</v>
       </c>
       <c r="Y105">
         <f t="shared" si="16"/>
@@ -7277,11 +7421,11 @@
       </c>
       <c r="W106">
         <f t="shared" si="12"/>
-        <v>96.641677214113216</v>
+        <v>93.119852032999589</v>
       </c>
       <c r="X106">
         <f t="shared" si="13"/>
-        <v>96.172322485385479</v>
+        <v>92.650497304271852</v>
       </c>
       <c r="Y106">
         <f t="shared" si="16"/>
@@ -7318,11 +7462,11 @@
       </c>
       <c r="W107">
         <f t="shared" si="12"/>
-        <v>96.747536994455999</v>
+        <v>93.225711813342372</v>
       </c>
       <c r="X107">
         <f t="shared" si="13"/>
-        <v>96.278182265728262</v>
+        <v>92.756357084614635</v>
       </c>
       <c r="Y107">
         <f t="shared" si="16"/>
@@ -7359,11 +7503,11 @@
       </c>
       <c r="W108">
         <f t="shared" si="12"/>
-        <v>96.852739971922134</v>
+        <v>93.330914790808507</v>
       </c>
       <c r="X108">
         <f t="shared" si="13"/>
-        <v>96.383385243194397</v>
+        <v>92.86156006208077</v>
       </c>
       <c r="Y108">
         <f t="shared" si="16"/>
@@ -7400,11 +7544,11 @@
       </c>
       <c r="W109">
         <f t="shared" si="12"/>
-        <v>96.957297422307008</v>
+        <v>93.435472241193381</v>
       </c>
       <c r="X109">
         <f t="shared" si="13"/>
-        <v>96.487942693579271</v>
+        <v>92.966117512465644</v>
       </c>
       <c r="Y109">
         <f t="shared" si="16"/>
@@ -7441,11 +7585,11 @@
       </c>
       <c r="W110">
         <f t="shared" si="12"/>
-        <v>97.06122033350627</v>
+        <v>93.539395152392643</v>
       </c>
       <c r="X110">
         <f t="shared" si="13"/>
-        <v>96.591865604778548</v>
+        <v>93.070040423664921</v>
       </c>
       <c r="Y110">
         <f t="shared" si="16"/>
@@ -7482,11 +7626,11 @@
       </c>
       <c r="W111">
         <f t="shared" si="12"/>
-        <v>97.164519415234381</v>
+        <v>93.642694234120754</v>
       </c>
       <c r="X111">
         <f t="shared" si="13"/>
-        <v>96.695164686506658</v>
+        <v>93.173339505393031</v>
       </c>
       <c r="Y111">
         <f t="shared" si="16"/>
@@ -7523,11 +7667,11 @@
       </c>
       <c r="W112">
         <f t="shared" si="12"/>
-        <v>97.26720510833627</v>
+        <v>93.745379927222643</v>
       </c>
       <c r="X112">
         <f t="shared" si="13"/>
-        <v>96.797850379608533</v>
+        <v>93.276025198494906</v>
       </c>
       <c r="Y112">
         <f t="shared" si="16"/>
@@ -7564,11 +7708,11 @@
       </c>
       <c r="W113">
         <f t="shared" si="12"/>
-        <v>97.36928759371277</v>
+        <v>93.847462412599143</v>
       </c>
       <c r="X113">
         <f t="shared" si="13"/>
-        <v>96.899932864985047</v>
+        <v>93.37810768387142</v>
       </c>
       <c r="Y113">
         <f t="shared" si="16"/>
@@ -7605,11 +7749,11 @@
       </c>
       <c r="W114">
         <f t="shared" si="12"/>
-        <v>97.470776800878738</v>
+        <v>93.948951619765111</v>
       </c>
       <c r="X114">
         <f t="shared" si="13"/>
-        <v>97.001422072151001</v>
+        <v>93.479596891037374</v>
       </c>
       <c r="Y114">
         <f t="shared" si="16"/>
@@ -7646,11 +7790,11 @@
       </c>
       <c r="W115">
         <f t="shared" si="12"/>
-        <v>97.57168241617174</v>
+        <v>94.049857235058113</v>
       </c>
       <c r="X115">
         <f t="shared" si="13"/>
-        <v>97.102327687444003</v>
+        <v>93.580502506330376</v>
       </c>
       <c r="Y115">
         <f t="shared" si="16"/>
@@ -7687,11 +7831,11 @@
       </c>
       <c r="W116">
         <f t="shared" si="12"/>
-        <v>97.672013890628477</v>
+        <v>94.15018870951485</v>
       </c>
       <c r="X116">
         <f t="shared" si="13"/>
-        <v>97.202659161900741</v>
+        <v>93.680833980787114</v>
       </c>
       <c r="Y116">
         <f t="shared" si="16"/>
@@ -7728,11 +7872,11 @@
       </c>
       <c r="W117">
         <f t="shared" si="12"/>
-        <v>97.771780447544913</v>
+        <v>94.249955266431286</v>
       </c>
       <c r="X117">
         <f t="shared" si="13"/>
-        <v>97.302425718817176</v>
+        <v>93.780600537703549</v>
       </c>
       <c r="Y117">
         <f t="shared" si="16"/>
@@ -7769,11 +7913,11 @@
       </c>
       <c r="W118">
         <f t="shared" si="12"/>
-        <v>97.870991089735043</v>
+        <v>94.349165908621416</v>
       </c>
       <c r="X118">
         <f t="shared" si="13"/>
-        <v>97.401636361007306</v>
+        <v>93.879811179893679</v>
       </c>
       <c r="Y118">
         <f t="shared" si="16"/>
@@ -7810,11 +7954,11 @@
       </c>
       <c r="W119">
         <f t="shared" si="12"/>
-        <v>97.969654606502914</v>
+        <v>94.447829425389287</v>
       </c>
       <c r="X119">
         <f t="shared" si="13"/>
-        <v>97.500299877775177</v>
+        <v>93.97847469666155</v>
       </c>
       <c r="Y119">
         <f t="shared" si="16"/>
@@ -7851,11 +7995,11 @@
       </c>
       <c r="W120">
         <f t="shared" si="12"/>
-        <v>98.067779580341153</v>
+        <v>94.545954399227526</v>
       </c>
       <c r="X120">
         <f t="shared" si="13"/>
-        <v>97.598424851613416</v>
+        <v>94.076599670499789</v>
       </c>
       <c r="Y120">
         <f t="shared" si="16"/>
@@ -7892,11 +8036,11 @@
       </c>
       <c r="W121">
         <f t="shared" si="12"/>
-        <v>98.165374393368765</v>
+        <v>94.643549212255138</v>
       </c>
       <c r="X121">
         <f t="shared" si="13"/>
-        <v>97.696019664641028</v>
+        <v>94.174194483527401</v>
       </c>
       <c r="Y121">
         <f t="shared" si="16"/>
@@ -7933,11 +8077,11 @@
       </c>
       <c r="W122">
         <f t="shared" si="12"/>
-        <v>98.262447233520518</v>
+        <v>94.740622052406891</v>
       </c>
       <c r="X122">
         <f t="shared" si="13"/>
-        <v>97.793092504792781</v>
+        <v>94.271267323679155</v>
       </c>
       <c r="Y122">
         <f t="shared" si="16"/>
@@ -7974,11 +8118,11 @@
       </c>
       <c r="W123">
         <f t="shared" si="12"/>
-        <v>98.359006100499073</v>
+        <v>94.837180919385446</v>
       </c>
       <c r="X123">
         <f t="shared" si="13"/>
-        <v>97.889651371771336</v>
+        <v>94.367826190657709</v>
       </c>
       <c r="Y123">
         <f t="shared" si="16"/>
@@ -8015,11 +8159,11 @@
       </c>
       <c r="W124">
         <f t="shared" si="12"/>
-        <v>98.455058811500777</v>
+        <v>94.93323363038715</v>
       </c>
       <c r="X124">
         <f t="shared" si="13"/>
-        <v>97.985704082773054</v>
+        <v>94.463878901659427</v>
       </c>
       <c r="Y124">
         <f t="shared" si="16"/>
@@ -8056,11 +8200,11 @@
       </c>
       <c r="W125">
         <f t="shared" si="12"/>
-        <v>98.550613006725499</v>
+        <v>95.028787825611872</v>
       </c>
       <c r="X125">
         <f t="shared" si="13"/>
-        <v>98.081258277997776</v>
+        <v>94.559433096884149</v>
       </c>
       <c r="Y125">
         <f t="shared" si="16"/>
@@ -8097,11 +8241,11 @@
       </c>
       <c r="W126">
         <f t="shared" si="12"/>
-        <v>98.645676154679947</v>
+        <v>95.12385097356632</v>
       </c>
       <c r="X126">
         <f t="shared" si="13"/>
-        <v>98.17632142595221</v>
+        <v>94.654496244838583</v>
       </c>
       <c r="Y126">
         <f t="shared" si="16"/>
@@ -8138,11 +8282,11 @@
       </c>
       <c r="W127">
         <f t="shared" si="12"/>
-        <v>98.740255557283916</v>
+        <v>95.218430376170289</v>
       </c>
       <c r="X127">
         <f t="shared" si="13"/>
-        <v>98.270900828556179</v>
+        <v>94.749075647442552</v>
       </c>
       <c r="Y127">
         <f t="shared" si="16"/>
@@ -8179,11 +8323,11 @@
       </c>
       <c r="W128">
         <f t="shared" si="12"/>
-        <v>98.834358354788137</v>
+        <v>95.31253317367451</v>
       </c>
       <c r="X128">
         <f t="shared" si="13"/>
-        <v>98.365003626060414</v>
+        <v>94.843178444946787</v>
       </c>
       <c r="Y128">
         <f t="shared" si="16"/>
@@ -8220,11 +8364,11 @@
       </c>
       <c r="W129">
         <f t="shared" si="12"/>
-        <v>98.927991530511932</v>
+        <v>95.406166349398305</v>
       </c>
       <c r="X129">
         <f t="shared" si="13"/>
-        <v>98.458636801784195</v>
+        <v>94.936811620670568</v>
       </c>
       <c r="Y129">
         <f t="shared" si="16"/>
@@ -8261,11 +8405,11 @@
       </c>
       <c r="W130">
         <f t="shared" si="12"/>
-        <v>99.021161915408527</v>
+        <v>95.4993367342949</v>
       </c>
       <c r="X130">
         <f t="shared" si="13"/>
-        <v>98.55180718668079</v>
+        <v>95.029982005567163</v>
       </c>
       <c r="Y130">
         <f t="shared" si="16"/>
@@ -8302,11 +8446,11 @@
       </c>
       <c r="W131">
         <f t="shared" ref="W131:W194" si="21">S131+Y131+$D$48+$D$49</f>
-        <v>99.113876192465696</v>
+        <v>95.592051011352069</v>
       </c>
       <c r="X131">
         <f t="shared" ref="X131:X194" si="22">$T131+$Y131+$D$48+$D$49</f>
-        <v>98.644521463737959</v>
+        <v>95.122696282624332</v>
       </c>
       <c r="Y131">
         <f t="shared" si="16"/>
@@ -8343,11 +8487,11 @@
       </c>
       <c r="W132">
         <f t="shared" si="21"/>
-        <v>99.206140900948554</v>
+        <v>95.684315719834927</v>
       </c>
       <c r="X132">
         <f t="shared" si="22"/>
-        <v>98.736786172220818</v>
+        <v>95.214960991107191</v>
       </c>
       <c r="Y132">
         <f t="shared" si="16"/>
@@ -8384,11 +8528,11 @@
       </c>
       <c r="W133">
         <f t="shared" si="21"/>
-        <v>99.297962440491389</v>
+        <v>95.776137259377762</v>
       </c>
       <c r="X133">
         <f t="shared" si="22"/>
-        <v>98.828607711763667</v>
+        <v>95.30678253065004</v>
       </c>
       <c r="Y133">
         <f t="shared" si="16"/>
@@ -8425,11 +8569,11 @@
       </c>
       <c r="W134">
         <f t="shared" si="21"/>
-        <v>99.389347075044924</v>
+        <v>95.867521893931297</v>
       </c>
       <c r="X134">
         <f t="shared" si="22"/>
-        <v>98.919992346317187</v>
+        <v>95.39816716520356</v>
       </c>
       <c r="Y134">
         <f t="shared" si="16"/>
@@ -8466,11 +8610,11 @@
       </c>
       <c r="W135">
         <f t="shared" si="21"/>
-        <v>99.480300936685026</v>
+        <v>95.958475755571399</v>
       </c>
       <c r="X135">
         <f t="shared" si="22"/>
-        <v>99.010946207957303</v>
+        <v>95.489121026843677</v>
       </c>
       <c r="Y135">
         <f t="shared" si="16"/>
@@ -8507,11 +8651,11 @@
       </c>
       <c r="W136">
         <f t="shared" si="21"/>
-        <v>99.570830029288786</v>
+        <v>96.049004848175159</v>
       </c>
       <c r="X136">
         <f t="shared" si="22"/>
-        <v>99.101475300561063</v>
+        <v>95.579650119447436</v>
       </c>
       <c r="Y136">
         <f t="shared" si="16"/>
@@ -8548,11 +8692,11 @@
       </c>
       <c r="W137">
         <f t="shared" si="21"/>
-        <v>99.660940232083291</v>
+        <v>96.139115050969664</v>
       </c>
       <c r="X137">
         <f t="shared" si="22"/>
-        <v>99.191585503355569</v>
+        <v>95.669760322241942</v>
       </c>
       <c r="Y137">
         <f t="shared" si="16"/>
@@ -8589,11 +8733,11 @@
       </c>
       <c r="W138">
         <f t="shared" si="21"/>
-        <v>99.750637303072537</v>
+        <v>96.22881212195891</v>
       </c>
       <c r="X138">
         <f t="shared" si="22"/>
-        <v>99.281282574344814</v>
+        <v>95.759457393231187</v>
       </c>
       <c r="Y138">
         <f t="shared" si="16"/>
@@ -8630,11 +8774,11 @@
       </c>
       <c r="W139">
         <f t="shared" si="21"/>
-        <v>99.839926882347328</v>
+        <v>96.318101701233701</v>
       </c>
       <c r="X139">
         <f t="shared" si="22"/>
-        <v>99.370572153619591</v>
+        <v>95.848746972505964</v>
       </c>
       <c r="Y139">
         <f t="shared" si="16"/>
@@ -8671,11 +8815,11 @@
       </c>
       <c r="W140">
         <f t="shared" si="21"/>
-        <v>99.92881449528295</v>
+        <v>96.406989314169323</v>
       </c>
       <c r="X140">
         <f t="shared" si="22"/>
-        <v>99.459459766555213</v>
+        <v>95.937634585441586</v>
       </c>
       <c r="Y140">
         <f t="shared" si="16"/>
@@ -8712,11 +8856,11 @@
       </c>
       <c r="W141">
         <f t="shared" si="21"/>
-        <v>100.01730555562928</v>
+        <v>96.495480374515651</v>
       </c>
       <c r="X141">
         <f t="shared" si="22"/>
-        <v>99.547950826901555</v>
+        <v>96.026125645787928</v>
       </c>
       <c r="Y141">
         <f t="shared" si="16"/>
@@ -8753,11 +8897,11 @@
       </c>
       <c r="W142">
         <f t="shared" si="21"/>
-        <v>100.10540536849743</v>
+        <v>96.583580187383802</v>
       </c>
       <c r="X142">
         <f t="shared" si="22"/>
-        <v>99.636050639769692</v>
+        <v>96.114225458656065</v>
       </c>
       <c r="Y142">
         <f t="shared" si="16"/>
@@ -8794,11 +8938,11 @@
       </c>
       <c r="W143">
         <f t="shared" si="21"/>
-        <v>100.19311913324719</v>
+        <v>96.671293952133567</v>
       </c>
       <c r="X143">
         <f t="shared" si="22"/>
-        <v>99.723764404519457</v>
+        <v>96.20193922340583</v>
       </c>
       <c r="Y143">
         <f t="shared" si="16"/>
@@ -8835,11 +8979,11 @@
       </c>
       <c r="W144">
         <f t="shared" si="21"/>
-        <v>100.28045194627926</v>
+        <v>96.75862676516563</v>
       </c>
       <c r="X144">
         <f t="shared" si="22"/>
-        <v>99.81109721755152</v>
+        <v>96.289272036437893</v>
       </c>
       <c r="Y144">
         <f t="shared" si="16"/>
@@ -8876,11 +9020,11 @@
       </c>
       <c r="W145">
         <f t="shared" si="21"/>
-        <v>100.36740880373578</v>
+        <v>96.845583622622158</v>
       </c>
       <c r="X145">
         <f t="shared" si="22"/>
-        <v>99.898054075008048</v>
+        <v>96.376228893894421</v>
       </c>
       <c r="Y145">
         <f t="shared" si="16"/>
@@ -8917,11 +9061,11 @@
       </c>
       <c r="W146">
         <f t="shared" si="21"/>
-        <v>100.45399460411308</v>
+        <v>96.932169422999451</v>
       </c>
       <c r="X146">
         <f t="shared" si="22"/>
-        <v>99.984639875385341</v>
+        <v>96.462814694271714</v>
       </c>
       <c r="Y146">
         <f t="shared" si="16"/>
@@ -8958,11 +9102,11 @@
       </c>
       <c r="W147">
         <f t="shared" si="21"/>
-        <v>100.54021415078964</v>
+        <v>97.01838896967601</v>
       </c>
       <c r="X147">
         <f t="shared" si="22"/>
-        <v>100.0708594220619</v>
+        <v>96.549034240948274</v>
       </c>
       <c r="Y147">
         <f t="shared" si="16"/>
@@ -8999,11 +9143,11 @@
       </c>
       <c r="W148">
         <f t="shared" si="21"/>
-        <v>100.62607215447305</v>
+        <v>97.104246973359423</v>
       </c>
       <c r="X148">
         <f t="shared" si="22"/>
-        <v>100.15671742574531</v>
+        <v>96.634892244631686</v>
       </c>
       <c r="Y148">
         <f t="shared" si="16"/>
@@ -9040,11 +9184,11 @@
       </c>
       <c r="W149">
         <f t="shared" si="21"/>
-        <v>100.71157323556849</v>
+        <v>97.189748054454867</v>
       </c>
       <c r="X149">
         <f t="shared" si="22"/>
-        <v>100.24221850684076</v>
+        <v>96.72039332572713</v>
       </c>
       <c r="Y149">
         <f t="shared" si="16"/>
@@ -9081,11 +9225,11 @@
       </c>
       <c r="W150">
         <f t="shared" si="21"/>
-        <v>100.79672192647227</v>
+        <v>97.274896745358646</v>
       </c>
       <c r="X150">
         <f t="shared" si="22"/>
-        <v>100.32736719774454</v>
+        <v>96.805542016630909</v>
       </c>
       <c r="Y150">
         <f t="shared" si="16"/>
@@ -9122,11 +9266,11 @@
       </c>
       <c r="W151">
         <f t="shared" si="21"/>
-        <v>100.88152267379284</v>
+        <v>97.359697492679217</v>
       </c>
       <c r="X151">
         <f t="shared" si="22"/>
-        <v>100.41216794506511</v>
+        <v>96.89034276395148</v>
       </c>
       <c r="Y151">
         <f t="shared" si="16"/>
@@ -9163,11 +9307,11 @@
       </c>
       <c r="W152">
         <f t="shared" si="21"/>
-        <v>100.96597984050231</v>
+        <v>97.444154659388687</v>
       </c>
       <c r="X152">
         <f t="shared" si="22"/>
-        <v>100.49662511177458</v>
+        <v>96.97479993066095</v>
       </c>
       <c r="Y152">
         <f t="shared" si="16"/>
@@ -9204,11 +9348,11 @@
       </c>
       <c r="W153">
         <f t="shared" si="21"/>
-        <v>101.05009770802081</v>
+        <v>97.528272526907188</v>
       </c>
       <c r="X153">
         <f t="shared" si="22"/>
-        <v>100.58074297929308</v>
+        <v>97.058917798179451</v>
       </c>
       <c r="Y153">
         <f t="shared" si="16"/>
@@ -9245,11 +9389,11 @@
       </c>
       <c r="W154">
         <f t="shared" si="21"/>
-        <v>101.13388047823643</v>
+        <v>97.612055297122808</v>
       </c>
       <c r="X154">
         <f t="shared" si="22"/>
-        <v>100.66452574950871</v>
+        <v>97.142700568395085</v>
       </c>
       <c r="Y154">
         <f t="shared" si="16"/>
@@ -9286,11 +9430,11 @@
       </c>
       <c r="W155">
         <f t="shared" si="21"/>
-        <v>101.21733227546298</v>
+        <v>97.695507094349352</v>
       </c>
       <c r="X155">
         <f t="shared" si="22"/>
-        <v>100.74797754673524</v>
+        <v>97.226152365621616</v>
       </c>
       <c r="Y155">
         <f t="shared" si="16"/>
@@ -9327,11 +9471,11 @@
       </c>
       <c r="W156">
         <f t="shared" si="21"/>
-        <v>101.30045714833778</v>
+        <v>97.778631967224158</v>
       </c>
       <c r="X156">
         <f t="shared" si="22"/>
-        <v>100.83110241961005</v>
+        <v>97.309277238496421</v>
       </c>
       <c r="Y156">
         <f t="shared" si="16"/>
@@ -9368,11 +9512,11 @@
       </c>
       <c r="W157">
         <f t="shared" si="21"/>
-        <v>101.38325907166195</v>
+        <v>97.861433890548327</v>
       </c>
       <c r="X157">
         <f t="shared" si="22"/>
-        <v>100.91390434293422</v>
+        <v>97.39207916182059</v>
       </c>
       <c r="Y157">
         <f t="shared" si="16"/>
@@ -9409,11 +9553,11 @@
       </c>
       <c r="W158">
         <f t="shared" si="21"/>
-        <v>101.46574194818493</v>
+        <v>97.9439167670713</v>
       </c>
       <c r="X158">
         <f t="shared" si="22"/>
-        <v>100.99638721945719</v>
+        <v>97.474562038343564</v>
       </c>
       <c r="Y158">
         <f t="shared" ref="Y158:Y192" si="25">Y157+0.03</f>
@@ -9450,11 +9594,11 @@
       </c>
       <c r="W159">
         <f t="shared" si="21"/>
-        <v>101.54790961033549</v>
+        <v>98.026084429221868</v>
       </c>
       <c r="X159">
         <f t="shared" si="22"/>
-        <v>101.07855488160776</v>
+        <v>97.556729700494131</v>
       </c>
       <c r="Y159">
         <f t="shared" si="25"/>
@@ -9491,11 +9635,11 @@
       </c>
       <c r="W160">
         <f t="shared" si="21"/>
-        <v>101.62976582190109</v>
+        <v>98.107940640787461</v>
       </c>
       <c r="X160">
         <f t="shared" si="22"/>
-        <v>101.16041109317335</v>
+        <v>97.638585912059725</v>
       </c>
       <c r="Y160">
         <f t="shared" si="25"/>
@@ -9532,11 +9676,11 @@
       </c>
       <c r="W161">
         <f t="shared" si="21"/>
-        <v>101.7113142796573</v>
+        <v>98.189489098543675</v>
       </c>
       <c r="X161">
         <f t="shared" si="22"/>
-        <v>101.24195955092956</v>
+        <v>97.720134369815938</v>
       </c>
       <c r="Y161">
         <f t="shared" si="25"/>
@@ -9573,11 +9717,11 @@
       </c>
       <c r="W162">
         <f t="shared" si="21"/>
-        <v>101.7925586149493</v>
+        <v>98.270733433835673</v>
       </c>
       <c r="X162">
         <f t="shared" si="22"/>
-        <v>101.32320388622158</v>
+        <v>97.80137870510795</v>
       </c>
       <c r="Y162">
         <f t="shared" si="25"/>
@@ -9614,11 +9758,11 @@
       </c>
       <c r="W163">
         <f t="shared" si="21"/>
-        <v>101.87350239522691</v>
+        <v>98.35167721411328</v>
       </c>
       <c r="X163">
         <f t="shared" si="22"/>
-        <v>101.40414766649917</v>
+        <v>97.882322485385544</v>
       </c>
       <c r="Y163">
         <f t="shared" si="25"/>
@@ -9655,11 +9799,11 @@
       </c>
       <c r="W164">
         <f t="shared" si="21"/>
-        <v>101.95414912553481</v>
+        <v>98.432323944421185</v>
       </c>
       <c r="X164">
         <f t="shared" si="22"/>
-        <v>101.48479439680708</v>
+        <v>97.962969215693448</v>
       </c>
       <c r="Y164">
         <f t="shared" si="25"/>
@@ -9696,11 +9840,11 @@
       </c>
       <c r="W165">
         <f t="shared" si="21"/>
-        <v>102.03450224995974</v>
+        <v>98.512677068846116</v>
       </c>
       <c r="X165">
         <f t="shared" si="22"/>
-        <v>101.56514752123201</v>
+        <v>98.04332234011838</v>
       </c>
       <c r="Y165">
         <f t="shared" si="25"/>
@@ -9737,11 +9881,11 @@
       </c>
       <c r="W166">
         <f t="shared" si="21"/>
-        <v>102.11456515303583</v>
+        <v>98.5927399719222</v>
       </c>
       <c r="X166">
         <f t="shared" si="22"/>
-        <v>101.64521042430809</v>
+        <v>98.123385243194463</v>
       </c>
       <c r="Y166">
         <f t="shared" si="25"/>
@@ -9778,11 +9922,11 @@
       </c>
       <c r="W167">
         <f t="shared" si="21"/>
-        <v>102.19434116110972</v>
+        <v>98.672515979996092</v>
       </c>
       <c r="X167">
         <f t="shared" si="22"/>
-        <v>101.72498643238198</v>
+        <v>98.203161251268355</v>
       </c>
       <c r="Y167">
         <f t="shared" si="25"/>
@@ -9819,11 +9963,11 @@
       </c>
       <c r="W168">
         <f t="shared" si="21"/>
-        <v>102.27383354366684</v>
+        <v>98.752008362553212</v>
       </c>
       <c r="X168">
         <f t="shared" si="22"/>
-        <v>101.8044788149391</v>
+        <v>98.282653633825475</v>
       </c>
       <c r="Y168">
         <f t="shared" si="25"/>
@@ -9860,11 +10004,11 @@
       </c>
       <c r="W169">
         <f t="shared" si="21"/>
-        <v>102.35304551461996</v>
+        <v>98.831220333506337</v>
       </c>
       <c r="X169">
         <f t="shared" si="22"/>
-        <v>101.88369078589223</v>
+        <v>98.3618656047786</v>
       </c>
       <c r="Y169">
         <f t="shared" si="25"/>
@@ -9901,11 +10045,11 @@
       </c>
       <c r="W170">
         <f t="shared" si="21"/>
-        <v>102.43198023356172</v>
+        <v>98.91015505244809</v>
       </c>
       <c r="X170">
         <f t="shared" si="22"/>
-        <v>101.96262550483398</v>
+        <v>98.440800323720353</v>
       </c>
       <c r="Y170">
         <f t="shared" si="25"/>
@@ -9942,11 +10086,11 @@
       </c>
       <c r="W171">
         <f t="shared" si="21"/>
-        <v>102.5106408069817</v>
+        <v>98.988815625868071</v>
       </c>
       <c r="X171">
         <f t="shared" si="22"/>
-        <v>102.04128607825398</v>
+        <v>98.519460897140348</v>
       </c>
       <c r="Y171">
         <f t="shared" si="25"/>
@@ -9983,11 +10127,11 @@
       </c>
       <c r="W172">
         <f t="shared" si="21"/>
-        <v>102.58903028944997</v>
+        <v>99.067205108336339</v>
       </c>
       <c r="X172">
         <f t="shared" si="22"/>
-        <v>102.11967556072223</v>
+        <v>98.597850379608602</v>
       </c>
       <c r="Y172">
         <f t="shared" si="25"/>
@@ -10024,11 +10168,11 @@
       </c>
       <c r="W173">
         <f t="shared" si="21"/>
-        <v>102.66715168476753</v>
+        <v>99.145326503653905</v>
       </c>
       <c r="X173">
         <f t="shared" si="22"/>
-        <v>102.1977969560398</v>
+        <v>98.675971774926168</v>
       </c>
       <c r="Y173">
         <f t="shared" si="25"/>
@@ -10065,11 +10209,11 @@
       </c>
       <c r="W174">
         <f t="shared" si="21"/>
-        <v>102.74500794708534</v>
+        <v>99.223182765971714</v>
       </c>
       <c r="X174">
         <f t="shared" si="22"/>
-        <v>102.2756532183576</v>
+        <v>98.753828037243977</v>
       </c>
       <c r="Y174">
         <f t="shared" si="25"/>
@@ -10106,11 +10250,11 @@
       </c>
       <c r="W175">
         <f t="shared" si="21"/>
-        <v>102.82260198199243</v>
+        <v>99.300776800878808</v>
       </c>
       <c r="X175">
         <f t="shared" si="22"/>
-        <v>102.3532472532647</v>
+        <v>98.831422072151071</v>
       </c>
       <c r="Y175">
         <f t="shared" si="25"/>
@@ -10147,11 +10291,11 @@
       </c>
       <c r="W176">
         <f t="shared" si="21"/>
-        <v>102.89993664757458</v>
+        <v>99.37811146646095</v>
       </c>
       <c r="X176">
         <f t="shared" si="22"/>
-        <v>102.43058191884684</v>
+        <v>98.908756737733214</v>
       </c>
       <c r="Y176">
         <f t="shared" si="25"/>
@@ -10188,11 +10332,11 @@
       </c>
       <c r="W177">
         <f t="shared" si="21"/>
-        <v>102.97701475544412</v>
+        <v>99.45518957433049</v>
       </c>
       <c r="X177">
         <f t="shared" si="22"/>
-        <v>102.50766002671638</v>
+        <v>98.985834845602753</v>
       </c>
       <c r="Y177">
         <f t="shared" si="25"/>
@@ -10229,11 +10373,11 @@
       </c>
       <c r="W178">
         <f t="shared" si="21"/>
-        <v>103.05383907174217</v>
+        <v>99.532013890628548</v>
       </c>
       <c r="X178">
         <f t="shared" si="22"/>
-        <v>102.58448434301444</v>
+        <v>99.062659161900811</v>
       </c>
       <c r="Y178">
         <f t="shared" si="25"/>
@@ -10270,11 +10414,11 @@
       </c>
       <c r="W179">
         <f t="shared" si="21"/>
-        <v>103.13041231811383</v>
+        <v>99.6085871370002</v>
       </c>
       <c r="X179">
         <f t="shared" si="22"/>
-        <v>102.66105758938609</v>
+        <v>99.139232408272463</v>
       </c>
       <c r="Y179">
         <f t="shared" si="25"/>
@@ -10311,11 +10455,11 @@
       </c>
       <c r="W180">
         <f t="shared" si="21"/>
-        <v>103.20673717265744</v>
+        <v>99.684911991543814</v>
       </c>
       <c r="X180">
         <f t="shared" si="22"/>
-        <v>102.73738244392972</v>
+        <v>99.215557262816091</v>
       </c>
       <c r="Y180">
         <f t="shared" si="25"/>
@@ -10352,11 +10496,11 @@
       </c>
       <c r="W181">
         <f t="shared" si="21"/>
-        <v>103.28281627084873</v>
+        <v>99.7609910897351</v>
       </c>
       <c r="X181">
         <f t="shared" si="22"/>
-        <v>102.813461542121</v>
+        <v>99.291636361007377</v>
       </c>
       <c r="Y181">
         <f t="shared" si="25"/>
@@ -10393,11 +10537,11 @@
       </c>
       <c r="W182">
         <f t="shared" si="21"/>
-        <v>103.35865220644042</v>
+        <v>99.836827025326798</v>
       </c>
       <c r="X182">
         <f t="shared" si="22"/>
-        <v>102.8892974777127</v>
+        <v>99.367472296599075</v>
       </c>
       <c r="Y182">
         <f t="shared" si="25"/>
@@ -10434,11 +10578,11 @@
       </c>
       <c r="W183">
         <f t="shared" si="21"/>
-        <v>103.4342475323384</v>
+        <v>99.912422351224777</v>
       </c>
       <c r="X183">
         <f t="shared" si="22"/>
-        <v>102.96489280361067</v>
+        <v>99.44306762249704</v>
       </c>
       <c r="Y183">
         <f t="shared" si="25"/>
@@ -10475,11 +10619,11 @@
       </c>
       <c r="W184">
         <f t="shared" si="21"/>
-        <v>103.50960476145484</v>
+        <v>99.987779580341211</v>
       </c>
       <c r="X184">
         <f t="shared" si="22"/>
-        <v>103.04025003272712</v>
+        <v>99.518424851613489</v>
       </c>
       <c r="Y184">
         <f t="shared" si="25"/>
@@ -10516,11 +10660,11 @@
       </c>
       <c r="W185">
         <f t="shared" si="21"/>
-        <v>103.58472636753933</v>
+        <v>100.06290118642571</v>
       </c>
       <c r="X185">
         <f t="shared" si="22"/>
-        <v>103.1153716388116</v>
+        <v>99.593546457697968</v>
       </c>
       <c r="Y185">
         <f t="shared" si="25"/>
@@ -10557,11 +10701,11 @@
       </c>
       <c r="W186">
         <f t="shared" si="21"/>
-        <v>103.65961478598838</v>
+        <v>100.13778960487475</v>
       </c>
       <c r="X186">
         <f t="shared" si="22"/>
-        <v>103.19026005726064</v>
+        <v>99.668434876147018</v>
       </c>
       <c r="Y186">
         <f t="shared" si="25"/>
@@ -10598,11 +10742,11 @@
       </c>
       <c r="W187">
         <f t="shared" si="21"/>
-        <v>103.73427241463422</v>
+        <v>100.21244723352059</v>
       </c>
       <c r="X187">
         <f t="shared" si="22"/>
-        <v>103.26491768590648</v>
+        <v>99.743092504792855</v>
       </c>
       <c r="Y187">
         <f t="shared" si="25"/>
@@ -10639,11 +10783,11 @@
       </c>
       <c r="W188">
         <f t="shared" si="21"/>
-        <v>103.80870161451338</v>
+        <v>100.28687643339975</v>
       </c>
       <c r="X188">
         <f t="shared" si="22"/>
-        <v>103.33934688578564</v>
+        <v>99.817521704672018</v>
       </c>
       <c r="Y188">
         <f t="shared" si="25"/>
@@ -10680,11 +10824,11 @@
       </c>
       <c r="W189">
         <f t="shared" si="21"/>
-        <v>103.88290471061572</v>
+        <v>100.36107952950209</v>
       </c>
       <c r="X189">
         <f t="shared" si="22"/>
-        <v>103.41354998188798</v>
+        <v>99.891724800774355</v>
       </c>
       <c r="Y189">
         <f t="shared" si="25"/>
@@ -10721,11 +10865,11 @@
       </c>
       <c r="W190">
         <f t="shared" si="21"/>
-        <v>103.95688399261448</v>
+        <v>100.43505881150085</v>
       </c>
       <c r="X190">
         <f t="shared" si="22"/>
-        <v>103.48752926388674</v>
+        <v>99.965704082773115</v>
       </c>
       <c r="Y190">
         <f t="shared" si="25"/>
@@ -10762,11 +10906,11 @@
       </c>
       <c r="W191">
         <f t="shared" si="21"/>
-        <v>104.030641715578</v>
+        <v>100.50881653446437</v>
       </c>
       <c r="X191">
         <f t="shared" si="22"/>
-        <v>103.56128698685026</v>
+        <v>100.03946180573664</v>
       </c>
       <c r="Y191">
         <f t="shared" si="25"/>
@@ -10803,11 +10947,11 @@
       </c>
       <c r="W192">
         <f t="shared" si="21"/>
-        <v>104.10418010066348</v>
+        <v>100.58235491954986</v>
       </c>
       <c r="X192">
         <f t="shared" si="22"/>
-        <v>103.63482537193575</v>
+        <v>100.11300019082212</v>
       </c>
       <c r="Y192">
         <f t="shared" si="25"/>
@@ -10844,11 +10988,11 @@
       </c>
       <c r="W193">
         <f t="shared" si="21"/>
-        <v>104.16750133579363</v>
+        <v>100.64567615468</v>
       </c>
       <c r="X193">
         <f t="shared" si="22"/>
-        <v>103.69814660706589</v>
+        <v>100.17632142595227</v>
       </c>
       <c r="Y193">
         <f>Y192+0.02</f>
@@ -10885,11 +11029,11 @@
       </c>
       <c r="W194">
         <f t="shared" si="21"/>
-        <v>104.23060757631633</v>
+        <v>100.7087823952027</v>
       </c>
       <c r="X194">
         <f t="shared" si="22"/>
-        <v>103.76125284758859</v>
+        <v>100.23942766647497</v>
       </c>
       <c r="Y194">
         <f t="shared" ref="Y194:Y257" si="26">Y193+0.02</f>
@@ -10926,11 +11070,11 @@
       </c>
       <c r="W195">
         <f t="shared" ref="W195:W258" si="31">S195+Y195+$D$48+$D$49</f>
-        <v>104.29350094564811</v>
+        <v>100.77167576453448</v>
       </c>
       <c r="X195">
         <f t="shared" ref="X195:X258" si="32">$T195+$Y195+$D$48+$D$49</f>
-        <v>103.82414621692038</v>
+        <v>100.30232103580676</v>
       </c>
       <c r="Y195">
         <f t="shared" si="26"/>
@@ -10967,11 +11111,11 @@
       </c>
       <c r="W196">
         <f t="shared" si="31"/>
-        <v>104.35618353590183</v>
+        <v>100.83435835478821</v>
       </c>
       <c r="X196">
         <f t="shared" si="32"/>
-        <v>103.8868288071741</v>
+        <v>100.36500362606047</v>
       </c>
       <c r="Y196">
         <f t="shared" si="26"/>
@@ -11008,11 +11152,11 @@
       </c>
       <c r="W197">
         <f t="shared" si="31"/>
-        <v>104.41865740849894</v>
+        <v>100.89683222738532</v>
       </c>
       <c r="X197">
         <f t="shared" si="32"/>
-        <v>103.94930267977121</v>
+        <v>100.42747749865758</v>
       </c>
       <c r="Y197">
         <f t="shared" si="26"/>
@@ -11049,11 +11193,11 @@
       </c>
       <c r="W198">
         <f t="shared" si="31"/>
-        <v>104.48092459476692</v>
+        <v>100.95909941365329</v>
       </c>
       <c r="X198">
         <f t="shared" si="32"/>
-        <v>104.0115698660392</v>
+        <v>100.48974468492557</v>
       </c>
       <c r="Y198">
         <f t="shared" si="26"/>
@@ -11090,11 +11234,11 @@
       </c>
       <c r="W199">
         <f t="shared" si="31"/>
-        <v>104.54298709652221</v>
+        <v>101.02116191540858</v>
       </c>
       <c r="X199">
         <f t="shared" si="32"/>
-        <v>104.07363236779449</v>
+        <v>100.55180718668086</v>
       </c>
       <c r="Y199">
         <f t="shared" si="26"/>
@@ -11131,11 +11275,11 @@
       </c>
       <c r="W200">
         <f t="shared" si="31"/>
-        <v>104.60484688663909</v>
+        <v>101.08302170552547</v>
       </c>
       <c r="X200">
         <f t="shared" si="32"/>
-        <v>104.13549215791136</v>
+        <v>100.61366697679773</v>
       </c>
       <c r="Y200">
         <f t="shared" si="26"/>
@@ -11172,11 +11316,11 @@
       </c>
       <c r="W201">
         <f t="shared" si="31"/>
-        <v>104.66650590960494</v>
+        <v>101.14468072849131</v>
       </c>
       <c r="X201">
         <f t="shared" si="32"/>
-        <v>104.1971511808772</v>
+        <v>100.67532599976357</v>
       </c>
       <c r="Y201">
         <f t="shared" si="26"/>
@@ -11213,11 +11357,11 @@
       </c>
       <c r="W202">
         <f t="shared" si="31"/>
-        <v>104.72796608206224</v>
+        <v>101.20614090094861</v>
       </c>
       <c r="X202">
         <f t="shared" si="32"/>
-        <v>104.2586113533345</v>
+        <v>100.73678617222087</v>
       </c>
       <c r="Y202">
         <f t="shared" si="26"/>
@@ -11254,11 +11398,11 @@
       </c>
       <c r="W203">
         <f t="shared" si="31"/>
-        <v>104.78922929333771</v>
+        <v>101.26740411222409</v>
       </c>
       <c r="X203">
         <f t="shared" si="32"/>
-        <v>104.31987456460996</v>
+        <v>100.79804938349633</v>
       </c>
       <c r="Y203">
         <f t="shared" si="26"/>
@@ -11295,11 +11439,11 @@
       </c>
       <c r="W204">
         <f t="shared" si="31"/>
-        <v>104.85029740595888</v>
+        <v>101.32847222484526</v>
       </c>
       <c r="X204">
         <f t="shared" si="32"/>
-        <v>104.38094267723115</v>
+        <v>100.85911749611752</v>
       </c>
       <c r="Y204">
         <f t="shared" si="26"/>
@@ -11336,11 +11480,11 @@
       </c>
       <c r="W205">
         <f t="shared" si="31"/>
-        <v>104.91117225615861</v>
+        <v>101.38934707504498</v>
       </c>
       <c r="X205">
         <f t="shared" si="32"/>
-        <v>104.44181752743087</v>
+        <v>100.91999234631724</v>
       </c>
       <c r="Y205">
         <f t="shared" si="26"/>
@@ -11377,11 +11521,11 @@
       </c>
       <c r="W206">
         <f t="shared" si="31"/>
-        <v>104.97185565436767</v>
+        <v>101.45003047325405</v>
       </c>
       <c r="X206">
         <f t="shared" si="32"/>
-        <v>104.50250092563994</v>
+        <v>100.98067574452631</v>
       </c>
       <c r="Y206">
         <f t="shared" si="26"/>
@@ -11418,11 +11562,11 @@
       </c>
       <c r="W207">
         <f t="shared" si="31"/>
-        <v>105.03234938569597</v>
+        <v>101.51052420458234</v>
       </c>
       <c r="X207">
         <f t="shared" si="32"/>
-        <v>104.56299465696821</v>
+        <v>101.04116947585459</v>
       </c>
       <c r="Y207">
         <f t="shared" si="26"/>
@@ -11459,11 +11603,11 @@
       </c>
       <c r="W208">
         <f t="shared" si="31"/>
-        <v>105.09265521040247</v>
+        <v>101.57083002928884</v>
       </c>
       <c r="X208">
         <f t="shared" si="32"/>
-        <v>104.62330048167475</v>
+        <v>101.10147530056112</v>
       </c>
       <c r="Y208">
         <f t="shared" si="26"/>
@@ -11500,11 +11644,11 @@
       </c>
       <c r="W209">
         <f t="shared" si="31"/>
-        <v>105.15277486435444</v>
+        <v>101.63094968324081</v>
       </c>
       <c r="X209">
         <f t="shared" si="32"/>
-        <v>104.6834201356267</v>
+        <v>101.16159495451308</v>
       </c>
       <c r="Y209">
         <f t="shared" si="26"/>
@@ -11541,11 +11685,11 @@
       </c>
       <c r="W210">
         <f t="shared" si="31"/>
-        <v>105.21271005947595</v>
+        <v>101.69088487836233</v>
       </c>
       <c r="X210">
         <f t="shared" si="32"/>
-        <v>104.74335533074822</v>
+        <v>101.22153014963459</v>
       </c>
       <c r="Y210">
         <f t="shared" si="26"/>
@@ -11582,11 +11726,11 @@
       </c>
       <c r="W211">
         <f t="shared" si="31"/>
-        <v>105.27246248418621</v>
+        <v>101.75063730307258</v>
       </c>
       <c r="X211">
         <f t="shared" si="32"/>
-        <v>104.80310775545848</v>
+        <v>101.28128257434486</v>
       </c>
       <c r="Y211">
         <f t="shared" si="26"/>
@@ -11623,11 +11767,11 @@
       </c>
       <c r="W212">
         <f t="shared" si="31"/>
-        <v>105.33203380382798</v>
+        <v>101.81020862271436</v>
       </c>
       <c r="X212">
         <f t="shared" si="32"/>
-        <v>104.86267907510025</v>
+        <v>101.34085389398662</v>
       </c>
       <c r="Y212">
         <f t="shared" si="26"/>
@@ -11664,11 +11808,11 @@
       </c>
       <c r="W213">
         <f t="shared" si="31"/>
-        <v>105.39142566108606</v>
+        <v>101.86960047997243</v>
       </c>
       <c r="X213">
         <f t="shared" si="32"/>
-        <v>104.92207093235832</v>
+        <v>101.4002457512447</v>
       </c>
       <c r="Y213">
         <f t="shared" si="26"/>
@@ -11705,11 +11849,11 @@
       </c>
       <c r="W214">
         <f t="shared" si="31"/>
-        <v>105.45063967639662</v>
+        <v>101.92881449528299</v>
       </c>
       <c r="X214">
         <f t="shared" si="32"/>
-        <v>104.98128494766888</v>
+        <v>101.45945976655526</v>
       </c>
       <c r="Y214">
         <f t="shared" si="26"/>
@@ -11746,11 +11890,11 @@
       </c>
       <c r="W215">
         <f t="shared" si="31"/>
-        <v>105.50967744834708</v>
+        <v>101.98785226723345</v>
       </c>
       <c r="X215">
         <f t="shared" si="32"/>
-        <v>105.04032271961933</v>
+        <v>101.5184975385057</v>
       </c>
       <c r="Y215">
         <f>Y214+0.02</f>
@@ -11787,11 +11931,11 @@
       </c>
       <c r="W216">
         <f t="shared" si="31"/>
-        <v>105.56854055406711</v>
+        <v>102.04671537295349</v>
       </c>
       <c r="X216">
         <f t="shared" si="32"/>
-        <v>105.09918582533938</v>
+        <v>101.57736064422575</v>
       </c>
       <c r="Y216">
         <f t="shared" si="26"/>
@@ -11828,11 +11972,11 @@
       </c>
       <c r="W217">
         <f t="shared" si="31"/>
-        <v>105.62723054961111</v>
+        <v>102.10540536849749</v>
       </c>
       <c r="X217">
         <f t="shared" si="32"/>
-        <v>105.15787582088336</v>
+        <v>101.63605063976973</v>
       </c>
       <c r="Y217">
         <f t="shared" si="26"/>
@@ -11869,11 +12013,11 @@
       </c>
       <c r="W218">
         <f t="shared" si="31"/>
-        <v>105.68574897033187</v>
+        <v>102.16392378921825</v>
       </c>
       <c r="X218">
         <f t="shared" si="32"/>
-        <v>105.21639424160414</v>
+        <v>101.69456906049051</v>
       </c>
       <c r="Y218">
         <f t="shared" si="26"/>
@@ -11910,11 +12054,11 @@
       </c>
       <c r="W219">
         <f t="shared" si="31"/>
-        <v>105.74409733124631</v>
+        <v>102.22227215013268</v>
       </c>
       <c r="X219">
         <f t="shared" si="32"/>
-        <v>105.27474260251856</v>
+        <v>101.75291742140493</v>
       </c>
       <c r="Y219">
         <f t="shared" si="26"/>
@@ -11951,11 +12095,11 @@
       </c>
       <c r="W220">
         <f t="shared" si="31"/>
-        <v>105.80227712739293</v>
+        <v>102.2804519462793</v>
       </c>
       <c r="X220">
         <f t="shared" si="32"/>
-        <v>105.33292239866519</v>
+        <v>101.81109721755156</v>
       </c>
       <c r="Y220">
         <f t="shared" si="26"/>
@@ -11992,11 +12136,11 @@
       </c>
       <c r="W221">
         <f t="shared" si="31"/>
-        <v>105.86028983418163</v>
+        <v>102.338464653068</v>
       </c>
       <c r="X221">
         <f t="shared" si="32"/>
-        <v>105.39093510545388</v>
+        <v>101.86910992434025</v>
       </c>
       <c r="Y221">
         <f t="shared" si="26"/>
@@ -12033,11 +12177,11 @@
       </c>
       <c r="W222">
         <f t="shared" si="31"/>
-        <v>105.91813690773571</v>
+        <v>102.39631172662209</v>
       </c>
       <c r="X222">
         <f t="shared" si="32"/>
-        <v>105.44878217900796</v>
+        <v>101.92695699789434</v>
       </c>
       <c r="Y222">
         <f t="shared" si="26"/>
@@ -12074,11 +12218,11 @@
       </c>
       <c r="W223">
         <f t="shared" si="31"/>
-        <v>105.97581978522675</v>
+        <v>102.45399460411312</v>
       </c>
       <c r="X223">
         <f t="shared" si="32"/>
-        <v>105.506465056499</v>
+        <v>101.98463987538537</v>
       </c>
       <c r="Y223">
         <f t="shared" si="26"/>
@@ -12115,11 +12259,11 @@
       </c>
       <c r="W224">
         <f t="shared" si="31"/>
-        <v>106.03333988520183</v>
+        <v>102.5115147040882</v>
       </c>
       <c r="X224">
         <f t="shared" si="32"/>
-        <v>105.5639851564741</v>
+        <v>102.04215997536048</v>
       </c>
       <c r="Y224">
         <f t="shared" si="26"/>
@@ -12156,11 +12300,11 @@
       </c>
       <c r="W225">
         <f t="shared" si="31"/>
-        <v>106.09069860790424</v>
+        <v>102.56887342679062</v>
       </c>
       <c r="X225">
         <f t="shared" si="32"/>
-        <v>105.62134387917649</v>
+        <v>102.09951869806287</v>
       </c>
       <c r="Y225">
         <f t="shared" si="26"/>
@@ -12197,11 +12341,11 @@
       </c>
       <c r="W226">
         <f t="shared" si="31"/>
-        <v>106.14789733558669</v>
+        <v>102.62607215447306</v>
       </c>
       <c r="X226">
         <f t="shared" si="32"/>
-        <v>105.67854260685897</v>
+        <v>102.15671742574534</v>
       </c>
       <c r="Y226">
         <f t="shared" si="26"/>
@@ -12238,11 +12382,11 @@
       </c>
       <c r="W227">
         <f t="shared" si="31"/>
-        <v>106.20493743281858</v>
+        <v>102.68311225170496</v>
       </c>
       <c r="X227">
         <f t="shared" si="32"/>
-        <v>105.73558270409083</v>
+        <v>102.2137575229772</v>
       </c>
       <c r="Y227">
         <f t="shared" si="26"/>
@@ -12279,11 +12423,11 @@
       </c>
       <c r="W228">
         <f t="shared" si="31"/>
-        <v>106.26182024678596</v>
+        <v>102.73999506567233</v>
       </c>
       <c r="X228">
         <f t="shared" si="32"/>
-        <v>105.79246551805824</v>
+        <v>102.27064033694461</v>
       </c>
       <c r="Y228">
         <f t="shared" si="26"/>
@@ -12320,11 +12464,11 @@
       </c>
       <c r="W229">
         <f t="shared" si="31"/>
-        <v>106.31854710758591</v>
+        <v>102.79672192647229</v>
       </c>
       <c r="X229">
         <f t="shared" si="32"/>
-        <v>105.84919237885819</v>
+        <v>102.32736719774456</v>
       </c>
       <c r="Y229">
         <f t="shared" si="26"/>
@@ -12361,11 +12505,11 @@
       </c>
       <c r="W230">
         <f t="shared" si="31"/>
-        <v>106.37511932851407</v>
+        <v>102.85329414740045</v>
       </c>
       <c r="X230">
         <f t="shared" si="32"/>
-        <v>105.90576459978635</v>
+        <v>102.38393941867272</v>
       </c>
       <c r="Y230">
         <f t="shared" si="26"/>
@@ -12402,11 +12546,11 @@
       </c>
       <c r="W231">
         <f t="shared" si="31"/>
-        <v>106.4315382063466</v>
+        <v>102.90971302523297</v>
       </c>
       <c r="X231">
         <f t="shared" si="32"/>
-        <v>105.96218347761885</v>
+        <v>102.44035829650522</v>
       </c>
       <c r="Y231">
         <f t="shared" si="26"/>
@@ -12443,11 +12587,11 @@
       </c>
       <c r="W232">
         <f t="shared" si="31"/>
-        <v>106.48780502161597</v>
+        <v>102.96597984050234</v>
       </c>
       <c r="X232">
         <f t="shared" si="32"/>
-        <v>106.01845029288822</v>
+        <v>102.49662511177459</v>
       </c>
       <c r="Y232">
         <f t="shared" si="26"/>
@@ -12484,11 +12628,11 @@
       </c>
       <c r="W233">
         <f t="shared" si="31"/>
-        <v>106.54392103888119</v>
+        <v>103.02209585776757</v>
       </c>
       <c r="X233">
         <f t="shared" si="32"/>
-        <v>106.07456631015347</v>
+        <v>102.55274112903984</v>
       </c>
       <c r="Y233">
         <f t="shared" si="26"/>
@@ -12525,11 +12669,11 @@
       </c>
       <c r="W234">
         <f t="shared" si="31"/>
-        <v>106.59988750699247</v>
+        <v>103.07806232587885</v>
       </c>
       <c r="X234">
         <f t="shared" si="32"/>
-        <v>106.13053277826475</v>
+        <v>102.60870759715112</v>
       </c>
       <c r="Y234">
         <f t="shared" si="26"/>
@@ -12566,11 +12710,11 @@
       </c>
       <c r="W235">
         <f t="shared" si="31"/>
-        <v>106.65570565935008</v>
+        <v>103.13388047823645</v>
       </c>
       <c r="X235">
         <f t="shared" si="32"/>
-        <v>106.18635093062235</v>
+        <v>102.66452574950873</v>
       </c>
       <c r="Y235">
         <f t="shared" si="26"/>
@@ -12607,11 +12751,11 @@
       </c>
       <c r="W236">
         <f t="shared" si="31"/>
-        <v>106.71137671415843</v>
+        <v>103.18955153304481</v>
       </c>
       <c r="X236">
         <f t="shared" si="32"/>
-        <v>106.24202198543068</v>
+        <v>102.72019680431706</v>
       </c>
       <c r="Y236">
         <f t="shared" si="26"/>
@@ -12648,11 +12792,11 @@
       </c>
       <c r="W237">
         <f t="shared" si="31"/>
-        <v>106.76690187467449</v>
+        <v>103.24507669356086</v>
       </c>
       <c r="X237">
         <f t="shared" si="32"/>
-        <v>106.29754714594674</v>
+        <v>102.77572196483311</v>
       </c>
       <c r="Y237">
         <f t="shared" si="26"/>
@@ -12689,11 +12833,11 @@
       </c>
       <c r="W238">
         <f t="shared" si="31"/>
-        <v>106.82228232945141</v>
+        <v>103.30045714833778</v>
       </c>
       <c r="X238">
         <f t="shared" si="32"/>
-        <v>106.35292760072369</v>
+        <v>102.83110241961006</v>
       </c>
       <c r="Y238">
         <f t="shared" si="26"/>
@@ -12730,11 +12874,11 @@
       </c>
       <c r="W239">
         <f t="shared" si="31"/>
-        <v>106.87751925257714</v>
+        <v>103.35569407146352</v>
       </c>
       <c r="X239">
         <f t="shared" si="32"/>
-        <v>106.40816452384942</v>
+        <v>102.88633934273579</v>
       </c>
       <c r="Y239">
         <f t="shared" si="26"/>
@@ -12771,11 +12915,11 @@
       </c>
       <c r="W240">
         <f t="shared" si="31"/>
-        <v>106.93261380390817</v>
+        <v>103.41078862279454</v>
       </c>
       <c r="X240">
         <f t="shared" si="32"/>
-        <v>106.46325907518042</v>
+        <v>102.94143389406679</v>
       </c>
       <c r="Y240">
         <f t="shared" si="26"/>
@@ -12812,11 +12956,11 @@
       </c>
       <c r="W241">
         <f t="shared" si="31"/>
-        <v>106.98756712929855</v>
+        <v>103.46574194818493</v>
       </c>
       <c r="X241">
         <f t="shared" si="32"/>
-        <v>106.51821240057083</v>
+        <v>102.9963872194572</v>
       </c>
       <c r="Y241">
         <f t="shared" si="26"/>
@@ -12853,11 +12997,11 @@
       </c>
       <c r="W242">
         <f t="shared" si="31"/>
-        <v>107.04238036082458</v>
+        <v>103.52055517971095</v>
       </c>
       <c r="X242">
         <f t="shared" si="32"/>
-        <v>106.57302563209686</v>
+        <v>103.05120045098323</v>
       </c>
       <c r="Y242">
         <f t="shared" si="26"/>
@@ -12894,11 +13038,11 @@
       </c>
       <c r="W243">
         <f t="shared" si="31"/>
-        <v>107.0970546170046</v>
+        <v>103.57522943589098</v>
       </c>
       <c r="X243">
         <f t="shared" si="32"/>
-        <v>106.62769988827685</v>
+        <v>103.10587470716322</v>
       </c>
       <c r="Y243">
         <f t="shared" si="26"/>
@@ -12935,11 +13079,11 @@
       </c>
       <c r="W244">
         <f t="shared" si="31"/>
-        <v>107.15159100301472</v>
+        <v>103.62976582190109</v>
       </c>
       <c r="X244">
         <f t="shared" si="32"/>
-        <v>106.68223627428699</v>
+        <v>103.16041109317337</v>
       </c>
       <c r="Y244">
         <f t="shared" si="26"/>
@@ -12976,11 +13120,11 @@
       </c>
       <c r="W245">
         <f t="shared" si="31"/>
-        <v>107.20599061090019</v>
+        <v>103.68416542978656</v>
       </c>
       <c r="X245">
         <f t="shared" si="32"/>
-        <v>106.73663588217246</v>
+        <v>103.21481070105884</v>
       </c>
       <c r="Y245">
         <f t="shared" si="26"/>
@@ -13017,11 +13161,11 @@
       </c>
       <c r="W246">
         <f t="shared" si="31"/>
-        <v>107.26025451978259</v>
+        <v>103.73842933866896</v>
       </c>
       <c r="X246">
         <f t="shared" si="32"/>
-        <v>106.79089979105487</v>
+        <v>103.26907460994124</v>
       </c>
       <c r="Y246">
         <f t="shared" si="26"/>
@@ -13058,11 +13202,11 @@
       </c>
       <c r="W247">
         <f t="shared" si="31"/>
-        <v>107.31438379606294</v>
+        <v>103.79255861494931</v>
       </c>
       <c r="X247">
         <f t="shared" si="32"/>
-        <v>106.84502906733522</v>
+        <v>103.32320388622159</v>
       </c>
       <c r="Y247">
         <f t="shared" si="26"/>
@@ -13099,11 +13243,11 @@
       </c>
       <c r="W248">
         <f t="shared" si="31"/>
-        <v>107.36837949362084</v>
+        <v>103.84655431250721</v>
       </c>
       <c r="X248">
         <f t="shared" si="32"/>
-        <v>106.89902476489308</v>
+        <v>103.37719958377946</v>
       </c>
       <c r="Y248">
         <f t="shared" si="26"/>
@@ -13140,11 +13284,11 @@
       </c>
       <c r="W249">
         <f t="shared" si="31"/>
-        <v>107.42224265400972</v>
+        <v>103.90041747289609</v>
       </c>
       <c r="X249">
         <f t="shared" si="32"/>
-        <v>106.952887925282</v>
+        <v>103.43106274416837</v>
       </c>
       <c r="Y249">
         <f t="shared" si="26"/>
@@ -13181,11 +13325,11 @@
       </c>
       <c r="W250">
         <f t="shared" si="31"/>
-        <v>107.47597430664845</v>
+        <v>103.95414912553483</v>
       </c>
       <c r="X250">
         <f t="shared" si="32"/>
-        <v>107.0066195779207</v>
+        <v>103.48479439680708</v>
       </c>
       <c r="Y250">
         <f t="shared" si="26"/>
@@ -13222,11 +13366,11 @@
       </c>
       <c r="W251">
         <f t="shared" si="31"/>
-        <v>107.52957546900888</v>
+        <v>104.00775028789525</v>
       </c>
       <c r="X251">
         <f t="shared" si="32"/>
-        <v>107.06022074028112</v>
+        <v>103.5383955591675</v>
       </c>
       <c r="Y251">
         <f t="shared" si="26"/>
@@ -13263,11 +13407,11 @@
       </c>
       <c r="W252">
         <f t="shared" si="31"/>
-        <v>107.5830471468002</v>
+        <v>104.06122196568657</v>
       </c>
       <c r="X252">
         <f t="shared" si="32"/>
-        <v>107.11369241807245</v>
+        <v>103.59186723695882</v>
       </c>
       <c r="Y252">
         <f t="shared" si="26"/>
@@ -13304,11 +13448,11 @@
       </c>
       <c r="W253">
         <f t="shared" si="31"/>
-        <v>107.63639033414944</v>
+        <v>104.11456515303581</v>
       </c>
       <c r="X253">
         <f t="shared" si="32"/>
-        <v>107.16703560542172</v>
+        <v>103.64521042430809</v>
       </c>
       <c r="Y253">
         <f t="shared" si="26"/>
@@ -13345,11 +13489,11 @@
       </c>
       <c r="W254">
         <f t="shared" si="31"/>
-        <v>107.68960601377876</v>
+        <v>104.16778083266513</v>
       </c>
       <c r="X254">
         <f t="shared" si="32"/>
-        <v>107.22025128505101</v>
+        <v>103.69842610393738</v>
       </c>
       <c r="Y254">
         <f t="shared" si="26"/>
@@ -13386,11 +13530,11 @@
       </c>
       <c r="W255">
         <f t="shared" si="31"/>
-        <v>107.74269515717899</v>
+        <v>104.22086997606536</v>
       </c>
       <c r="X255">
         <f t="shared" si="32"/>
-        <v>107.27334042845126</v>
+        <v>103.75151524733764</v>
       </c>
       <c r="Y255">
         <f t="shared" si="26"/>
@@ -13427,11 +13571,11 @@
       </c>
       <c r="W256">
         <f t="shared" si="31"/>
-        <v>107.79565872478045</v>
+        <v>104.27383354366683</v>
       </c>
       <c r="X256">
         <f t="shared" si="32"/>
-        <v>107.3263039960527</v>
+        <v>103.80447881493907</v>
       </c>
       <c r="Y256">
         <f t="shared" si="26"/>
@@ -13468,11 +13612,11 @@
       </c>
       <c r="W257">
         <f t="shared" si="31"/>
-        <v>107.84849766611998</v>
+        <v>104.32667248500636</v>
       </c>
       <c r="X257">
         <f t="shared" si="32"/>
-        <v>107.37914293739226</v>
+        <v>103.85731775627863</v>
       </c>
       <c r="Y257">
         <f t="shared" si="26"/>
@@ -13509,11 +13653,11 @@
       </c>
       <c r="W258">
         <f t="shared" si="31"/>
-        <v>107.90121292000518</v>
+        <v>104.37938773889155</v>
       </c>
       <c r="X258">
         <f t="shared" si="32"/>
-        <v>107.43185819127743</v>
+        <v>103.9100330101638</v>
       </c>
       <c r="Y258">
         <f t="shared" ref="Y258:Y290" si="35">Y257+0.02</f>
@@ -13550,11 +13694,11 @@
       </c>
       <c r="W259">
         <f t="shared" ref="W259:W322" si="40">S259+Y259+$D$48+$D$49</f>
-        <v>107.95380541467534</v>
+        <v>104.43198023356172</v>
       </c>
       <c r="X259">
         <f t="shared" ref="X259:X322" si="41">$T259+$Y259+$D$48+$D$49</f>
-        <v>107.48445068594759</v>
+        <v>103.96262550483397</v>
       </c>
       <c r="Y259">
         <f t="shared" si="35"/>
@@ -13591,11 +13735,11 @@
       </c>
       <c r="W260">
         <f t="shared" si="40"/>
-        <v>108.00627606795962</v>
+        <v>104.48445088684599</v>
       </c>
       <c r="X260">
         <f t="shared" si="41"/>
-        <v>107.53692133923187</v>
+        <v>104.01509615811824</v>
       </c>
       <c r="Y260">
         <f t="shared" si="35"/>
@@ -13632,11 +13776,11 @@
       </c>
       <c r="W261">
         <f t="shared" si="40"/>
-        <v>108.05862578743199</v>
+        <v>104.53680060631837</v>
       </c>
       <c r="X261">
         <f t="shared" si="41"/>
-        <v>107.58927105870424</v>
+        <v>104.06744587759061</v>
       </c>
       <c r="Y261">
         <f t="shared" si="35"/>
@@ -13673,11 +13817,11 @@
       </c>
       <c r="W262">
         <f t="shared" si="40"/>
-        <v>108.11085547056359</v>
+        <v>104.58903028944997</v>
       </c>
       <c r="X262">
         <f t="shared" si="41"/>
-        <v>107.64150074183584</v>
+        <v>104.11967556072221</v>
       </c>
       <c r="Y262">
         <f t="shared" si="35"/>
@@ -13714,11 +13858,11 @@
       </c>
       <c r="W263">
         <f t="shared" si="40"/>
-        <v>108.16296600487195</v>
+        <v>104.64114082375832</v>
       </c>
       <c r="X263">
         <f t="shared" si="41"/>
-        <v>107.69361127614422</v>
+        <v>104.1717860950306</v>
       </c>
       <c r="Y263">
         <f t="shared" si="35"/>
@@ -13755,11 +13899,11 @@
       </c>
       <c r="W264">
         <f t="shared" si="40"/>
-        <v>108.21495826806779</v>
+        <v>104.69313308695416</v>
       </c>
       <c r="X264">
         <f t="shared" si="41"/>
-        <v>107.74560353934007</v>
+        <v>104.22377835822644</v>
       </c>
       <c r="Y264">
         <f t="shared" si="35"/>
@@ -13796,11 +13940,11 @@
       </c>
       <c r="W265">
         <f t="shared" si="40"/>
-        <v>108.26683312819895</v>
+        <v>104.74500794708533</v>
       </c>
       <c r="X265">
         <f t="shared" si="41"/>
-        <v>107.79747839947123</v>
+        <v>104.2756532183576</v>
       </c>
       <c r="Y265">
         <f t="shared" si="35"/>
@@ -13837,11 +13981,11 @@
       </c>
       <c r="W266">
         <f t="shared" si="40"/>
-        <v>108.3185914437916</v>
+        <v>104.79676626267798</v>
       </c>
       <c r="X266">
         <f t="shared" si="41"/>
-        <v>107.84923671506385</v>
+        <v>104.32741153395023</v>
       </c>
       <c r="Y266">
         <f t="shared" si="35"/>
@@ -13878,11 +14022,11 @@
       </c>
       <c r="W267">
         <f t="shared" si="40"/>
-        <v>108.37023406398907</v>
+        <v>104.84840888287545</v>
       </c>
       <c r="X267">
         <f t="shared" si="41"/>
-        <v>107.90087933526135</v>
+        <v>104.37905415414772</v>
       </c>
       <c r="Y267">
         <f t="shared" si="35"/>
@@ -13919,11 +14063,11 @@
       </c>
       <c r="W268">
         <f t="shared" si="40"/>
-        <v>108.42176182868818</v>
+        <v>104.89993664757455</v>
       </c>
       <c r="X268">
         <f t="shared" si="41"/>
-        <v>107.95240709996045</v>
+        <v>104.43058191884683</v>
       </c>
       <c r="Y268">
         <f t="shared" si="35"/>
@@ -13960,11 +14104,11 @@
       </c>
       <c r="W269">
         <f t="shared" si="40"/>
-        <v>108.47317556867279</v>
+        <v>104.95135038755916</v>
       </c>
       <c r="X269">
         <f t="shared" si="41"/>
-        <v>108.00382083994506</v>
+        <v>104.48199565883144</v>
       </c>
       <c r="Y269">
         <f t="shared" si="35"/>
@@ -14001,11 +14145,11 @@
       </c>
       <c r="W270">
         <f t="shared" si="40"/>
-        <v>108.52447610574535</v>
+        <v>105.00265092463172</v>
       </c>
       <c r="X270">
         <f t="shared" si="41"/>
-        <v>108.05512137701763</v>
+        <v>104.533296195904</v>
       </c>
       <c r="Y270">
         <f t="shared" si="35"/>
@@ -14042,11 +14186,11 @@
       </c>
       <c r="W271">
         <f t="shared" si="40"/>
-        <v>108.57566425285577</v>
+        <v>105.05383907174215</v>
       </c>
       <c r="X271">
         <f t="shared" si="41"/>
-        <v>108.10630952412805</v>
+        <v>104.58448434301442</v>
       </c>
       <c r="Y271">
         <f t="shared" si="35"/>
@@ -14083,11 +14227,11 @@
       </c>
       <c r="W272">
         <f t="shared" si="40"/>
-        <v>108.62674081422821</v>
+        <v>105.10491563311459</v>
       </c>
       <c r="X272">
         <f t="shared" si="41"/>
-        <v>108.15738608550046</v>
+        <v>104.63556090438684</v>
       </c>
       <c r="Y272">
         <f t="shared" si="35"/>
@@ -14124,11 +14268,11 @@
       </c>
       <c r="W273">
         <f t="shared" si="40"/>
-        <v>108.67770658548542</v>
+        <v>105.1558814043718</v>
       </c>
       <c r="X273">
         <f t="shared" si="41"/>
-        <v>108.2083518567577</v>
+        <v>104.68652667564407</v>
       </c>
       <c r="Y273">
         <f t="shared" si="35"/>
@@ -14165,11 +14309,11 @@
       </c>
       <c r="W274">
         <f t="shared" si="40"/>
-        <v>108.72856235377105</v>
+        <v>105.20673717265743</v>
       </c>
       <c r="X274">
         <f t="shared" si="41"/>
-        <v>108.2592076250433</v>
+        <v>104.73738244392968</v>
       </c>
       <c r="Y274">
         <f t="shared" si="35"/>
@@ -14206,11 +14350,11 @@
       </c>
       <c r="W275">
         <f t="shared" si="40"/>
-        <v>108.77930889786964</v>
+        <v>105.25748371675601</v>
       </c>
       <c r="X275">
         <f t="shared" si="41"/>
-        <v>108.30995416914189</v>
+        <v>104.78812898802826</v>
       </c>
       <c r="Y275">
         <f t="shared" si="35"/>
@@ -14247,11 +14391,11 @@
       </c>
       <c r="W276">
         <f t="shared" si="40"/>
-        <v>108.82994698832456</v>
+        <v>105.30812180721094</v>
       </c>
       <c r="X276">
         <f t="shared" si="41"/>
-        <v>108.36059225959684</v>
+        <v>104.83876707848322</v>
       </c>
       <c r="Y276">
         <f t="shared" si="35"/>
@@ -14288,11 +14432,11 @@
       </c>
       <c r="W277">
         <f t="shared" si="40"/>
-        <v>108.88047738755404</v>
+        <v>105.35865220644041</v>
       </c>
       <c r="X277">
         <f t="shared" si="41"/>
-        <v>108.41112265882629</v>
+        <v>104.88929747771266</v>
       </c>
       <c r="Y277">
         <f t="shared" si="35"/>
@@ -14329,11 +14473,11 @@
       </c>
       <c r="W278">
         <f t="shared" si="40"/>
-        <v>108.93090084996467</v>
+        <v>105.40907566885105</v>
       </c>
       <c r="X278">
         <f t="shared" si="41"/>
-        <v>108.46154612123695</v>
+        <v>104.93972094012332</v>
       </c>
       <c r="Y278">
         <f t="shared" si="35"/>
@@ -14370,11 +14514,11 @@
       </c>
       <c r="W279">
         <f t="shared" si="40"/>
-        <v>108.98121812206367</v>
+        <v>105.45939294095004</v>
       </c>
       <c r="X279">
         <f t="shared" si="41"/>
-        <v>108.51186339333594</v>
+        <v>104.99003821222232</v>
       </c>
       <c r="Y279">
         <f t="shared" si="35"/>
@@ -14411,11 +14555,11 @@
       </c>
       <c r="W280">
         <f t="shared" si="40"/>
-        <v>109.03142994256842</v>
+        <v>105.5096047614548</v>
       </c>
       <c r="X280">
         <f t="shared" si="41"/>
-        <v>108.5620752138407</v>
+        <v>105.04025003272707</v>
       </c>
       <c r="Y280">
         <f t="shared" si="35"/>
@@ -14452,11 +14596,11 @@
       </c>
       <c r="W281">
         <f t="shared" si="40"/>
-        <v>109.08153704251478</v>
+        <v>105.55971186140115</v>
       </c>
       <c r="X281">
         <f t="shared" si="41"/>
-        <v>108.61218231378706</v>
+        <v>105.09035713267343</v>
       </c>
       <c r="Y281">
         <f t="shared" si="35"/>
@@ -14493,11 +14637,11 @@
       </c>
       <c r="W282">
         <f t="shared" si="40"/>
-        <v>109.13154014536295</v>
+        <v>105.60971496424932</v>
       </c>
       <c r="X282">
         <f t="shared" si="41"/>
-        <v>108.66218541663523</v>
+        <v>105.1403602355216</v>
       </c>
       <c r="Y282">
         <f t="shared" si="35"/>
@@ -14534,11 +14678,11 @@
       </c>
       <c r="W283">
         <f t="shared" si="40"/>
-        <v>109.18143996710197</v>
+        <v>105.65961478598834</v>
       </c>
       <c r="X283">
         <f t="shared" si="41"/>
-        <v>108.71208523837424</v>
+        <v>105.19026005726062</v>
       </c>
       <c r="Y283">
         <f t="shared" si="35"/>
@@ -14575,11 +14719,11 @@
       </c>
       <c r="W284">
         <f t="shared" si="40"/>
-        <v>109.23123721635218</v>
+        <v>105.70941203523856</v>
       </c>
       <c r="X284">
         <f t="shared" si="41"/>
-        <v>108.76188248762446</v>
+        <v>105.24005730651083</v>
       </c>
       <c r="Y284">
         <f t="shared" si="35"/>
@@ -14616,11 +14760,11 @@
       </c>
       <c r="W285">
         <f t="shared" si="40"/>
-        <v>109.28093259446601</v>
+        <v>105.75910741335238</v>
       </c>
       <c r="X285">
         <f t="shared" si="41"/>
-        <v>108.81157786573829</v>
+        <v>105.28975268462466</v>
       </c>
       <c r="Y285">
         <f t="shared" si="35"/>
@@ -14657,11 +14801,11 @@
       </c>
       <c r="W286">
         <f t="shared" si="40"/>
-        <v>109.33052679562698</v>
+        <v>105.80870161451335</v>
       </c>
       <c r="X286">
         <f t="shared" si="41"/>
-        <v>108.86117206689923</v>
+        <v>105.3393468857856</v>
       </c>
       <c r="Y286">
         <f t="shared" si="35"/>
@@ -14698,11 +14842,11 @@
       </c>
       <c r="W287">
         <f t="shared" si="40"/>
-        <v>109.38002050694709</v>
+        <v>105.85819532583346</v>
       </c>
       <c r="X287">
         <f t="shared" si="41"/>
-        <v>108.91066577821934</v>
+        <v>105.38884059710571</v>
       </c>
       <c r="Y287">
         <f t="shared" si="35"/>
@@ -14739,11 +14883,11 @@
       </c>
       <c r="W288">
         <f t="shared" si="40"/>
-        <v>109.42941440856259</v>
+        <v>105.90758922744897</v>
       </c>
       <c r="X288">
         <f t="shared" si="41"/>
-        <v>108.96005967983484</v>
+        <v>105.43823449872122</v>
       </c>
       <c r="Y288">
         <f t="shared" si="35"/>
@@ -14780,11 +14924,11 @@
       </c>
       <c r="W289">
         <f t="shared" si="40"/>
-        <v>109.47870917372808</v>
+        <v>105.95688399261445</v>
       </c>
       <c r="X289">
         <f t="shared" si="41"/>
-        <v>109.00935444500033</v>
+        <v>105.4875292638867</v>
       </c>
       <c r="Y289">
         <f t="shared" si="35"/>
@@ -14821,11 +14965,11 @@
       </c>
       <c r="W290">
         <f t="shared" si="40"/>
-        <v>109.52790546890893</v>
+        <v>106.0060802877953</v>
       </c>
       <c r="X290">
         <f t="shared" si="41"/>
-        <v>109.0585507401812</v>
+        <v>105.53672555906758</v>
       </c>
       <c r="Y290">
         <f t="shared" si="35"/>
@@ -14862,11 +15006,11 @@
       </c>
       <c r="W291">
         <f t="shared" si="40"/>
-        <v>109.57700395387241</v>
+        <v>106.05517877275878</v>
       </c>
       <c r="X291">
         <f t="shared" si="41"/>
-        <v>109.10764922514468</v>
+        <v>105.58582404403106</v>
       </c>
       <c r="Y291">
         <f>Y290+0.02</f>
@@ -14903,11 +15047,11 @@
       </c>
       <c r="W292">
         <f t="shared" si="40"/>
-        <v>109.62600528177705</v>
+        <v>106.10418010066343</v>
       </c>
       <c r="X292">
         <f t="shared" si="41"/>
-        <v>109.15665055304933</v>
+        <v>105.6348253719357</v>
       </c>
       <c r="Y292">
         <f t="shared" ref="Y292" si="44">Y291+0.02</f>
@@ -14944,11 +15088,11 @@
       </c>
       <c r="W293">
         <f t="shared" si="40"/>
-        <v>109.66491009926068</v>
+        <v>106.14308491814705</v>
       </c>
       <c r="X293">
         <f t="shared" si="41"/>
-        <v>109.19555537053296</v>
+        <v>105.67373018941933</v>
       </c>
       <c r="Y293">
         <f>Y292+0.01</f>
@@ -14985,11 +15129,11 @@
       </c>
       <c r="W294">
         <f t="shared" si="40"/>
-        <v>109.70371904652683</v>
+        <v>106.1818938654132</v>
       </c>
       <c r="X294">
         <f t="shared" si="41"/>
-        <v>109.23436431779911</v>
+        <v>105.71253913668548</v>
       </c>
       <c r="Y294">
         <f t="shared" ref="Y294:Y357" si="45">Y293+0.01</f>
@@ -15026,11 +15170,11 @@
       </c>
       <c r="W295">
         <f t="shared" si="40"/>
-        <v>109.74243275742992</v>
+        <v>106.2206075763163</v>
       </c>
       <c r="X295">
         <f t="shared" si="41"/>
-        <v>109.27307802870217</v>
+        <v>105.75125284758855</v>
       </c>
       <c r="Y295">
         <f t="shared" si="45"/>
@@ -15067,11 +15211,11 @@
       </c>
       <c r="W296">
         <f t="shared" si="40"/>
-        <v>109.78105185955889</v>
+        <v>106.25922667844526</v>
       </c>
       <c r="X296">
         <f t="shared" si="41"/>
-        <v>109.31169713083116</v>
+        <v>105.78987194971754</v>
       </c>
       <c r="Y296">
         <f t="shared" si="45"/>
@@ -15108,11 +15252,11 @@
       </c>
       <c r="W297">
         <f t="shared" si="40"/>
-        <v>109.81957697431955</v>
+        <v>106.29775179320592</v>
       </c>
       <c r="X297">
         <f t="shared" si="41"/>
-        <v>109.35022224559179</v>
+        <v>105.82839706447817</v>
       </c>
       <c r="Y297">
         <f t="shared" si="45"/>
@@ -15149,11 +15293,11 @@
       </c>
       <c r="W298">
         <f t="shared" si="40"/>
-        <v>109.85800871701542</v>
+        <v>106.3361835359018</v>
       </c>
       <c r="X298">
         <f t="shared" si="41"/>
-        <v>109.3886539882877</v>
+        <v>105.86682880717407</v>
       </c>
       <c r="Y298">
         <f t="shared" si="45"/>
@@ -15190,11 +15334,11 @@
       </c>
       <c r="W299">
         <f t="shared" si="40"/>
-        <v>109.89634769692753</v>
+        <v>106.37452251581391</v>
       </c>
       <c r="X299">
         <f t="shared" si="41"/>
-        <v>109.42699296819978</v>
+        <v>105.90516778708616</v>
       </c>
       <c r="Y299">
         <f t="shared" si="45"/>
@@ -15231,11 +15375,11 @@
       </c>
       <c r="W300">
         <f t="shared" si="40"/>
-        <v>109.93459451739272</v>
+        <v>106.4127693362791</v>
       </c>
       <c r="X300">
         <f t="shared" si="41"/>
-        <v>109.46523978866497</v>
+        <v>105.94341460755135</v>
       </c>
       <c r="Y300">
         <f t="shared" si="45"/>
@@ -15272,11 +15416,11 @@
       </c>
       <c r="W301">
         <f t="shared" si="40"/>
-        <v>109.97274977588049</v>
+        <v>106.45092459476686</v>
       </c>
       <c r="X301">
         <f t="shared" si="41"/>
-        <v>109.50339504715276</v>
+        <v>105.98156986603914</v>
       </c>
       <c r="Y301">
         <f t="shared" si="45"/>
@@ -15313,11 +15457,11 @@
       </c>
       <c r="W302">
         <f t="shared" si="40"/>
-        <v>110.01081406406928</v>
+        <v>106.48898888295565</v>
       </c>
       <c r="X302">
         <f t="shared" si="41"/>
-        <v>109.54145933534156</v>
+        <v>106.01963415422793</v>
       </c>
       <c r="Y302">
         <f t="shared" si="45"/>
@@ -15354,11 +15498,11 @@
       </c>
       <c r="W303">
         <f t="shared" si="40"/>
-        <v>110.04878796792056</v>
+        <v>106.52696278680693</v>
       </c>
       <c r="X303">
         <f t="shared" si="41"/>
-        <v>109.57943323919284</v>
+        <v>106.05760805807921</v>
       </c>
       <c r="Y303">
         <f t="shared" si="45"/>
@@ -15395,11 +15539,11 @@
       </c>
       <c r="W304">
         <f t="shared" si="40"/>
-        <v>110.08667206775266</v>
+        <v>106.56484688663903</v>
       </c>
       <c r="X304">
         <f t="shared" si="41"/>
-        <v>109.61731733902494</v>
+        <v>106.09549215791131</v>
       </c>
       <c r="Y304">
         <f t="shared" si="45"/>
@@ -15436,11 +15580,11 @@
       </c>
       <c r="W305">
         <f t="shared" si="40"/>
-        <v>110.12446693831279</v>
+        <v>106.60264175719917</v>
       </c>
       <c r="X305">
         <f t="shared" si="41"/>
-        <v>109.65511220958504</v>
+        <v>106.13328702847141</v>
       </c>
       <c r="Y305">
         <f t="shared" si="45"/>
@@ -15477,11 +15621,11 @@
       </c>
       <c r="W306">
         <f t="shared" si="40"/>
-        <v>110.16217314884813</v>
+        <v>106.6403479677345</v>
       </c>
       <c r="X306">
         <f t="shared" si="41"/>
-        <v>109.69281842012037</v>
+        <v>106.17099323900675</v>
       </c>
       <c r="Y306">
         <f t="shared" si="45"/>
@@ -15518,11 +15662,11 @@
       </c>
       <c r="W307">
         <f t="shared" si="40"/>
-        <v>110.19979126317583</v>
+        <v>106.6779660820622</v>
       </c>
       <c r="X307">
         <f t="shared" si="41"/>
-        <v>109.73043653444807</v>
+        <v>106.20861135333445</v>
       </c>
       <c r="Y307">
         <f t="shared" si="45"/>
@@ -15559,11 +15703,11 @@
       </c>
       <c r="W308">
         <f t="shared" si="40"/>
-        <v>110.2373218397519</v>
+        <v>106.71549665863827</v>
       </c>
       <c r="X308">
         <f t="shared" si="41"/>
-        <v>109.76796711102415</v>
+        <v>106.24614192991052</v>
       </c>
       <c r="Y308">
         <f t="shared" si="45"/>
@@ -15600,11 +15744,11 @@
       </c>
       <c r="W309">
         <f t="shared" si="40"/>
-        <v>110.27476543173884</v>
+        <v>106.75294025062522</v>
       </c>
       <c r="X309">
         <f t="shared" si="41"/>
-        <v>109.80541070301112</v>
+        <v>106.28358552189749</v>
       </c>
       <c r="Y309">
         <f t="shared" si="45"/>
@@ -15641,11 +15785,11 @@
       </c>
       <c r="W310">
         <f t="shared" si="40"/>
-        <v>110.31212258707248</v>
+        <v>106.79029740595885</v>
       </c>
       <c r="X310">
         <f t="shared" si="41"/>
-        <v>109.84276785834473</v>
+        <v>106.3209426772311</v>
       </c>
       <c r="Y310">
         <f t="shared" si="45"/>
@@ -15682,11 +15826,11 @@
       </c>
       <c r="W311">
         <f t="shared" si="40"/>
-        <v>110.34939384852743</v>
+        <v>106.8275686674138</v>
       </c>
       <c r="X311">
         <f t="shared" si="41"/>
-        <v>109.8800391197997</v>
+        <v>106.35821393868608</v>
       </c>
       <c r="Y311">
         <f t="shared" si="45"/>
@@ -15723,11 +15867,11 @@
       </c>
       <c r="W312">
         <f t="shared" si="40"/>
-        <v>110.38657975378194</v>
+        <v>106.86475457266832</v>
       </c>
       <c r="X312">
         <f t="shared" si="41"/>
-        <v>109.91722502505419</v>
+        <v>106.39539984394057</v>
       </c>
       <c r="Y312">
         <f t="shared" si="45"/>
@@ -15764,11 +15908,11 @@
       </c>
       <c r="W313">
         <f t="shared" si="40"/>
-        <v>110.42368083548126</v>
+        <v>106.90185565436764</v>
       </c>
       <c r="X313">
         <f t="shared" si="41"/>
-        <v>109.95432610675354</v>
+        <v>106.43250092563991</v>
       </c>
       <c r="Y313">
         <f t="shared" si="45"/>
@@ -15805,11 +15949,11 @@
       </c>
       <c r="W314">
         <f t="shared" si="40"/>
-        <v>110.46069762130045</v>
+        <v>106.93887244018683</v>
       </c>
       <c r="X314">
         <f t="shared" si="41"/>
-        <v>109.9913428925727</v>
+        <v>106.46951771145908</v>
       </c>
       <c r="Y314">
         <f t="shared" si="45"/>
@@ -15846,11 +15990,11 @@
       </c>
       <c r="W315">
         <f t="shared" si="40"/>
-        <v>110.49763063400587</v>
+        <v>106.97580545289225</v>
       </c>
       <c r="X315">
         <f t="shared" si="41"/>
-        <v>110.02827590527815</v>
+        <v>106.50645072416452</v>
       </c>
       <c r="Y315">
         <f t="shared" si="45"/>
@@ -15887,11 +16031,11 @@
       </c>
       <c r="W316">
         <f t="shared" si="40"/>
-        <v>110.53448039151607</v>
+        <v>107.01265521040244</v>
       </c>
       <c r="X316">
         <f t="shared" si="41"/>
-        <v>110.06512566278835</v>
+        <v>106.54330048167472</v>
       </c>
       <c r="Y316">
         <f t="shared" si="45"/>
@@ -15928,11 +16072,11 @@
       </c>
       <c r="W317">
         <f t="shared" si="40"/>
-        <v>110.57124740696131</v>
+        <v>107.04942222584768</v>
       </c>
       <c r="X317">
         <f t="shared" si="41"/>
-        <v>110.10189267823358</v>
+        <v>106.58006749711996</v>
       </c>
       <c r="Y317">
         <f t="shared" si="45"/>
@@ -15969,11 +16113,11 @@
       </c>
       <c r="W318">
         <f t="shared" si="40"/>
-        <v>110.60793218874261</v>
+        <v>107.08610700762898</v>
       </c>
       <c r="X318">
         <f t="shared" si="41"/>
-        <v>110.13857746001489</v>
+        <v>106.61675227890126</v>
       </c>
       <c r="Y318">
         <f t="shared" si="45"/>
@@ -16010,11 +16154,11 @@
       </c>
       <c r="W319">
         <f t="shared" si="40"/>
-        <v>110.64453524058956</v>
+        <v>107.12271005947593</v>
       </c>
       <c r="X319">
         <f t="shared" si="41"/>
-        <v>110.17518051186181</v>
+        <v>106.65335533074818</v>
       </c>
       <c r="Y319">
         <f t="shared" si="45"/>
@@ -16051,11 +16195,11 @@
       </c>
       <c r="W320">
         <f t="shared" si="40"/>
-        <v>110.68105706161742</v>
+        <v>107.1592318805038</v>
       </c>
       <c r="X320">
         <f t="shared" si="41"/>
-        <v>110.21170233288967</v>
+        <v>106.68987715177605</v>
       </c>
       <c r="Y320">
         <f t="shared" si="45"/>
@@ -16092,11 +16236,11 @@
       </c>
       <c r="W321">
         <f t="shared" si="40"/>
-        <v>110.71749814638332</v>
+        <v>107.19567296526969</v>
       </c>
       <c r="X321">
         <f t="shared" si="41"/>
-        <v>110.2481434176556</v>
+        <v>106.72631823654197</v>
       </c>
       <c r="Y321">
         <f t="shared" si="45"/>
@@ -16133,11 +16277,11 @@
       </c>
       <c r="W322">
         <f t="shared" si="40"/>
-        <v>110.75385898494159</v>
+        <v>107.23203380382796</v>
       </c>
       <c r="X322">
         <f t="shared" si="41"/>
-        <v>110.28450425621386</v>
+        <v>106.76267907510024</v>
       </c>
       <c r="Y322">
         <f t="shared" si="45"/>
@@ -16174,11 +16318,11 @@
       </c>
       <c r="W323">
         <f t="shared" ref="W323:W386" si="50">S323+Y323+$D$48+$D$49</f>
-        <v>110.79014006289822</v>
+        <v>107.26831488178459</v>
       </c>
       <c r="X323">
         <f t="shared" ref="X323:X386" si="51">$T323+$Y323+$D$48+$D$49</f>
-        <v>110.32078533417047</v>
+        <v>106.79896015305684</v>
       </c>
       <c r="Y323">
         <f t="shared" si="45"/>
@@ -16215,11 +16359,11 @@
       </c>
       <c r="W324">
         <f t="shared" si="50"/>
-        <v>110.82634186146456</v>
+        <v>107.30451668035093</v>
       </c>
       <c r="X324">
         <f t="shared" si="51"/>
-        <v>110.35698713273683</v>
+        <v>106.83516195162321</v>
       </c>
       <c r="Y324">
         <f t="shared" si="45"/>
@@ -16256,11 +16400,11 @@
       </c>
       <c r="W325">
         <f t="shared" si="50"/>
-        <v>110.86246485751025</v>
+        <v>107.34063967639662</v>
       </c>
       <c r="X325">
         <f t="shared" si="51"/>
-        <v>110.3931101287825</v>
+        <v>106.87128494766887</v>
       </c>
       <c r="Y325">
         <f t="shared" si="45"/>
@@ -16297,11 +16441,11 @@
       </c>
       <c r="W326">
         <f t="shared" si="50"/>
-        <v>110.89850952361513</v>
+        <v>107.37668434250151</v>
       </c>
       <c r="X326">
         <f t="shared" si="51"/>
-        <v>110.42915479488741</v>
+        <v>106.90732961377378</v>
       </c>
       <c r="Y326">
         <f t="shared" si="45"/>
@@ -16338,11 +16482,11 @@
       </c>
       <c r="W327">
         <f t="shared" si="50"/>
-        <v>110.93447632812075</v>
+        <v>107.41265114700713</v>
       </c>
       <c r="X327">
         <f t="shared" si="51"/>
-        <v>110.465121599393</v>
+        <v>106.94329641827937</v>
       </c>
       <c r="Y327">
         <f t="shared" si="45"/>
@@ -16379,11 +16523,11 @@
       </c>
       <c r="W328">
         <f t="shared" si="50"/>
-        <v>110.97036573518074</v>
+        <v>107.44854055406711</v>
       </c>
       <c r="X328">
         <f t="shared" si="51"/>
-        <v>110.50101100645298</v>
+        <v>106.97918582533936</v>
       </c>
       <c r="Y328">
         <f t="shared" si="45"/>
@@ -16420,11 +16564,11 @@
       </c>
       <c r="W329">
         <f t="shared" si="50"/>
-        <v>111.00617820481062</v>
+        <v>107.484353023697</v>
       </c>
       <c r="X329">
         <f t="shared" si="51"/>
-        <v>110.5368234760829</v>
+        <v>107.01499829496927</v>
       </c>
       <c r="Y329">
         <f t="shared" si="45"/>
@@ -16461,11 +16605,11 @@
       </c>
       <c r="W330">
         <f t="shared" si="50"/>
-        <v>111.04191419293696</v>
+        <v>107.52008901182333</v>
       </c>
       <c r="X330">
         <f t="shared" si="51"/>
-        <v>110.57255946420921</v>
+        <v>107.05073428309558</v>
       </c>
       <c r="Y330">
         <f t="shared" si="45"/>
@@ -16502,11 +16646,11 @@
       </c>
       <c r="W331">
         <f t="shared" si="50"/>
-        <v>111.0775741514455</v>
+        <v>107.55574897033188</v>
       </c>
       <c r="X331">
         <f t="shared" si="51"/>
-        <v>110.60821942271775</v>
+        <v>107.08639424160413</v>
       </c>
       <c r="Y331">
         <f t="shared" si="45"/>
@@ -16543,11 +16687,11 @@
       </c>
       <c r="W332">
         <f t="shared" si="50"/>
-        <v>111.11315852822895</v>
+        <v>107.59133334711532</v>
       </c>
       <c r="X332">
         <f t="shared" si="51"/>
-        <v>110.64380379950123</v>
+        <v>107.1219786183876</v>
       </c>
       <c r="Y332">
         <f t="shared" si="45"/>
@@ -16584,11 +16728,11 @@
       </c>
       <c r="W333">
         <f t="shared" si="50"/>
-        <v>111.1486677672338</v>
+        <v>107.62684258612018</v>
       </c>
       <c r="X333">
         <f t="shared" si="51"/>
-        <v>110.67931303850608</v>
+        <v>107.15748785739245</v>
       </c>
       <c r="Y333">
         <f t="shared" si="45"/>
@@ -16625,11 +16769,11 @@
       </c>
       <c r="W334">
         <f t="shared" si="50"/>
-        <v>111.18410230850657</v>
+        <v>107.66227712739294</v>
       </c>
       <c r="X334">
         <f t="shared" si="51"/>
-        <v>110.71474757977882</v>
+        <v>107.19292239866519</v>
       </c>
       <c r="Y334">
         <f t="shared" si="45"/>
@@ -16666,11 +16810,11 @@
       </c>
       <c r="W335">
         <f t="shared" si="50"/>
-        <v>111.21946258823925</v>
+        <v>107.69763740712563</v>
       </c>
       <c r="X335">
         <f t="shared" si="51"/>
-        <v>110.75010785951153</v>
+        <v>107.2282826783979</v>
       </c>
       <c r="Y335">
         <f t="shared" si="45"/>
@@ -16707,11 +16851,11 @@
       </c>
       <c r="W336">
         <f t="shared" si="50"/>
-        <v>111.25474903881445</v>
+        <v>107.73292385770083</v>
       </c>
       <c r="X336">
         <f t="shared" si="51"/>
-        <v>110.78539431008673</v>
+        <v>107.2635691289731</v>
       </c>
       <c r="Y336">
         <f t="shared" si="45"/>
@@ -16748,11 +16892,11 @@
       </c>
       <c r="W337">
         <f t="shared" si="50"/>
-        <v>111.28996208884934</v>
+        <v>107.76813690773571</v>
       </c>
       <c r="X337">
         <f t="shared" si="51"/>
-        <v>110.82060736012161</v>
+        <v>107.29878217900799</v>
       </c>
       <c r="Y337">
         <f t="shared" si="45"/>
@@ -16789,11 +16933,11 @@
       </c>
       <c r="W338">
         <f t="shared" si="50"/>
-        <v>111.32510216323939</v>
+        <v>107.80327698212577</v>
       </c>
       <c r="X338">
         <f t="shared" si="51"/>
-        <v>110.85574743451167</v>
+        <v>107.33392225339804</v>
       </c>
       <c r="Y338">
         <f t="shared" si="45"/>
@@ -16830,11 +16974,11 @@
       </c>
       <c r="W339">
         <f t="shared" si="50"/>
-        <v>111.36016968320132</v>
+        <v>107.83834450208769</v>
       </c>
       <c r="X339">
         <f t="shared" si="51"/>
-        <v>110.89081495447363</v>
+        <v>107.36898977336</v>
       </c>
       <c r="Y339">
         <f t="shared" si="45"/>
@@ -16871,11 +17015,11 @@
       </c>
       <c r="W340">
         <f t="shared" si="50"/>
-        <v>111.39516506631549</v>
+        <v>107.87333988520186</v>
       </c>
       <c r="X340">
         <f t="shared" si="51"/>
-        <v>110.92581033758776</v>
+        <v>107.40398515647414</v>
       </c>
       <c r="Y340">
         <f t="shared" si="45"/>
@@ -16912,11 +17056,11 @@
       </c>
       <c r="W341">
         <f t="shared" si="50"/>
-        <v>111.43008872656748</v>
+        <v>107.90826354545385</v>
       </c>
       <c r="X341">
         <f t="shared" si="51"/>
-        <v>110.96073399783972</v>
+        <v>107.4389088167261</v>
       </c>
       <c r="Y341">
         <f t="shared" si="45"/>
@@ -16953,11 +17097,11 @@
       </c>
       <c r="W342">
         <f t="shared" si="50"/>
-        <v>111.4649410743894</v>
+        <v>107.94311589327577</v>
       </c>
       <c r="X342">
         <f t="shared" si="51"/>
-        <v>110.99558634566165</v>
+        <v>107.47376116454802</v>
       </c>
       <c r="Y342">
         <f t="shared" si="45"/>
@@ -16994,11 +17138,11 @@
       </c>
       <c r="W343">
         <f t="shared" si="50"/>
-        <v>111.49972251670036</v>
+        <v>107.97789733558673</v>
       </c>
       <c r="X343">
         <f t="shared" si="51"/>
-        <v>111.03036778797264</v>
+        <v>107.50854260685901</v>
       </c>
       <c r="Y343">
         <f t="shared" si="45"/>
@@ -17035,11 +17179,11 @@
       </c>
       <c r="W344">
         <f t="shared" si="50"/>
-        <v>111.53443345694649</v>
+        <v>108.01260827583286</v>
       </c>
       <c r="X344">
         <f t="shared" si="51"/>
-        <v>111.06507872821877</v>
+        <v>107.54325354710514</v>
       </c>
       <c r="Y344">
         <f t="shared" si="45"/>
@@ -17076,11 +17220,11 @@
       </c>
       <c r="W345">
         <f t="shared" si="50"/>
-        <v>111.56907429514033</v>
+        <v>108.0472491140267</v>
       </c>
       <c r="X345">
         <f t="shared" si="51"/>
-        <v>111.0997195664126</v>
+        <v>107.57789438529898</v>
       </c>
       <c r="Y345">
         <f t="shared" si="45"/>
@@ -17117,11 +17261,11 @@
       </c>
       <c r="W346">
         <f t="shared" si="50"/>
-        <v>111.60364542789961</v>
+        <v>108.08182024678598</v>
       </c>
       <c r="X346">
         <f t="shared" si="51"/>
-        <v>111.13429069917188</v>
+        <v>107.61246551805826</v>
       </c>
       <c r="Y346">
         <f t="shared" si="45"/>
@@ -17158,11 +17302,11 @@
       </c>
       <c r="W347">
         <f t="shared" si="50"/>
-        <v>111.63814724848578</v>
+        <v>108.11632206737215</v>
       </c>
       <c r="X347">
         <f t="shared" si="51"/>
-        <v>111.16879251975803</v>
+        <v>107.6469673386444</v>
       </c>
       <c r="Y347">
         <f t="shared" si="45"/>
@@ -17199,11 +17343,11 @@
       </c>
       <c r="W348">
         <f t="shared" si="50"/>
-        <v>111.67258014684137</v>
+        <v>108.15075496572774</v>
       </c>
       <c r="X348">
         <f t="shared" si="51"/>
-        <v>111.20322541811362</v>
+        <v>107.68140023699999</v>
       </c>
       <c r="Y348">
         <f t="shared" si="45"/>
@@ -17240,11 +17384,11 @@
       </c>
       <c r="W349">
         <f t="shared" si="50"/>
-        <v>111.70694450962773</v>
+        <v>108.18511932851411</v>
       </c>
       <c r="X349">
         <f t="shared" si="51"/>
-        <v>111.23758978090001</v>
+        <v>107.71576459978638</v>
       </c>
       <c r="Y349">
         <f t="shared" si="45"/>
@@ -17281,11 +17425,11 @@
       </c>
       <c r="W350">
         <f t="shared" si="50"/>
-        <v>111.74124072026135</v>
+        <v>108.21941553914772</v>
       </c>
       <c r="X350">
         <f t="shared" si="51"/>
-        <v>111.27188599153362</v>
+        <v>107.75006081042</v>
       </c>
       <c r="Y350">
         <f t="shared" si="45"/>
@@ -17322,11 +17466,11 @@
       </c>
       <c r="W351">
         <f t="shared" si="50"/>
-        <v>111.77546915895024</v>
+        <v>108.25364397783662</v>
       </c>
       <c r="X351">
         <f t="shared" si="51"/>
-        <v>111.30611443022252</v>
+        <v>107.78428924910889</v>
       </c>
       <c r="Y351">
         <f t="shared" si="45"/>
@@ -17363,11 +17507,11 @@
       </c>
       <c r="W352">
         <f t="shared" si="50"/>
-        <v>111.80963020272961</v>
+        <v>108.28780502161598</v>
       </c>
       <c r="X352">
         <f t="shared" si="51"/>
-        <v>111.34027547400186</v>
+        <v>107.81845029288823</v>
       </c>
       <c r="Y352">
         <f t="shared" si="45"/>
@@ -17404,11 +17548,11 @@
       </c>
       <c r="W353">
         <f t="shared" si="50"/>
-        <v>111.84372422549703</v>
+        <v>108.3218990443834</v>
       </c>
       <c r="X353">
         <f t="shared" si="51"/>
-        <v>111.37436949676928</v>
+        <v>107.85254431565565</v>
       </c>
       <c r="Y353">
         <f t="shared" si="45"/>
@@ -17445,11 +17589,11 @@
       </c>
       <c r="W354">
         <f t="shared" si="50"/>
-        <v>111.87775159804718</v>
+        <v>108.35592641693356</v>
       </c>
       <c r="X354">
         <f t="shared" si="51"/>
-        <v>111.40839686931946</v>
+        <v>107.88657168820583</v>
       </c>
       <c r="Y354">
         <f t="shared" si="45"/>
@@ -17486,11 +17630,11 @@
       </c>
       <c r="W355">
         <f t="shared" si="50"/>
-        <v>111.91171268810612</v>
+        <v>108.38988750699249</v>
       </c>
       <c r="X355">
         <f t="shared" si="51"/>
-        <v>111.4423579593784</v>
+        <v>107.92053277826477</v>
       </c>
       <c r="Y355">
         <f t="shared" si="45"/>
@@ -17527,11 +17671,11 @@
       </c>
       <c r="W356">
         <f t="shared" si="50"/>
-        <v>111.94560786036499</v>
+        <v>108.42378267925136</v>
       </c>
       <c r="X356">
         <f t="shared" si="51"/>
-        <v>111.47625313163726</v>
+        <v>107.95442795052364</v>
       </c>
       <c r="Y356">
         <f t="shared" si="45"/>
@@ -17568,11 +17712,11 @@
       </c>
       <c r="W357">
         <f t="shared" si="50"/>
-        <v>111.97943747651337</v>
+        <v>108.45761229539974</v>
       </c>
       <c r="X357">
         <f t="shared" si="51"/>
-        <v>111.51008274778562</v>
+        <v>107.98825756667199</v>
       </c>
       <c r="Y357">
         <f t="shared" si="45"/>
@@ -17609,11 +17753,11 @@
       </c>
       <c r="W358">
         <f t="shared" si="50"/>
-        <v>112.01320189527209</v>
+        <v>108.49137671415846</v>
       </c>
       <c r="X358">
         <f t="shared" si="51"/>
-        <v>111.54384716654437</v>
+        <v>108.02202198543074</v>
       </c>
       <c r="Y358">
         <f t="shared" ref="Y358:Y421" si="54">Y357+0.01</f>
@@ -17650,11 +17794,11 @@
       </c>
       <c r="W359">
         <f t="shared" si="50"/>
-        <v>112.04690147242565</v>
+        <v>108.52507629131202</v>
       </c>
       <c r="X359">
         <f t="shared" si="51"/>
-        <v>111.57754674369792</v>
+        <v>108.0557215625843</v>
       </c>
       <c r="Y359">
         <f t="shared" si="54"/>
@@ -17691,11 +17835,11 @@
       </c>
       <c r="W360">
         <f t="shared" si="50"/>
-        <v>112.08053656085423</v>
+        <v>108.5587113797406</v>
       </c>
       <c r="X360">
         <f t="shared" si="51"/>
-        <v>111.61118183212648</v>
+        <v>108.08935665101285</v>
       </c>
       <c r="Y360">
         <f t="shared" si="54"/>
@@ -17732,11 +17876,11 @@
       </c>
       <c r="W361">
         <f t="shared" si="50"/>
-        <v>112.11410751056508</v>
+        <v>108.59228232945145</v>
       </c>
       <c r="X361">
         <f t="shared" si="51"/>
-        <v>111.64475278183735</v>
+        <v>108.12292760072373</v>
       </c>
       <c r="Y361">
         <f t="shared" si="54"/>
@@ -17773,11 +17917,11 @@
       </c>
       <c r="W362">
         <f t="shared" si="50"/>
-        <v>112.14761466872378</v>
+        <v>108.62578948761015</v>
       </c>
       <c r="X362">
         <f t="shared" si="51"/>
-        <v>111.67825993999605</v>
+        <v>108.15643475888243</v>
       </c>
       <c r="Y362">
         <f t="shared" si="54"/>
@@ -17814,11 +17958,11 @@
       </c>
       <c r="W363">
         <f t="shared" si="50"/>
-        <v>112.1810583796848</v>
+        <v>108.65923319857117</v>
       </c>
       <c r="X363">
         <f t="shared" si="51"/>
-        <v>111.71170365095708</v>
+        <v>108.18987846984345</v>
       </c>
       <c r="Y363">
         <f t="shared" si="54"/>
@@ -17855,11 +17999,11 @@
       </c>
       <c r="W364">
         <f t="shared" si="50"/>
-        <v>112.21443898502184</v>
+        <v>108.69261380390822</v>
       </c>
       <c r="X364">
         <f t="shared" si="51"/>
-        <v>111.74508425629409</v>
+        <v>108.22325907518047</v>
       </c>
       <c r="Y364">
         <f t="shared" si="54"/>
@@ -17896,11 +18040,11 @@
       </c>
       <c r="W365">
         <f t="shared" si="50"/>
-        <v>112.24775682355764</v>
+        <v>108.72593164244401</v>
       </c>
       <c r="X365">
         <f t="shared" si="51"/>
-        <v>111.77840209482989</v>
+        <v>108.25657691371626</v>
       </c>
       <c r="Y365">
         <f t="shared" si="54"/>
@@ -17937,11 +18081,11 @@
       </c>
       <c r="W366">
         <f t="shared" si="50"/>
-        <v>112.2810122313935</v>
+        <v>108.75918705027988</v>
       </c>
       <c r="X366">
         <f t="shared" si="51"/>
-        <v>111.81165750266575</v>
+        <v>108.28983232155213</v>
       </c>
       <c r="Y366">
         <f t="shared" si="54"/>
@@ -17978,11 +18122,11 @@
       </c>
       <c r="W367">
         <f t="shared" si="50"/>
-        <v>112.31420554193826</v>
+        <v>108.79238036082464</v>
       </c>
       <c r="X367">
         <f t="shared" si="51"/>
-        <v>111.84485081321054</v>
+        <v>108.32302563209691</v>
       </c>
       <c r="Y367">
         <f t="shared" si="54"/>
@@ -18019,11 +18163,11 @@
       </c>
       <c r="W368">
         <f t="shared" si="50"/>
-        <v>112.34733708593711</v>
+        <v>108.82551190482349</v>
       </c>
       <c r="X368">
         <f t="shared" si="51"/>
-        <v>111.87798235720936</v>
+        <v>108.35615717609573</v>
       </c>
       <c r="Y368">
         <f t="shared" si="54"/>
@@ -18060,11 +18204,11 @@
       </c>
       <c r="W369">
         <f t="shared" si="50"/>
-        <v>112.38040719149976</v>
+        <v>108.85858201038613</v>
       </c>
       <c r="X369">
         <f t="shared" si="51"/>
-        <v>111.91105246277201</v>
+        <v>108.38922728165838</v>
       </c>
       <c r="Y369">
         <f t="shared" si="54"/>
@@ -18101,11 +18245,11 @@
       </c>
       <c r="W370">
         <f t="shared" si="50"/>
-        <v>112.41341618412841</v>
+        <v>108.89159100301478</v>
       </c>
       <c r="X370">
         <f t="shared" si="51"/>
-        <v>111.94406145540066</v>
+        <v>108.42223627428703</v>
       </c>
       <c r="Y370">
         <f t="shared" si="54"/>
@@ -18142,11 +18286,11 @@
       </c>
       <c r="W371">
         <f t="shared" si="50"/>
-        <v>112.44636438674536</v>
+        <v>108.92453920563173</v>
       </c>
       <c r="X371">
         <f t="shared" si="51"/>
-        <v>111.97700965801761</v>
+        <v>108.45518447690398</v>
       </c>
       <c r="Y371">
         <f t="shared" si="54"/>
@@ -18183,11 +18327,11 @@
       </c>
       <c r="W372">
         <f t="shared" si="50"/>
-        <v>112.47925211972009</v>
+        <v>108.95742693860646</v>
       </c>
       <c r="X372">
         <f t="shared" si="51"/>
-        <v>112.00989739099236</v>
+        <v>108.48807220987874</v>
       </c>
       <c r="Y372">
         <f t="shared" si="54"/>
@@ -18224,11 +18368,11 @@
       </c>
       <c r="W373">
         <f t="shared" si="50"/>
-        <v>112.51207970089629</v>
+        <v>108.99025451978267</v>
       </c>
       <c r="X373">
         <f t="shared" si="51"/>
-        <v>112.04272497216854</v>
+        <v>108.52089979105492</v>
       </c>
       <c r="Y373">
         <f t="shared" si="54"/>
@@ -18265,11 +18409,11 @@
       </c>
       <c r="W374">
         <f t="shared" si="50"/>
-        <v>112.54484744561807</v>
+        <v>109.02302226450445</v>
       </c>
       <c r="X374">
         <f t="shared" si="51"/>
-        <v>112.07549271689035</v>
+        <v>108.55366753577673</v>
       </c>
       <c r="Y374">
         <f t="shared" si="54"/>
@@ -18306,11 +18450,11 @@
       </c>
       <c r="W375">
         <f t="shared" si="50"/>
-        <v>112.57755566675635</v>
+        <v>109.05573048564273</v>
       </c>
       <c r="X375">
         <f t="shared" si="51"/>
-        <v>112.10820093802863</v>
+        <v>108.586375756915</v>
       </c>
       <c r="Y375">
         <f t="shared" si="54"/>
@@ -18347,11 +18491,11 @@
       </c>
       <c r="W376">
         <f t="shared" si="50"/>
-        <v>112.61020467473452</v>
+        <v>109.08837949362089</v>
       </c>
       <c r="X376">
         <f t="shared" si="51"/>
-        <v>112.14084994600677</v>
+        <v>108.61902476489314</v>
       </c>
       <c r="Y376">
         <f t="shared" si="54"/>
@@ -18388,11 +18532,11 @@
       </c>
       <c r="W377">
         <f t="shared" si="50"/>
-        <v>112.64279477755392</v>
+        <v>109.12096959644029</v>
       </c>
       <c r="X377">
         <f t="shared" si="51"/>
-        <v>112.17344004882619</v>
+        <v>108.65161486771257</v>
       </c>
       <c r="Y377">
         <f t="shared" si="54"/>
@@ -18429,11 +18573,11 @@
       </c>
       <c r="W378">
         <f t="shared" si="50"/>
-        <v>112.67532628081901</v>
+        <v>109.15350109970538</v>
       </c>
       <c r="X378">
         <f t="shared" si="51"/>
-        <v>112.20597155209128</v>
+        <v>108.68414637097766</v>
       </c>
       <c r="Y378">
         <f t="shared" si="54"/>
@@ -18470,11 +18614,11 @@
       </c>
       <c r="W379">
         <f t="shared" si="50"/>
-        <v>112.70779948776214</v>
+        <v>109.18597430664852</v>
       </c>
       <c r="X379">
         <f t="shared" si="51"/>
-        <v>112.23844475903439</v>
+        <v>108.71661957792077</v>
       </c>
       <c r="Y379">
         <f t="shared" si="54"/>
@@ -18511,11 +18655,11 @@
       </c>
       <c r="W380">
         <f t="shared" si="50"/>
-        <v>112.74021469926805</v>
+        <v>109.21838951815442</v>
       </c>
       <c r="X380">
         <f t="shared" si="51"/>
-        <v>112.27085997054033</v>
+        <v>108.7490347894267</v>
       </c>
       <c r="Y380">
         <f t="shared" si="54"/>
@@ -18552,11 +18696,11 @@
       </c>
       <c r="W381">
         <f t="shared" si="50"/>
-        <v>112.77257221389806</v>
+        <v>109.25074703278443</v>
       </c>
       <c r="X381">
         <f t="shared" si="51"/>
-        <v>112.30321748517034</v>
+        <v>108.78139230405671</v>
       </c>
       <c r="Y381">
         <f t="shared" si="54"/>
@@ -18593,11 +18737,11 @@
       </c>
       <c r="W382">
         <f t="shared" si="50"/>
-        <v>112.8048723279139</v>
+        <v>109.28304714680027</v>
       </c>
       <c r="X382">
         <f t="shared" si="51"/>
-        <v>112.33551759918618</v>
+        <v>108.81369241807255</v>
       </c>
       <c r="Y382">
         <f t="shared" si="54"/>
@@ -18634,11 +18778,11 @@
       </c>
       <c r="W383">
         <f t="shared" si="50"/>
-        <v>112.83711533530123</v>
+        <v>109.31529015418761</v>
       </c>
       <c r="X383">
         <f t="shared" si="51"/>
-        <v>112.36776060657351</v>
+        <v>108.84593542545988</v>
       </c>
       <c r="Y383">
         <f t="shared" si="54"/>
@@ -18675,18 +18819,18 @@
       </c>
       <c r="W384">
         <f t="shared" si="50"/>
-        <v>112.86930152779306</v>
+        <v>109.34747634667943</v>
       </c>
       <c r="X384">
         <f t="shared" si="51"/>
-        <v>112.39994679906533</v>
+        <v>108.87812161795171</v>
       </c>
       <c r="Y384">
         <f t="shared" si="54"/>
         <v>25.918000000000216</v>
       </c>
       <c r="AF384" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="385" spans="16:34" x14ac:dyDescent="0.2">
@@ -18719,11 +18863,11 @@
       </c>
       <c r="W385">
         <f t="shared" si="50"/>
-        <v>112.90143119489247</v>
+        <v>109.37960601377884</v>
       </c>
       <c r="X385">
         <f t="shared" si="51"/>
-        <v>112.43207646616472</v>
+        <v>108.91025128505109</v>
       </c>
       <c r="Y385">
         <f t="shared" si="54"/>
@@ -18760,11 +18904,11 @@
       </c>
       <c r="W386">
         <f t="shared" si="50"/>
-        <v>112.9335046238954</v>
+        <v>109.41167944278178</v>
       </c>
       <c r="X386">
         <f t="shared" si="51"/>
-        <v>112.46414989516768</v>
+        <v>108.94232471405405</v>
       </c>
       <c r="Y386">
         <f t="shared" si="54"/>
@@ -18801,11 +18945,11 @@
       </c>
       <c r="W387">
         <f t="shared" ref="W387:W450" si="59">S387+Y387+$D$48+$D$49</f>
-        <v>112.96552209991313</v>
+        <v>109.4436969187995</v>
       </c>
       <c r="X387">
         <f t="shared" ref="X387:X450" si="60">$T387+$Y387+$D$48+$D$49</f>
-        <v>112.49616737118538</v>
+        <v>108.97434219007175</v>
       </c>
       <c r="Y387">
         <f t="shared" si="54"/>
@@ -18842,18 +18986,18 @@
       </c>
       <c r="W388">
         <f t="shared" si="59"/>
-        <v>112.99748390589417</v>
+        <v>109.47565872478054</v>
       </c>
       <c r="X388">
         <f t="shared" si="60"/>
-        <v>112.52812917716642</v>
+        <v>109.00630399605279</v>
       </c>
       <c r="Y388">
         <f t="shared" si="54"/>
         <v>25.958000000000222</v>
       </c>
       <c r="AH388" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="389" spans="16:34" x14ac:dyDescent="0.2">
@@ -18886,11 +19030,11 @@
       </c>
       <c r="W389">
         <f t="shared" si="59"/>
-        <v>113.02939032264624</v>
+        <v>109.50756514153261</v>
       </c>
       <c r="X389">
         <f t="shared" si="60"/>
-        <v>112.56003559391849</v>
+        <v>109.03821041280486</v>
       </c>
       <c r="Y389">
         <f t="shared" si="54"/>
@@ -18927,11 +19071,11 @@
       </c>
       <c r="W390">
         <f t="shared" si="59"/>
-        <v>113.06124162885769</v>
+        <v>109.53941644774406</v>
       </c>
       <c r="X390">
         <f t="shared" si="60"/>
-        <v>112.59188690012996</v>
+        <v>109.07006171901634</v>
       </c>
       <c r="Y390">
         <f t="shared" si="54"/>
@@ -18968,11 +19112,11 @@
       </c>
       <c r="W391">
         <f t="shared" si="59"/>
-        <v>113.09303810111891</v>
+        <v>109.57121292000528</v>
       </c>
       <c r="X391">
         <f t="shared" si="60"/>
-        <v>112.62368337239116</v>
+        <v>109.10185819127753</v>
       </c>
       <c r="Y391">
         <f t="shared" si="54"/>
@@ -19009,11 +19153,11 @@
       </c>
       <c r="W392">
         <f t="shared" si="59"/>
-        <v>113.12478001394317</v>
+        <v>109.60295483282954</v>
       </c>
       <c r="X392">
         <f t="shared" si="60"/>
-        <v>112.65542528521544</v>
+        <v>109.13360010410182</v>
       </c>
       <c r="Y392">
         <f t="shared" si="54"/>
@@ -19050,11 +19194,11 @@
       </c>
       <c r="W393">
         <f t="shared" si="59"/>
-        <v>113.15646763978759</v>
+        <v>109.63464245867397</v>
       </c>
       <c r="X393">
         <f t="shared" si="60"/>
-        <v>112.68711291105984</v>
+        <v>109.16528772994621</v>
       </c>
       <c r="Y393">
         <f t="shared" si="54"/>
@@ -19091,11 +19235,11 @@
       </c>
       <c r="W394">
         <f t="shared" si="59"/>
-        <v>113.18810124907333</v>
+        <v>109.6662760679597</v>
       </c>
       <c r="X394">
         <f t="shared" si="60"/>
-        <v>112.7187465203456</v>
+        <v>109.19692133923198</v>
       </c>
       <c r="Y394">
         <f t="shared" si="54"/>
@@ -19132,11 +19276,11 @@
       </c>
       <c r="W395">
         <f t="shared" si="59"/>
-        <v>113.21968111020612</v>
+        <v>109.6978559290925</v>
       </c>
       <c r="X395">
         <f t="shared" si="60"/>
-        <v>112.75032638147837</v>
+        <v>109.22850120036475</v>
       </c>
       <c r="Y395">
         <f t="shared" si="54"/>
@@ -19173,11 +19317,11 @@
       </c>
       <c r="W396">
         <f t="shared" si="59"/>
-        <v>113.251207489596</v>
+        <v>109.72938230848237</v>
       </c>
       <c r="X396">
         <f t="shared" si="60"/>
-        <v>112.78185276086828</v>
+        <v>109.26002757975465</v>
       </c>
       <c r="Y396">
         <f t="shared" si="54"/>
@@ -19214,11 +19358,11 @@
       </c>
       <c r="W397">
         <f t="shared" si="59"/>
-        <v>113.28268065167728</v>
+        <v>109.76085547056365</v>
       </c>
       <c r="X397">
         <f t="shared" si="60"/>
-        <v>112.81332592294956</v>
+        <v>109.29150074183593</v>
       </c>
       <c r="Y397">
         <f t="shared" si="54"/>
@@ -19255,11 +19399,11 @@
       </c>
       <c r="W398">
         <f t="shared" si="59"/>
-        <v>113.31410085892782</v>
+        <v>109.79227567781419</v>
       </c>
       <c r="X398">
         <f t="shared" si="60"/>
-        <v>112.84474613020006</v>
+        <v>109.32292094908644</v>
       </c>
       <c r="Y398">
         <f t="shared" si="54"/>
@@ -19296,11 +19440,11 @@
       </c>
       <c r="W399">
         <f t="shared" si="59"/>
-        <v>113.34546837188833</v>
+        <v>109.8236431907747</v>
       </c>
       <c r="X399">
         <f t="shared" si="60"/>
-        <v>112.87611364316058</v>
+        <v>109.35428846204695</v>
       </c>
       <c r="Y399">
         <f t="shared" si="54"/>
@@ -19337,11 +19481,11 @@
       </c>
       <c r="W400">
         <f t="shared" si="59"/>
-        <v>113.37678344918152</v>
+        <v>109.85495826806789</v>
       </c>
       <c r="X400">
         <f t="shared" si="60"/>
-        <v>112.90742872045379</v>
+        <v>109.38560353934017</v>
       </c>
       <c r="Y400">
         <f t="shared" si="54"/>
@@ -19378,11 +19522,11 @@
       </c>
       <c r="W401">
         <f t="shared" si="59"/>
-        <v>113.40804634753076</v>
+        <v>109.88622116641713</v>
       </c>
       <c r="X401">
         <f t="shared" si="60"/>
-        <v>112.93869161880303</v>
+        <v>109.41686643768941</v>
       </c>
       <c r="Y401">
         <f t="shared" si="54"/>
@@ -19419,11 +19563,11 @@
       </c>
       <c r="W402">
         <f t="shared" si="59"/>
-        <v>113.43925732177863</v>
+        <v>109.917432140665</v>
       </c>
       <c r="X402">
         <f t="shared" si="60"/>
-        <v>112.9699025930509</v>
+        <v>109.44807741193728</v>
       </c>
       <c r="Y402">
         <f t="shared" si="54"/>
@@ -19460,11 +19604,11 @@
       </c>
       <c r="W403">
         <f t="shared" si="59"/>
-        <v>113.47041662490531</v>
+        <v>109.94859144379168</v>
       </c>
       <c r="X403">
         <f t="shared" si="60"/>
-        <v>113.00106189617759</v>
+        <v>109.47923671506396</v>
       </c>
       <c r="Y403">
         <f t="shared" si="54"/>
@@ -19501,11 +19645,11 @@
       </c>
       <c r="W404">
         <f t="shared" si="59"/>
-        <v>113.50152450804663</v>
+        <v>109.979699326933</v>
       </c>
       <c r="X404">
         <f t="shared" si="60"/>
-        <v>113.03216977931888</v>
+        <v>109.51034459820525</v>
       </c>
       <c r="Y404">
         <f t="shared" si="54"/>
@@ -19542,11 +19686,11 @@
       </c>
       <c r="W405">
         <f t="shared" si="59"/>
-        <v>113.53258122051196</v>
+        <v>110.01075603939833</v>
       </c>
       <c r="X405">
         <f t="shared" si="60"/>
-        <v>113.06322649178421</v>
+        <v>109.54140131067058</v>
       </c>
       <c r="Y405">
         <f t="shared" si="54"/>
@@ -19583,11 +19727,11 @@
       </c>
       <c r="W406">
         <f t="shared" si="59"/>
-        <v>113.56358700980192</v>
+        <v>110.04176182868829</v>
       </c>
       <c r="X406">
         <f t="shared" si="60"/>
-        <v>113.09423228107417</v>
+        <v>109.57240709996054</v>
       </c>
       <c r="Y406">
         <f t="shared" si="54"/>
@@ -19624,11 +19768,11 @@
       </c>
       <c r="W407">
         <f t="shared" si="59"/>
-        <v>113.59454212162581</v>
+        <v>110.07271694051218</v>
       </c>
       <c r="X407">
         <f t="shared" si="60"/>
-        <v>113.12518739289806</v>
+        <v>109.60336221178443</v>
       </c>
       <c r="Y407">
         <f t="shared" si="54"/>
@@ -19665,11 +19809,11 @@
       </c>
       <c r="W408">
         <f t="shared" si="59"/>
-        <v>113.62544679991879</v>
+        <v>110.10362161880516</v>
       </c>
       <c r="X408">
         <f t="shared" si="60"/>
-        <v>113.15609207119104</v>
+        <v>109.63426689007741</v>
       </c>
       <c r="Y408">
         <f t="shared" si="54"/>
@@ -19706,11 +19850,11 @@
       </c>
       <c r="W409">
         <f t="shared" si="59"/>
-        <v>113.65630128685908</v>
+        <v>110.13447610574545</v>
       </c>
       <c r="X409">
         <f t="shared" si="60"/>
-        <v>113.18694655813135</v>
+        <v>109.66512137701773</v>
       </c>
       <c r="Y409">
         <f t="shared" si="54"/>
@@ -19747,11 +19891,11 @@
       </c>
       <c r="W410">
         <f t="shared" si="59"/>
-        <v>113.68710582288463</v>
+        <v>110.16528064177101</v>
       </c>
       <c r="X410">
         <f t="shared" si="60"/>
-        <v>113.21775109415691</v>
+        <v>109.69592591304328</v>
       </c>
       <c r="Y410">
         <f t="shared" si="54"/>
@@ -19788,11 +19932,11 @@
       </c>
       <c r="W411">
         <f t="shared" si="59"/>
-        <v>113.71786064670985</v>
+        <v>110.19603546559622</v>
       </c>
       <c r="X411">
         <f t="shared" si="60"/>
-        <v>113.24850591798213</v>
+        <v>109.7266807368685</v>
       </c>
       <c r="Y411">
         <f t="shared" si="54"/>
@@ -19829,11 +19973,11 @@
       </c>
       <c r="W412">
         <f t="shared" si="59"/>
-        <v>113.74856599534195</v>
+        <v>110.22674081422832</v>
       </c>
       <c r="X412">
         <f t="shared" si="60"/>
-        <v>113.27921126661423</v>
+        <v>109.7573860855006</v>
       </c>
       <c r="Y412">
         <f t="shared" si="54"/>
@@ -19870,11 +20014,11 @@
       </c>
       <c r="W413">
         <f t="shared" si="59"/>
-        <v>113.7792221040973</v>
+        <v>110.25739692298367</v>
       </c>
       <c r="X413">
         <f t="shared" si="60"/>
-        <v>113.30986737536958</v>
+        <v>109.78804219425595</v>
       </c>
       <c r="Y413">
         <f t="shared" si="54"/>
@@ -19911,11 +20055,11 @@
       </c>
       <c r="W414">
         <f t="shared" si="59"/>
-        <v>113.80982920661742</v>
+        <v>110.2880040255038</v>
       </c>
       <c r="X414">
         <f t="shared" si="60"/>
-        <v>113.3404744778897</v>
+        <v>109.81864929677607</v>
       </c>
       <c r="Y414">
         <f t="shared" si="54"/>
@@ -19952,11 +20096,11 @@
       </c>
       <c r="W415">
         <f t="shared" si="59"/>
-        <v>113.8403875348848</v>
+        <v>110.31856235377117</v>
       </c>
       <c r="X415">
         <f t="shared" si="60"/>
-        <v>113.37103280615707</v>
+        <v>109.84920762504345</v>
       </c>
       <c r="Y415">
         <f t="shared" si="54"/>
@@ -19993,11 +20137,11 @@
       </c>
       <c r="W416">
         <f t="shared" si="59"/>
-        <v>113.87089731923859</v>
+        <v>110.34907213812497</v>
       </c>
       <c r="X416">
         <f t="shared" si="60"/>
-        <v>113.40154259051087</v>
+        <v>109.87971740939724</v>
       </c>
       <c r="Y416">
         <f t="shared" si="54"/>
@@ -20034,11 +20178,11 @@
       </c>
       <c r="W417">
         <f t="shared" si="59"/>
-        <v>113.90135878839018</v>
+        <v>110.37953360727656</v>
       </c>
       <c r="X417">
         <f t="shared" si="60"/>
-        <v>113.43200405966246</v>
+        <v>109.91017887854883</v>
       </c>
       <c r="Y417">
         <f t="shared" si="54"/>
@@ -20075,11 +20219,11 @@
       </c>
       <c r="W418">
         <f t="shared" si="59"/>
-        <v>113.93177216943832</v>
+        <v>110.40994698832469</v>
       </c>
       <c r="X418">
         <f t="shared" si="60"/>
-        <v>113.4624174407106</v>
+        <v>109.94059225959697</v>
       </c>
       <c r="Y418">
         <f t="shared" si="54"/>
@@ -20116,11 +20260,11 @@
       </c>
       <c r="W419">
         <f t="shared" si="59"/>
-        <v>113.96213768788442</v>
+        <v>110.44031250677079</v>
       </c>
       <c r="X419">
         <f t="shared" si="60"/>
-        <v>113.4927829591567</v>
+        <v>109.97095777804307</v>
       </c>
       <c r="Y419">
         <f t="shared" si="54"/>
@@ -20157,11 +20301,11 @@
       </c>
       <c r="W420">
         <f t="shared" si="59"/>
-        <v>113.9924555676474</v>
+        <v>110.47063038653377</v>
       </c>
       <c r="X420">
         <f t="shared" si="60"/>
-        <v>113.52310083891967</v>
+        <v>110.00127565780605</v>
       </c>
       <c r="Y420">
         <f t="shared" si="54"/>
@@ -20198,11 +20342,11 @@
       </c>
       <c r="W421">
         <f t="shared" si="59"/>
-        <v>114.02272603107843</v>
+        <v>110.50090084996481</v>
       </c>
       <c r="X421">
         <f t="shared" si="60"/>
-        <v>113.55337130235071</v>
+        <v>110.03154612123708</v>
       </c>
       <c r="Y421">
         <f t="shared" si="54"/>
@@ -20239,11 +20383,11 @@
       </c>
       <c r="W422">
         <f t="shared" si="59"/>
-        <v>114.0529492989757</v>
+        <v>110.53112411786208</v>
       </c>
       <c r="X422">
         <f t="shared" si="60"/>
-        <v>113.58359457024795</v>
+        <v>110.06176938913433</v>
       </c>
       <c r="Y422">
         <f t="shared" ref="Y422:Y485" si="63">Y421+0.01</f>
@@ -20280,11 +20424,11 @@
       </c>
       <c r="W423">
         <f t="shared" si="59"/>
-        <v>114.0831255905986</v>
+        <v>110.56130040948497</v>
       </c>
       <c r="X423">
         <f t="shared" si="60"/>
-        <v>113.61377086187088</v>
+        <v>110.09194568075725</v>
       </c>
       <c r="Y423">
         <f t="shared" si="63"/>
@@ -20321,11 +20465,11 @@
       </c>
       <c r="W424">
         <f t="shared" si="59"/>
-        <v>114.11325512368219</v>
+        <v>110.59142994256857</v>
       </c>
       <c r="X424">
         <f t="shared" si="60"/>
-        <v>113.64390039495447</v>
+        <v>110.12207521384084</v>
       </c>
       <c r="Y424">
         <f t="shared" si="63"/>
@@ -20362,11 +20506,11 @@
       </c>
       <c r="W425">
         <f t="shared" si="59"/>
-        <v>114.14333811445127</v>
+        <v>110.62151293333764</v>
       </c>
       <c r="X425">
         <f t="shared" si="60"/>
-        <v>113.67398338572355</v>
+        <v>110.15215820460992</v>
       </c>
       <c r="Y425">
         <f t="shared" si="63"/>
@@ -20403,11 +20547,11 @@
       </c>
       <c r="W426">
         <f t="shared" si="59"/>
-        <v>114.17337477763419</v>
+        <v>110.65154959652057</v>
       </c>
       <c r="X426">
         <f t="shared" si="60"/>
-        <v>113.70402004890644</v>
+        <v>110.18219486779282</v>
       </c>
       <c r="Y426">
         <f t="shared" si="63"/>
@@ -20444,11 +20588,11 @@
       </c>
       <c r="W427">
         <f t="shared" si="59"/>
-        <v>114.20336532647673</v>
+        <v>110.6815401453631</v>
       </c>
       <c r="X427">
         <f t="shared" si="60"/>
-        <v>113.73401059774898</v>
+        <v>110.21218541663535</v>
       </c>
       <c r="Y427">
         <f t="shared" si="63"/>
@@ -20485,11 +20629,11 @@
       </c>
       <c r="W428">
         <f t="shared" si="59"/>
-        <v>114.23330997275568</v>
+        <v>110.71148479164205</v>
       </c>
       <c r="X428">
         <f t="shared" si="60"/>
-        <v>113.76395524402795</v>
+        <v>110.24213006291433</v>
       </c>
       <c r="Y428">
         <f t="shared" si="63"/>
@@ -20526,11 +20670,11 @@
       </c>
       <c r="W429">
         <f t="shared" si="59"/>
-        <v>114.2632089267924</v>
+        <v>110.74138374567877</v>
       </c>
       <c r="X429">
         <f t="shared" si="60"/>
-        <v>113.79385419806468</v>
+        <v>110.27202901695105</v>
       </c>
       <c r="Y429">
         <f t="shared" si="63"/>
@@ -20567,11 +20711,11 @@
       </c>
       <c r="W430">
         <f t="shared" si="59"/>
-        <v>114.29306239746597</v>
+        <v>110.77123721635235</v>
       </c>
       <c r="X430">
         <f t="shared" si="60"/>
-        <v>113.82370766873822</v>
+        <v>110.3018824876246</v>
       </c>
       <c r="Y430">
         <f t="shared" si="63"/>
@@ -20608,11 +20752,11 @@
       </c>
       <c r="W431">
         <f t="shared" si="59"/>
-        <v>114.32287059222639</v>
+        <v>110.80104541111277</v>
       </c>
       <c r="X431">
         <f t="shared" si="60"/>
-        <v>113.85351586349867</v>
+        <v>110.33169068238504</v>
       </c>
       <c r="Y431">
         <f t="shared" si="63"/>
@@ -20649,11 +20793,11 @@
       </c>
       <c r="W432">
         <f t="shared" si="59"/>
-        <v>114.35263371710772</v>
+        <v>110.83080853599409</v>
       </c>
       <c r="X432">
         <f t="shared" si="60"/>
-        <v>113.88327898838</v>
+        <v>110.36145380726637</v>
       </c>
       <c r="Y432">
         <f t="shared" si="63"/>
@@ -20690,11 +20834,11 @@
       </c>
       <c r="W433">
         <f t="shared" si="59"/>
-        <v>114.38235197674075</v>
+        <v>110.86052679562712</v>
       </c>
       <c r="X433">
         <f t="shared" si="60"/>
-        <v>113.91299724801303</v>
+        <v>110.3911720668994</v>
       </c>
       <c r="Y433">
         <f t="shared" si="63"/>
@@ -20731,11 +20875,11 @@
       </c>
       <c r="W434">
         <f t="shared" si="59"/>
-        <v>114.41202557436583</v>
+        <v>110.8902003932522</v>
       </c>
       <c r="X434">
         <f t="shared" si="60"/>
-        <v>113.94267084563808</v>
+        <v>110.42084566452445</v>
       </c>
       <c r="Y434">
         <f t="shared" si="63"/>
@@ -20772,11 +20916,11 @@
       </c>
       <c r="W435">
         <f t="shared" si="59"/>
-        <v>114.44165471184539</v>
+        <v>110.91982953073176</v>
       </c>
       <c r="X435">
         <f t="shared" si="60"/>
-        <v>113.97229998311764</v>
+        <v>110.45047480200401</v>
       </c>
       <c r="Y435">
         <f t="shared" si="63"/>
@@ -20813,11 +20957,11 @@
       </c>
       <c r="W436">
         <f t="shared" si="59"/>
-        <v>114.47123958967637</v>
+        <v>110.94941440856275</v>
       </c>
       <c r="X436">
         <f t="shared" si="60"/>
-        <v>114.00188486094865</v>
+        <v>110.48005967983502</v>
       </c>
       <c r="Y436">
         <f t="shared" si="63"/>
@@ -20854,11 +20998,11 @@
       </c>
       <c r="W437">
         <f t="shared" si="59"/>
-        <v>114.50078040700262</v>
+        <v>110.978955225889</v>
       </c>
       <c r="X437">
         <f t="shared" si="60"/>
-        <v>114.03142567827487</v>
+        <v>110.50960049716124</v>
       </c>
       <c r="Y437">
         <f t="shared" si="63"/>
@@ -20895,11 +21039,11 @@
       </c>
       <c r="W438">
         <f t="shared" si="59"/>
-        <v>114.53027736162682</v>
+        <v>111.00845218051319</v>
       </c>
       <c r="X438">
         <f t="shared" si="60"/>
-        <v>114.06092263289909</v>
+        <v>110.53909745178547</v>
       </c>
       <c r="Y438">
         <f t="shared" si="63"/>
@@ -20936,11 +21080,11 @@
       </c>
       <c r="W439">
         <f t="shared" si="59"/>
-        <v>114.55973065002271</v>
+        <v>111.03790546890909</v>
       </c>
       <c r="X439">
         <f t="shared" si="60"/>
-        <v>114.09037592129499</v>
+        <v>110.56855074018137</v>
       </c>
       <c r="Y439">
         <f t="shared" si="63"/>
@@ -20977,11 +21121,11 @@
       </c>
       <c r="W440">
         <f t="shared" si="59"/>
-        <v>114.58914046734685</v>
+        <v>111.06731528623322</v>
       </c>
       <c r="X440">
         <f t="shared" si="60"/>
-        <v>114.11978573861913</v>
+        <v>110.5979605575055</v>
       </c>
       <c r="Y440">
         <f t="shared" si="63"/>
@@ -21018,11 +21162,11 @@
       </c>
       <c r="W441">
         <f t="shared" si="59"/>
-        <v>114.61850700745046</v>
+        <v>111.09668182633683</v>
       </c>
       <c r="X441">
         <f t="shared" si="60"/>
-        <v>114.14915227872271</v>
+        <v>110.62732709760908</v>
       </c>
       <c r="Y441">
         <f t="shared" si="63"/>
@@ -21059,11 +21203,11 @@
       </c>
       <c r="W442">
         <f t="shared" si="59"/>
-        <v>114.64783046289085</v>
+        <v>111.12600528177722</v>
       </c>
       <c r="X442">
         <f t="shared" si="60"/>
-        <v>114.17847573416313</v>
+        <v>110.6566505530495</v>
       </c>
       <c r="Y442">
         <f t="shared" si="63"/>
@@ -21100,11 +21244,11 @@
       </c>
       <c r="W443">
         <f t="shared" si="59"/>
-        <v>114.6771110249432</v>
+        <v>111.15528584382957</v>
       </c>
       <c r="X443">
         <f t="shared" si="60"/>
-        <v>114.20775629621545</v>
+        <v>110.68593111510182</v>
       </c>
       <c r="Y443">
         <f t="shared" si="63"/>
@@ -21141,11 +21285,11 @@
       </c>
       <c r="W444">
         <f t="shared" si="59"/>
-        <v>114.70634888361161</v>
+        <v>111.18452370249798</v>
       </c>
       <c r="X444">
         <f t="shared" si="60"/>
-        <v>114.23699415488389</v>
+        <v>110.71516897377026</v>
       </c>
       <c r="Y444">
         <f t="shared" si="63"/>
@@ -21182,11 +21326,11 @@
       </c>
       <c r="W445">
         <f t="shared" si="59"/>
-        <v>114.73554422764062</v>
+        <v>111.21371904652699</v>
       </c>
       <c r="X445">
         <f t="shared" si="60"/>
-        <v>114.26618949891289</v>
+        <v>110.74436431779927</v>
       </c>
       <c r="Y445">
         <f t="shared" si="63"/>
@@ -21223,11 +21367,11 @@
       </c>
       <c r="W446">
         <f t="shared" si="59"/>
-        <v>114.76469724452608</v>
+        <v>111.24287206341245</v>
       </c>
       <c r="X446">
         <f t="shared" si="60"/>
-        <v>114.29534251579832</v>
+        <v>110.7735173346847</v>
       </c>
       <c r="Y446">
         <f t="shared" si="63"/>
@@ -21264,11 +21408,11 @@
       </c>
       <c r="W447">
         <f t="shared" si="59"/>
-        <v>114.79380812052622</v>
+        <v>111.2719829394126</v>
       </c>
       <c r="X447">
         <f t="shared" si="60"/>
-        <v>114.3244533917985</v>
+        <v>110.80262821068487</v>
       </c>
       <c r="Y447">
         <f t="shared" si="63"/>
@@ -21305,11 +21449,11 @@
       </c>
       <c r="W448">
         <f t="shared" si="59"/>
-        <v>114.82287704067267</v>
+        <v>111.30105185955904</v>
       </c>
       <c r="X448">
         <f t="shared" si="60"/>
-        <v>114.35352231194494</v>
+        <v>110.83169713083132</v>
       </c>
       <c r="Y448">
         <f t="shared" si="63"/>
@@ -21346,11 +21490,11 @@
       </c>
       <c r="W449">
         <f t="shared" si="59"/>
-        <v>114.85190418878099</v>
+        <v>111.33007900766736</v>
       </c>
       <c r="X449">
         <f t="shared" si="60"/>
-        <v>114.38254946005327</v>
+        <v>110.86072427893964</v>
       </c>
       <c r="Y449">
         <f t="shared" si="63"/>
@@ -21387,11 +21531,11 @@
       </c>
       <c r="W450">
         <f t="shared" si="59"/>
-        <v>114.88088974746137</v>
+        <v>111.35906456634774</v>
       </c>
       <c r="X450">
         <f t="shared" si="60"/>
-        <v>114.41153501873364</v>
+        <v>110.88970983762002</v>
       </c>
       <c r="Y450">
         <f t="shared" si="63"/>
@@ -21428,11 +21572,11 @@
       </c>
       <c r="W451">
         <f t="shared" ref="W451:W493" si="68">S451+Y451+$D$48+$D$49</f>
-        <v>114.90983389812919</v>
+        <v>111.38800871701557</v>
       </c>
       <c r="X451">
         <f t="shared" ref="X451:X493" si="69">$T451+$Y451+$D$48+$D$49</f>
-        <v>114.4404791694015</v>
+        <v>110.91865398828787</v>
       </c>
       <c r="Y451">
         <f t="shared" si="63"/>
@@ -21469,11 +21613,11 @@
       </c>
       <c r="W452">
         <f t="shared" si="68"/>
-        <v>114.93873682101548</v>
+        <v>111.41691163990185</v>
       </c>
       <c r="X452">
         <f t="shared" si="69"/>
-        <v>114.46938209228773</v>
+        <v>110.9475569111741</v>
       </c>
       <c r="Y452">
         <f t="shared" si="63"/>
@@ -21510,11 +21654,11 @@
       </c>
       <c r="W453">
         <f t="shared" si="68"/>
-        <v>114.96759869517695</v>
+        <v>111.44577351406332</v>
       </c>
       <c r="X453">
         <f t="shared" si="69"/>
-        <v>114.49824396644922</v>
+        <v>110.9764187853356</v>
       </c>
       <c r="Y453">
         <f t="shared" si="63"/>
@@ -21551,11 +21695,11 @@
       </c>
       <c r="W454">
         <f t="shared" si="68"/>
-        <v>114.99641969850651</v>
+        <v>111.47459451739289</v>
       </c>
       <c r="X454">
         <f t="shared" si="69"/>
-        <v>114.52706496977876</v>
+        <v>111.00523978866514</v>
       </c>
       <c r="Y454">
         <f t="shared" si="63"/>
@@ -21592,11 +21736,11 @@
       </c>
       <c r="W455">
         <f t="shared" si="68"/>
-        <v>115.02520000774305</v>
+        <v>111.50337482662943</v>
       </c>
       <c r="X455">
         <f t="shared" si="69"/>
-        <v>114.55584527901533</v>
+        <v>111.0340200979017</v>
       </c>
       <c r="Y455">
         <f t="shared" si="63"/>
@@ -21633,11 +21777,11 @@
       </c>
       <c r="W456">
         <f t="shared" si="68"/>
-        <v>115.05393979848162</v>
+        <v>111.53211461736799</v>
       </c>
       <c r="X456">
         <f t="shared" si="69"/>
-        <v>114.58458506975387</v>
+        <v>111.06275988864024</v>
       </c>
       <c r="Y456">
         <f t="shared" si="63"/>
@@ -21674,11 +21818,11 @@
       </c>
       <c r="W457">
         <f t="shared" si="68"/>
-        <v>115.08263924518309</v>
+        <v>111.56081406406946</v>
       </c>
       <c r="X457">
         <f t="shared" si="69"/>
-        <v>114.61328451645534</v>
+        <v>111.09145933534171</v>
       </c>
       <c r="Y457">
         <f t="shared" si="63"/>
@@ -21715,11 +21859,11 @@
       </c>
       <c r="W458">
         <f t="shared" si="68"/>
-        <v>115.11129852118401</v>
+        <v>111.58947334007038</v>
       </c>
       <c r="X458">
         <f t="shared" si="69"/>
-        <v>114.64194379245626</v>
+        <v>111.12011861134263</v>
       </c>
       <c r="Y458">
         <f t="shared" si="63"/>
@@ -21756,11 +21900,11 @@
       </c>
       <c r="W459">
         <f t="shared" si="68"/>
-        <v>115.13991779870622</v>
+        <v>111.61809261759259</v>
       </c>
       <c r="X459">
         <f t="shared" si="69"/>
-        <v>114.67056306997853</v>
+        <v>111.1487378888649</v>
       </c>
       <c r="Y459">
         <f t="shared" si="63"/>
@@ -21797,11 +21941,11 @@
       </c>
       <c r="W460">
         <f t="shared" si="68"/>
-        <v>115.16849724886649</v>
+        <v>111.64667206775286</v>
       </c>
       <c r="X460">
         <f t="shared" si="69"/>
-        <v>114.69914252013874</v>
+        <v>111.17731733902511</v>
       </c>
       <c r="Y460">
         <f t="shared" si="63"/>
@@ -21838,11 +21982,11 @@
       </c>
       <c r="W461">
         <f t="shared" si="68"/>
-        <v>115.19703704168566</v>
+        <v>111.67521186057203</v>
       </c>
       <c r="X461">
         <f t="shared" si="69"/>
-        <v>114.72768231295794</v>
+        <v>111.20585713184431</v>
       </c>
       <c r="Y461">
         <f t="shared" si="63"/>
@@ -21879,11 +22023,11 @@
       </c>
       <c r="W462">
         <f t="shared" si="68"/>
-        <v>115.22553734609835</v>
+        <v>111.70371216498472</v>
       </c>
       <c r="X462">
         <f t="shared" si="69"/>
-        <v>114.75618261737063</v>
+        <v>111.234357436257</v>
       </c>
       <c r="Y462">
         <f t="shared" si="63"/>
@@ -21920,11 +22064,11 @@
       </c>
       <c r="W463">
         <f t="shared" si="68"/>
-        <v>115.25399832996192</v>
+        <v>111.73217314884829</v>
       </c>
       <c r="X463">
         <f t="shared" si="69"/>
-        <v>114.78464360123419</v>
+        <v>111.26281842012057</v>
       </c>
       <c r="Y463">
         <f t="shared" si="63"/>
@@ -21961,11 +22105,11 @@
       </c>
       <c r="W464">
         <f t="shared" si="68"/>
-        <v>115.28242016006575</v>
+        <v>111.76059497895213</v>
       </c>
       <c r="X464">
         <f t="shared" si="69"/>
-        <v>114.81306543133803</v>
+        <v>111.2912402502244</v>
       </c>
       <c r="Y464">
         <f t="shared" si="63"/>
@@ -22002,11 +22146,11 @@
       </c>
       <c r="W465">
         <f t="shared" si="68"/>
-        <v>115.31080300214026</v>
+        <v>111.78897782102663</v>
       </c>
       <c r="X465">
         <f t="shared" si="69"/>
-        <v>114.84144827341251</v>
+        <v>111.31962309229888</v>
       </c>
       <c r="Y465">
         <f t="shared" si="63"/>
@@ -22043,11 +22187,11 @@
       </c>
       <c r="W466">
         <f t="shared" si="68"/>
-        <v>115.33914702086571</v>
+        <v>111.81732183975208</v>
       </c>
       <c r="X466">
         <f t="shared" si="69"/>
-        <v>114.86979229213799</v>
+        <v>111.34796711102436</v>
       </c>
       <c r="Y466">
         <f t="shared" si="63"/>
@@ -22084,11 +22228,11 @@
       </c>
       <c r="W467">
         <f t="shared" si="68"/>
-        <v>115.36745237988134</v>
+        <v>111.84562719876772</v>
       </c>
       <c r="X467">
         <f t="shared" si="69"/>
-        <v>114.89809765115359</v>
+        <v>111.37627247003996</v>
       </c>
       <c r="Y467">
         <f t="shared" si="63"/>
@@ -22125,11 +22269,11 @@
       </c>
       <c r="W468">
         <f t="shared" si="68"/>
-        <v>115.39571924179387</v>
+        <v>111.87389406068024</v>
       </c>
       <c r="X468">
         <f t="shared" si="69"/>
-        <v>114.92636451306615</v>
+        <v>111.40453933195252</v>
       </c>
       <c r="Y468">
         <f t="shared" si="63"/>
@@ -22166,11 +22310,11 @@
       </c>
       <c r="W469">
         <f t="shared" si="68"/>
-        <v>115.42394776818631</v>
+        <v>111.90212258707268</v>
       </c>
       <c r="X469">
         <f t="shared" si="69"/>
-        <v>114.95459303945856</v>
+        <v>111.43276785834493</v>
       </c>
       <c r="Y469">
         <f t="shared" si="63"/>
@@ -22207,11 +22351,11 @@
       </c>
       <c r="W470">
         <f t="shared" si="68"/>
-        <v>115.4521381196264</v>
+        <v>111.93031293851277</v>
       </c>
       <c r="X470">
         <f t="shared" si="69"/>
-        <v>114.98278339089867</v>
+        <v>111.46095820978505</v>
       </c>
       <c r="Y470">
         <f t="shared" si="63"/>
@@ -22248,11 +22392,11 @@
       </c>
       <c r="W471">
         <f t="shared" si="68"/>
-        <v>115.48029045567529</v>
+        <v>111.95846527456166</v>
       </c>
       <c r="X471">
         <f t="shared" si="69"/>
-        <v>115.01093572694754</v>
+        <v>111.48911054583391</v>
       </c>
       <c r="Y471">
         <f t="shared" si="63"/>
@@ -22289,11 +22433,11 @@
       </c>
       <c r="W472">
         <f t="shared" si="68"/>
-        <v>115.50840493489576</v>
+        <v>111.98657975378214</v>
       </c>
       <c r="X472">
         <f t="shared" si="69"/>
-        <v>115.03905020616804</v>
+        <v>111.51722502505442</v>
       </c>
       <c r="Y472">
         <f t="shared" si="63"/>
@@ -22330,11 +22474,11 @@
       </c>
       <c r="W473">
         <f t="shared" si="68"/>
-        <v>115.53648171486066</v>
+        <v>112.01465653374703</v>
       </c>
       <c r="X473">
         <f t="shared" si="69"/>
-        <v>115.06712698613293</v>
+        <v>111.54530180501931</v>
       </c>
       <c r="Y473">
         <f t="shared" si="63"/>
@@ -22371,11 +22515,11 @@
       </c>
       <c r="W474">
         <f t="shared" si="68"/>
-        <v>115.56452095216102</v>
+        <v>112.04269577104739</v>
       </c>
       <c r="X474">
         <f t="shared" si="69"/>
-        <v>115.0951662234333</v>
+        <v>111.57334104231967</v>
       </c>
       <c r="Y474">
         <f t="shared" si="63"/>
@@ -22412,11 +22556,11 @@
       </c>
       <c r="W475">
         <f t="shared" si="68"/>
-        <v>115.59252280241429</v>
+        <v>112.07069762130067</v>
       </c>
       <c r="X475">
         <f t="shared" si="69"/>
-        <v>115.12316807368654</v>
+        <v>111.60134289257292</v>
       </c>
       <c r="Y475">
         <f t="shared" si="63"/>
@@ -22453,11 +22597,11 @@
       </c>
       <c r="W476">
         <f t="shared" si="68"/>
-        <v>115.62048742027227</v>
+        <v>112.09866223915864</v>
       </c>
       <c r="X476">
         <f t="shared" si="69"/>
-        <v>115.15113269154455</v>
+        <v>111.62930751043092</v>
       </c>
       <c r="Y476">
         <f t="shared" si="63"/>
@@ -22494,11 +22638,11 @@
       </c>
       <c r="W477">
         <f t="shared" si="68"/>
-        <v>115.64841495942932</v>
+        <v>112.12658977831569</v>
       </c>
       <c r="X477">
         <f t="shared" si="69"/>
-        <v>115.17906023070157</v>
+        <v>111.65723504958794</v>
       </c>
       <c r="Y477">
         <f t="shared" si="63"/>
@@ -22535,11 +22679,11 @@
       </c>
       <c r="W478">
         <f t="shared" si="68"/>
-        <v>115.6763055726299</v>
+        <v>112.15448039151627</v>
       </c>
       <c r="X478">
         <f t="shared" si="69"/>
-        <v>115.20695084390218</v>
+        <v>111.68512566278855</v>
       </c>
       <c r="Y478">
         <f t="shared" si="63"/>
@@ -22576,11 +22720,11 @@
       </c>
       <c r="W479">
         <f t="shared" si="68"/>
-        <v>115.70415941167673</v>
+        <v>112.1823342305631</v>
       </c>
       <c r="X479">
         <f t="shared" si="69"/>
-        <v>115.234804682949</v>
+        <v>111.71297950183538</v>
       </c>
       <c r="Y479">
         <f t="shared" si="63"/>
@@ -22617,11 +22761,11 @@
       </c>
       <c r="W480">
         <f t="shared" si="68"/>
-        <v>115.73197662743826</v>
+        <v>112.21015144632463</v>
       </c>
       <c r="X480">
         <f t="shared" si="69"/>
-        <v>115.26262189871051</v>
+        <v>111.74079671759688</v>
       </c>
       <c r="Y480">
         <f t="shared" si="63"/>
@@ -22658,11 +22802,11 @@
       </c>
       <c r="W481">
         <f t="shared" si="68"/>
-        <v>115.75975736985646</v>
+        <v>112.23793218874283</v>
       </c>
       <c r="X481">
         <f t="shared" si="69"/>
-        <v>115.29040264112871</v>
+        <v>111.76857746001508</v>
       </c>
       <c r="Y481">
         <f t="shared" si="63"/>
@@ -22699,11 +22843,11 @@
       </c>
       <c r="W482">
         <f t="shared" si="68"/>
-        <v>115.78750178795431</v>
+        <v>112.26567660684069</v>
       </c>
       <c r="X482">
         <f t="shared" si="69"/>
-        <v>115.31814705922659</v>
+        <v>111.79632187811296</v>
       </c>
       <c r="Y482">
         <f t="shared" si="63"/>
@@ -22740,11 +22884,11 @@
       </c>
       <c r="W483">
         <f t="shared" si="68"/>
-        <v>115.8152100298434</v>
+        <v>112.29338484872977</v>
       </c>
       <c r="X483">
         <f t="shared" si="69"/>
-        <v>115.34585530111568</v>
+        <v>111.82403012000205</v>
       </c>
       <c r="Y483">
         <f t="shared" si="63"/>
@@ -22781,11 +22925,11 @@
       </c>
       <c r="W484">
         <f t="shared" si="68"/>
-        <v>115.84288224273126</v>
+        <v>112.32105706161764</v>
       </c>
       <c r="X484">
         <f t="shared" si="69"/>
-        <v>115.37352751400351</v>
+        <v>111.85170233288989</v>
       </c>
       <c r="Y484">
         <f t="shared" si="63"/>
@@ -22822,11 +22966,11 @@
       </c>
       <c r="W485">
         <f t="shared" si="68"/>
-        <v>115.87051857292866</v>
+        <v>112.34869339181503</v>
       </c>
       <c r="X485">
         <f t="shared" si="69"/>
-        <v>115.40116384420091</v>
+        <v>111.87933866308728</v>
       </c>
       <c r="Y485">
         <f t="shared" si="63"/>
@@ -22863,11 +23007,11 @@
       </c>
       <c r="W486">
         <f t="shared" si="68"/>
-        <v>115.898119165857</v>
+        <v>112.37629398474337</v>
       </c>
       <c r="X486">
         <f t="shared" si="69"/>
-        <v>115.42876443712925</v>
+        <v>111.90693925601562</v>
       </c>
       <c r="Y486">
         <f t="shared" ref="Y486:Y492" si="72">Y485+0.01</f>
@@ -22904,11 +23048,11 @@
       </c>
       <c r="W487">
         <f t="shared" si="68"/>
-        <v>115.92568416605542</v>
+        <v>112.40385898494179</v>
       </c>
       <c r="X487">
         <f t="shared" si="69"/>
-        <v>115.4563294373277</v>
+        <v>111.93450425621407</v>
       </c>
       <c r="Y487">
         <f t="shared" si="72"/>
@@ -22945,11 +23089,11 @@
       </c>
       <c r="W488">
         <f t="shared" si="68"/>
-        <v>115.95321371718799</v>
+        <v>112.43138853607437</v>
       </c>
       <c r="X488">
         <f t="shared" si="69"/>
-        <v>115.48385898846027</v>
+        <v>111.96203380734664</v>
       </c>
       <c r="Y488">
         <f t="shared" si="72"/>
@@ -22986,11 +23130,11 @@
       </c>
       <c r="W489">
         <f t="shared" si="68"/>
-        <v>115.98070796205067</v>
+        <v>112.45888278093705</v>
       </c>
       <c r="X489">
         <f t="shared" si="69"/>
-        <v>115.51135323332295</v>
+        <v>111.98952805220932</v>
       </c>
       <c r="Y489">
         <f t="shared" si="72"/>
@@ -23027,11 +23171,11 @@
       </c>
       <c r="W490">
         <f t="shared" si="68"/>
-        <v>116.00816704257838</v>
+        <v>112.48634186146475</v>
       </c>
       <c r="X490">
         <f t="shared" si="69"/>
-        <v>115.53881231385066</v>
+        <v>112.01698713273703</v>
       </c>
       <c r="Y490">
         <f t="shared" si="72"/>
@@ -23068,11 +23212,11 @@
       </c>
       <c r="W491">
         <f t="shared" si="68"/>
-        <v>116.03559109985184</v>
+        <v>112.51376591873822</v>
       </c>
       <c r="X491">
         <f t="shared" si="69"/>
-        <v>115.56623637112409</v>
+        <v>112.04441119001046</v>
       </c>
       <c r="Y491">
         <f t="shared" si="72"/>
@@ -23109,11 +23253,11 @@
       </c>
       <c r="W492">
         <f t="shared" si="68"/>
-        <v>116.0629802741044</v>
+        <v>112.54115509299078</v>
       </c>
       <c r="X492">
         <f t="shared" si="69"/>
-        <v>115.59362554537668</v>
+        <v>112.07180036426305</v>
       </c>
       <c r="Y492">
         <f t="shared" si="72"/>
@@ -23150,11 +23294,11 @@
       </c>
       <c r="W493">
         <f t="shared" si="68"/>
-        <v>116.33498370934288</v>
+        <v>112.81315852822925</v>
       </c>
       <c r="X493">
         <f t="shared" si="69"/>
-        <v>115.86562898061516</v>
+        <v>112.34380379950153</v>
       </c>
       <c r="Y493">
         <f>VLOOKUP(P493,Arkusz1!$A$1:$B$500,2,0)</f>
@@ -27585,11 +27729,11 @@
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A39:E39"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Projekt1-Wtykło-Dąbrowski-2.xlsx
+++ b/Projekt1-Wtykło-Dąbrowski-2.xlsx
@@ -3443,8 +3443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH772"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Projekt1-Wtykło-Dąbrowski-2.xlsx
+++ b/Projekt1-Wtykło-Dąbrowski-2.xlsx
@@ -475,16 +475,16 @@
     <t>Cost Hata - metropolitan (UPLINK)</t>
   </si>
   <si>
-    <t>Dopuszczalne tłumienie trasy 75% miejsc - PODMIEJSKI</t>
+    <t>Dopuszczalne tłumienie trasy  50% miejsc - Suburban</t>
   </si>
   <si>
-    <t>Dopuszczalne tłumienie trasy  50% miejsc - PODMIEJSKI</t>
+    <t>Dopuszczalne tłumienie trasy 75% miejsc - Suburban</t>
   </si>
   <si>
-    <t>Dopuszczalne tłumienie trasy  50% miejsc - METROPOLIA</t>
+    <t>Dopuszczalne tłumienie trasy  50% miejsc - Metropolitan</t>
   </si>
   <si>
-    <t>Dopuszczalne tłumienie trasy 75% miejsc - METROPOLIA</t>
+    <t>Dopuszczalne tłumienie trasy 75% miejsc - Metropolitan</t>
   </si>
 </sst>
 </file>
@@ -3983,8 +3983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH772"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8592,7 +8592,7 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" s="286" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B68" s="216">
         <v>147.62</v>
@@ -8667,7 +8667,7 @@
     </row>
     <row r="69" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="287" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B69" s="218">
         <v>142.62</v>
